--- a/C:\Users\yiwang\Desktop\sina.xlsx
+++ b/C:\Users\yiwang\Desktop\sina.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
   <si>
     <t>top_name</t>
   </si>
@@ -79,30 +79,30 @@
     <t>临时抱佛脚到底有没有用</t>
   </si>
   <si>
+    <t>中国传统文化该怎么保护</t>
+  </si>
+  <si>
+    <t>小樱到底有没有喜欢过鸣人</t>
+  </si>
+  <si>
+    <t>婚房被9个陌生人偷住4个月你怎么看</t>
+  </si>
+  <si>
+    <t>如何看待阿里腾讯考虑互相开放生态系统</t>
+  </si>
+  <si>
+    <t>如何治愈原生家庭带来的伤害</t>
+  </si>
+  <si>
+    <t>沈阳超市员工持刀伤人致2死7伤有哪些信息值得关注</t>
+  </si>
+  <si>
+    <t>姐弟恋真的能长久吗</t>
+  </si>
+  <si>
     <t>如何看待私立整形医院乱象</t>
   </si>
   <si>
-    <t>小樱到底有没有喜欢过鸣人</t>
-  </si>
-  <si>
-    <t>婚房被9个陌生人偷住4个月你怎么看</t>
-  </si>
-  <si>
-    <t>如何看待阿里腾讯考虑互相开放生态系统</t>
-  </si>
-  <si>
-    <t>如何治愈原生家庭带来的伤害</t>
-  </si>
-  <si>
-    <t>沈阳超市员工持刀伤人致2死7伤有哪些信息值得关注</t>
-  </si>
-  <si>
-    <t>姐弟恋真的能长久吗</t>
-  </si>
-  <si>
-    <t>中国传统文化该怎么保护</t>
-  </si>
-  <si>
     <t>即将租房开始独居需要准备什么</t>
   </si>
   <si>
@@ -127,24 +127,24 @@
     <t>电影中国医生为何催泪</t>
   </si>
   <si>
+    <t>以租代买的共享衣橱为什么倒下了</t>
+  </si>
+  <si>
+    <t>内向的人生气时在干什么</t>
+  </si>
+  <si>
+    <t>瘦了30斤后会有什么变化</t>
+  </si>
+  <si>
+    <t>痛经如何有效缓解</t>
+  </si>
+  <si>
+    <t>那些进产房前必须知道的事</t>
+  </si>
+  <si>
     <t>怎么看鞠婧祎起诉花椰菜大王二审败诉</t>
   </si>
   <si>
-    <t>内向的人生气时在干什么</t>
-  </si>
-  <si>
-    <t>瘦了30斤后会有什么变化</t>
-  </si>
-  <si>
-    <t>痛经如何有效缓解</t>
-  </si>
-  <si>
-    <t>那些进产房前必须知道的事</t>
-  </si>
-  <si>
-    <t>以租代买的共享衣橱为什么倒下了</t>
-  </si>
-  <si>
     <t>京东全员涨至16薪会带来什么影响</t>
   </si>
   <si>
@@ -175,96 +175,6 @@
     <t>7岁小女孩洗头后骑车为什么会成面瘫</t>
   </si>
   <si>
-    <t>读书是不是改变命运的唯一机会</t>
-  </si>
-  <si>
-    <t>父母追星该阻挠吗</t>
-  </si>
-  <si>
-    <t>如何看待大妈高铁吸烟触发警报下跪求饶</t>
-  </si>
-  <si>
-    <t>直播带货是电商标配吗</t>
-  </si>
-  <si>
-    <t>带娃上班的宝妈有多难</t>
-  </si>
-  <si>
-    <t>为什么只有男生可以光膀子</t>
-  </si>
-  <si>
-    <t>如何看待美国自称全球抗疫第一</t>
-  </si>
-  <si>
-    <t>爱笑的女孩运气一定不会太差吗</t>
-  </si>
-  <si>
-    <t>遇到建筑物坍塌该怎么办</t>
-  </si>
-  <si>
-    <t>二创内容属于侵权吗</t>
-  </si>
-  <si>
-    <t>苏州一酒店倒塌有哪些信息值得关注</t>
-  </si>
-  <si>
-    <t>孩子发脾气时该对抗管教吗</t>
-  </si>
-  <si>
-    <t>得知电影失孤原型的孩子找到了的感想</t>
-  </si>
-  <si>
-    <t>花泽香菜配SP面灵气有多合适</t>
-  </si>
-  <si>
-    <t>如何评价洛基大结局</t>
-  </si>
-  <si>
-    <t>美团宣布腾讯认购事项已完成意味着什么</t>
-  </si>
-  <si>
-    <t>如何通过奥运选拔</t>
-  </si>
-  <si>
-    <t>中国发现新恐龙足迹有哪些信息值得关注</t>
-  </si>
-  <si>
-    <t>雷雨天这些行为很危险</t>
-  </si>
-  <si>
-    <t>为什么只有中国能迈向天下为公</t>
-  </si>
-  <si>
-    <t>不转账就不会被骗吗</t>
-  </si>
-  <si>
-    <t>德约科维奇有多强</t>
-  </si>
-  <si>
-    <t>B站服务器机房故障带来什么影响</t>
-  </si>
-  <si>
-    <t>多少积蓄才能撑起一个快乐暑假</t>
-  </si>
-  <si>
-    <t>坏死性筋膜炎有多严重</t>
-  </si>
-  <si>
-    <t>大学生付费实习是天坑还是捷径</t>
-  </si>
-  <si>
-    <t>冒雨上班的各种姿势</t>
-  </si>
-  <si>
-    <t>摸鱼到极致是一种什么体验</t>
-  </si>
-  <si>
-    <t>老赖主动赔500元还欠74万你怎么看</t>
-  </si>
-  <si>
-    <t>脸上长痘是因为熬夜吗</t>
-  </si>
-  <si>
     <t>TOP1</t>
   </si>
   <si>
@@ -400,96 +310,6 @@
     <t>45</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>刘浩存父母的舞蹈机构教学不当导致小女孩残疾，她需要为父母的错误承...</t>
   </si>
   <si>
@@ -529,30 +349,30 @@
     <t>网友投稿: 考试之前临时抱佛脚，竟然通过了考试，大家有没有过类似的...</t>
   </si>
   <si>
+    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
+  </si>
+  <si>
+    <t>《火影忍者》也算是我们关于青春和暑假回忆的一部分了，你觉得漫画里...</t>
+  </si>
+  <si>
+    <t>前一段时间，河南南阳网红余岛岛在网络上向大家求助，说他的婚房被一...</t>
+  </si>
+  <si>
+    <t>阿里巴巴的初步举措可能包括将腾讯控股的微信支付引入淘宝和天猫；双...</t>
+  </si>
+  <si>
+    <t>《谎言真探》中，连环杀人案的主谋童年曾受到来自父亲的家暴虐待。从...</t>
+  </si>
+  <si>
+    <t>7月14日，沈阳市某超市发生一起刑事案件，该超市肉食柜台员工田某某持...</t>
+  </si>
+  <si>
+    <t>今日，有媒体拍到于晓光与美女亲密搂抱！于晓光和妻子秋瓷炫俩人是姐...</t>
+  </si>
+  <si>
     <t>杭州一名女性在抽脂术后2个月死亡。我们要问一下，抽脂真的是‘轻松’？...</t>
   </si>
   <si>
-    <t>《火影忍者》也算是我们关于青春和暑假回忆的一部分了，你觉得漫画里...</t>
-  </si>
-  <si>
-    <t>前一段时间，河南南阳网红余岛岛在网络上向大家求助，说他的婚房被一...</t>
-  </si>
-  <si>
-    <t>阿里巴巴的初步举措可能包括将腾讯控股的微信支付引入淘宝和天猫；双...</t>
-  </si>
-  <si>
-    <t>《谎言真探》中，连环杀人案的主谋童年曾受到来自父亲的家暴虐待。从...</t>
-  </si>
-  <si>
-    <t>7月14日，沈阳市某超市发生一起刑事案件，该超市肉食柜台员工田某某持...</t>
-  </si>
-  <si>
-    <t>今日，有媒体拍到于晓光与美女亲密搂抱！于晓光和妻子秋瓷炫俩人是姐...</t>
-  </si>
-  <si>
-    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
-  </si>
-  <si>
     <t>很多人独居都不知道怎么装饰自己的小窝，收下这份安利，把自己的小空...</t>
   </si>
   <si>
@@ -577,24 +397,24 @@
     <t>对于从这场战争中走出不久的国人而言，电影中的任何虚构都可能带来质...</t>
   </si>
   <si>
+    <t>从初创时的风光无限到而今纷纷宣告倒闭，共享衣橱这一赛道究竟经历了...</t>
+  </si>
+  <si>
+    <t>吵架是外向的人生气时会做的事，那么内向的人生气时会怎样呢？</t>
+  </si>
+  <si>
+    <t>瘦了30斤后会有什么变化？带上话题词一起来说说你的瘦身经历吧～</t>
+  </si>
+  <si>
+    <t>用药、暖敷、多喝热水...缓解痛经你都试过哪些方法？一起来聊聊吧！</t>
+  </si>
+  <si>
+    <t>生孩子可不是想生就生！准妈妈生产前需要知道哪些事，才能让自己做足...</t>
+  </si>
+  <si>
     <t>鞠婧祎之前起诉网红花椰菜大王侵犯名誉权后败诉，随后丝芭文化发布声...</t>
   </si>
   <si>
-    <t>吵架是外向的人生气时会做的事，那么内向的人生气时会怎样呢？</t>
-  </si>
-  <si>
-    <t>瘦了30斤后会有什么变化？带上话题词一起来说说你的瘦身经历吧～</t>
-  </si>
-  <si>
-    <t>用药、暖敷、多喝热水...缓解痛经你都试过哪些方法？一起来聊聊吧！</t>
-  </si>
-  <si>
-    <t>生孩子可不是想生就生！准妈妈生产前需要知道哪些事，才能让自己做足...</t>
-  </si>
-  <si>
-    <t>从初创时的风光无限到而今纷纷宣告倒闭，共享衣橱这一赛道究竟经历了...</t>
-  </si>
-  <si>
     <t>7月13日，京东集团宣布自2021年7月1日开始到2023年7月1日，用两年时间...</t>
   </si>
   <si>
@@ -625,316 +445,136 @@
     <t>戴挂脖式小风扇，睡醒之后可能会面瘫；洗完头，头发没有吹干就骑车出...</t>
   </si>
   <si>
-    <t>张桂梅老师用十几年的时间，几乎是用生命在证明，女孩读书可以改变三...</t>
-  </si>
-  <si>
-    <t>近日，女儿吐槽妈妈花800买歌手代言咖啡机引发热议。该网友吐槽自己妈...</t>
-  </si>
-  <si>
-    <t>7月11日，河北，一女子在高铁车厢内吸烟触发警报，该女子当场下跪知错...</t>
-  </si>
-  <si>
-    <t>疫情期间，直播带货迅速席卷各大电商平台，似乎成为了电商的一个标配...</t>
-  </si>
-  <si>
-    <t>武汉远郊的一家服装厂专招全职宝妈，这些带着孩子来工厂的母亲，最终...</t>
-  </si>
-  <si>
-    <t>“为什么只有男生才可以光膀子”来自女儿的拷问。你觉得这是为什么呢？</t>
-  </si>
-  <si>
-    <t>近日，彭博社发布了一项着眼于世界主要国家如何应对大流行的排名公布...</t>
-  </si>
-  <si>
-    <t>本期《姐妹俱乐部》中，卫朝总是以“爱笑的女孩运气一定不会太差”为由...</t>
-  </si>
-  <si>
-    <t>苏州吴江一酒店倒塌，遇到建筑物坍塌时你知道该如何应对吗？一起学习...</t>
-  </si>
-  <si>
-    <t>2021中国互联网大会于7.13-7.15在北京国家会议中心举行。其议程知识产...</t>
-  </si>
-  <si>
-    <t>7月12日下午，江苏省苏州市吴江区松陵镇油车路188号四季开源酒店发生...</t>
-  </si>
-  <si>
-    <t>在《不要小看我》节目中雷雷情绪失控，生气砸东西，张萌选择坚定的态...</t>
-  </si>
-  <si>
-    <t>7月11日，从电影《失孤》原型郭刚堂处证实，他已获知儿子郭振的下落。...</t>
-  </si>
-  <si>
-    <t>花泽香菜本身的业务能力毋容置疑，从SSR面灵气到SP面灵气，可攻可柔无...</t>
-  </si>
-  <si>
-    <t>《洛基》第一季大结局今日上线，但是结局褒贬不一，你如何评价这个大...</t>
-  </si>
-  <si>
-    <t>据凤凰网科技，美团宣布腾讯认购事项已完成，美团已向腾讯配发及发...</t>
-  </si>
-  <si>
-    <t>备受瞩目的东京奥运会中国体育代表团正式成立啦，我国体育事业的不断...</t>
-  </si>
-  <si>
-    <t>7月6日，中国地质大学（北京）恐龙足迹研究团队宣布在四川泸州市古蔺...</t>
-  </si>
-  <si>
-    <t>7月13日，台湾苗栗一名男子在跑步时被雷劈中当场失去呼吸心跳，当时耳...</t>
-  </si>
-  <si>
-    <t>谈起中国共产党与中国政治传统的关系，肯定离不开“公”这个字。我们国...</t>
-  </si>
-  <si>
-    <t>大多数人以为只要不转账就不会被骗，其实不然，网商银行同中信银行杭...</t>
-  </si>
-  <si>
-    <t>德约科维奇在温网夺得第20个大满贯，追平了费德勒和纳达尔，曾经他一...</t>
-  </si>
-  <si>
-    <t>7月13日晚，B站的部分服务器机房发生故障，造成无法访问。随后，A站、...</t>
-  </si>
-  <si>
-    <t>你觉得，多少积蓄才能撑起一个快乐暑假？你觉得最快乐的暑假是什么样的？</t>
-  </si>
-  <si>
-    <t>抽脂手术是项大手术，它最可怕的地方就是发生坏死性筋膜炎。这种病...</t>
-  </si>
-  <si>
-    <t>最近“付费实习”成为网络热点，天价实习究竟是骗钱的“天坑”还是就业的“...</t>
-  </si>
-  <si>
-    <t>​“霸屏”整个周末的华北地区最强暴雨真的来了……你在上班路上吗？快来晒...</t>
-  </si>
-  <si>
-    <t>“摸鱼”这个话题不断被讨论，它既是“社畜”的神仙丸，又是职场的灰色地...</t>
-  </si>
-  <si>
-    <t>13日，教科书式耍赖事件受害人儿子赵勇透露，黄淑芬主动赔偿了500元钱...</t>
-  </si>
-  <si>
-    <t>脸上长痘绝大部分就是皮肤科常见病：痤疮。你被痘痘困扰过吗？</t>
-  </si>
-  <si>
-    <t>2.2亿</t>
-  </si>
-  <si>
-    <t>7668.5万</t>
-  </si>
-  <si>
-    <t>2037.4万</t>
-  </si>
-  <si>
-    <t>9664.8万</t>
-  </si>
-  <si>
-    <t>3617.4万</t>
+    <t>2.3亿</t>
+  </si>
+  <si>
+    <t>7697.7万</t>
+  </si>
+  <si>
+    <t>2055.6万</t>
+  </si>
+  <si>
+    <t>9695.2万</t>
+  </si>
+  <si>
+    <t>3627.8万</t>
   </si>
   <si>
     <t>3.1亿</t>
   </si>
   <si>
-    <t>347.5万</t>
-  </si>
-  <si>
-    <t>9649万</t>
-  </si>
-  <si>
-    <t>1317.3万</t>
-  </si>
-  <si>
-    <t>9995.1万</t>
-  </si>
-  <si>
-    <t>9934万</t>
-  </si>
-  <si>
-    <t>3446.5万</t>
-  </si>
-  <si>
-    <t>746.7万</t>
-  </si>
-  <si>
-    <t>187.8万</t>
+    <t>352.5万</t>
+  </si>
+  <si>
+    <t>9661.3万</t>
+  </si>
+  <si>
+    <t>1321.4万</t>
+  </si>
+  <si>
+    <t>1亿</t>
+  </si>
+  <si>
+    <t>9991.8万</t>
+  </si>
+  <si>
+    <t>3450.6万</t>
+  </si>
+  <si>
+    <t>747.4万</t>
+  </si>
+  <si>
+    <t>1349.5万</t>
   </si>
   <si>
     <t>1.2亿</t>
   </si>
   <si>
-    <t>733.4万</t>
-  </si>
-  <si>
-    <t>61.1万</t>
-  </si>
-  <si>
-    <t>6611.3万</t>
-  </si>
-  <si>
-    <t>150.5万</t>
-  </si>
-  <si>
-    <t>366.4万</t>
-  </si>
-  <si>
-    <t>1338万</t>
-  </si>
-  <si>
-    <t>301.3万</t>
+    <t>749.5万</t>
+  </si>
+  <si>
+    <t>62.4万</t>
+  </si>
+  <si>
+    <t>6614.9万</t>
+  </si>
+  <si>
+    <t>151.3万</t>
+  </si>
+  <si>
+    <t>369.5万</t>
+  </si>
+  <si>
+    <t>197.2万</t>
+  </si>
+  <si>
+    <t>305.9万</t>
   </si>
   <si>
     <t>2.7亿</t>
   </si>
   <si>
-    <t>3110.5万</t>
-  </si>
-  <si>
-    <t>17.6万</t>
-  </si>
-  <si>
-    <t>222.9万</t>
-  </si>
-  <si>
-    <t>2145.5万</t>
-  </si>
-  <si>
-    <t>294.1万</t>
-  </si>
-  <si>
-    <t>1391.6万</t>
-  </si>
-  <si>
-    <t>52.1万</t>
-  </si>
-  <si>
-    <t>8279.8万</t>
+    <t>3112.7万</t>
+  </si>
+  <si>
+    <t>19.1万</t>
+  </si>
+  <si>
+    <t>224.8万</t>
+  </si>
+  <si>
+    <t>2147.4万</t>
+  </si>
+  <si>
+    <t>294.2万</t>
+  </si>
+  <si>
+    <t>1391.8万</t>
+  </si>
+  <si>
+    <t>127.7万</t>
+  </si>
+  <si>
+    <t>8283.8万</t>
   </si>
   <si>
     <t>6.2亿</t>
   </si>
   <si>
-    <t>757.5万</t>
-  </si>
-  <si>
-    <t>105.6万</t>
-  </si>
-  <si>
-    <t>127.3万</t>
-  </si>
-  <si>
-    <t>5205.1万</t>
-  </si>
-  <si>
-    <t>76.1万</t>
-  </si>
-  <si>
-    <t>43.2万</t>
-  </si>
-  <si>
-    <t>336.5万</t>
-  </si>
-  <si>
-    <t>3217.1万</t>
-  </si>
-  <si>
-    <t>7540万</t>
-  </si>
-  <si>
-    <t>8381.4万</t>
+    <t>758.4万</t>
+  </si>
+  <si>
+    <t>108.2万</t>
+  </si>
+  <si>
+    <t>53.2万</t>
+  </si>
+  <si>
+    <t>5208.5万</t>
+  </si>
+  <si>
+    <t>76.2万</t>
+  </si>
+  <si>
+    <t>44万</t>
+  </si>
+  <si>
+    <t>343.5万</t>
+  </si>
+  <si>
+    <t>3217.2万</t>
+  </si>
+  <si>
+    <t>7541.1万</t>
+  </si>
+  <si>
+    <t>8382.8万</t>
   </si>
   <si>
     <t>5.8亿</t>
   </si>
   <si>
-    <t>13.6万</t>
-  </si>
-  <si>
-    <t>414.9万</t>
-  </si>
-  <si>
-    <t>783.4万</t>
-  </si>
-  <si>
-    <t>640.6万</t>
-  </si>
-  <si>
-    <t>268.5万</t>
-  </si>
-  <si>
-    <t>235万</t>
-  </si>
-  <si>
-    <t>2.6亿</t>
-  </si>
-  <si>
-    <t>1450.3万</t>
-  </si>
-  <si>
-    <t>2亿</t>
-  </si>
-  <si>
-    <t>384.6万</t>
-  </si>
-  <si>
-    <t>4632.1万</t>
-  </si>
-  <si>
-    <t>1348.9万</t>
-  </si>
-  <si>
-    <t>1亿</t>
-  </si>
-  <si>
-    <t>5296.5万</t>
-  </si>
-  <si>
-    <t>390.7万</t>
-  </si>
-  <si>
-    <t>162.8万</t>
-  </si>
-  <si>
-    <t>70.3万</t>
-  </si>
-  <si>
-    <t>109.5万</t>
-  </si>
-  <si>
-    <t>87.4万</t>
-  </si>
-  <si>
-    <t>352.4万</t>
-  </si>
-  <si>
-    <t>99万</t>
-  </si>
-  <si>
-    <t>1.3亿</t>
-  </si>
-  <si>
-    <t>1057.6万</t>
-  </si>
-  <si>
-    <t>2531.2万</t>
-  </si>
-  <si>
-    <t>9055.6万</t>
-  </si>
-  <si>
-    <t>396.3万</t>
-  </si>
-  <si>
-    <t>1.7亿</t>
-  </si>
-  <si>
-    <t>1188.4万</t>
-  </si>
-  <si>
-    <t>237万</t>
-  </si>
-  <si>
-    <t>47.8万</t>
-  </si>
-  <si>
-    <t>5亿</t>
+    <t>13.7万</t>
   </si>
   <si>
     <t>追剧综的李二狗</t>
@@ -976,6 +616,9 @@
     <t>这个太牛了</t>
   </si>
   <si>
+    <t>西部雄仔</t>
+  </si>
+  <si>
     <t>阿莫学长</t>
   </si>
   <si>
@@ -985,9 +628,6 @@
     <t>娱理</t>
   </si>
   <si>
-    <t>西部雄仔</t>
-  </si>
-  <si>
     <t>人间百宝箱</t>
   </si>
   <si>
@@ -1003,21 +643,21 @@
     <t>光明日报</t>
   </si>
   <si>
+    <t>现男友</t>
+  </si>
+  <si>
+    <t>陈甜竹</t>
+  </si>
+  <si>
+    <t>微博健康</t>
+  </si>
+  <si>
+    <t>堂堂小方总</t>
+  </si>
+  <si>
     <t>娱老爷</t>
   </si>
   <si>
-    <t>现男友</t>
-  </si>
-  <si>
-    <t>陈甜竹</t>
-  </si>
-  <si>
-    <t>微博健康</t>
-  </si>
-  <si>
-    <t>堂堂小方总</t>
-  </si>
-  <si>
     <t>微博科技</t>
   </si>
   <si>
@@ -1031,69 +671,6 @@
   </si>
   <si>
     <t>陈秋欤</t>
-  </si>
-  <si>
-    <t>一缕思绪</t>
-  </si>
-  <si>
-    <t>中国新闻周刊</t>
-  </si>
-  <si>
-    <t>网易浪潮工作室</t>
-  </si>
-  <si>
-    <t>沈唤唤</t>
-  </si>
-  <si>
-    <t>微天下</t>
-  </si>
-  <si>
-    <t>THE9-谢可寅</t>
-  </si>
-  <si>
-    <t>国家应急广播</t>
-  </si>
-  <si>
-    <t>张萌</t>
-  </si>
-  <si>
-    <t>痒痒鼠办事处</t>
-  </si>
-  <si>
-    <t>微博海外剧</t>
-  </si>
-  <si>
-    <t>新华网</t>
-  </si>
-  <si>
-    <t>新浪新闻客户端</t>
-  </si>
-  <si>
-    <t>新闻晨报</t>
-  </si>
-  <si>
-    <t>范勇鹏-</t>
-  </si>
-  <si>
-    <t>新浪网球</t>
-  </si>
-  <si>
-    <t>年糕妈妈</t>
-  </si>
-  <si>
-    <t>封面新闻</t>
-  </si>
-  <si>
-    <t>中新经纬</t>
-  </si>
-  <si>
-    <t>中国新闻网</t>
-  </si>
-  <si>
-    <t>三联生活周刊</t>
-  </si>
-  <si>
-    <t>央视新闻</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1488,22 +1065,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="F2">
         <v>3518</v>
       </c>
       <c r="G2">
-        <v>3736687</v>
+        <v>3737578</v>
       </c>
       <c r="H2">
         <v>6395</v>
@@ -1514,22 +1091,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>1650</v>
       </c>
       <c r="G3">
-        <v>103526664</v>
+        <v>103526797</v>
       </c>
       <c r="H3">
         <v>211844</v>
@@ -1540,22 +1117,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="F4">
         <v>525</v>
       </c>
       <c r="G4">
-        <v>9013536</v>
+        <v>9013599</v>
       </c>
       <c r="H4">
         <v>7462</v>
@@ -1566,22 +1143,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="F5">
         <v>264</v>
       </c>
       <c r="G5">
-        <v>2292502</v>
+        <v>2292505</v>
       </c>
       <c r="H5">
         <v>16911</v>
@@ -1592,25 +1169,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="F6">
         <v>2694</v>
       </c>
       <c r="G6">
-        <v>23741113</v>
+        <v>23741115</v>
       </c>
       <c r="H6">
-        <v>259721</v>
+        <v>259722</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1618,22 +1195,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="F7">
         <v>671</v>
       </c>
       <c r="G7">
-        <v>13701822</v>
+        <v>13704159</v>
       </c>
       <c r="H7">
         <v>9999</v>
@@ -1644,22 +1221,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="F8">
         <v>2581</v>
       </c>
       <c r="G8">
-        <v>8898967</v>
+        <v>8898957</v>
       </c>
       <c r="H8">
         <v>5389</v>
@@ -1670,16 +1247,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="F9">
         <v>78</v>
@@ -1696,22 +1273,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="F10">
         <v>1284</v>
       </c>
       <c r="G10">
-        <v>8415572</v>
+        <v>8415581</v>
       </c>
       <c r="H10">
         <v>86811</v>
@@ -1722,22 +1299,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="F11">
         <v>739</v>
       </c>
       <c r="G11">
-        <v>47867809</v>
+        <v>47867803</v>
       </c>
       <c r="H11">
         <v>263412</v>
@@ -1748,16 +1325,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="F12">
         <v>1398</v>
@@ -1774,25 +1351,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="F13">
         <v>791</v>
       </c>
       <c r="G13">
-        <v>41485879</v>
+        <v>41485872</v>
       </c>
       <c r="H13">
-        <v>42036</v>
+        <v>42037</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1800,22 +1377,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>199</v>
       </c>
       <c r="F14">
         <v>392</v>
       </c>
       <c r="G14">
-        <v>9608390</v>
+        <v>9608405</v>
       </c>
       <c r="H14">
         <v>79685</v>
@@ -1826,25 +1403,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>2694</v>
+        <v>291</v>
       </c>
       <c r="G15">
-        <v>23741113</v>
+        <v>5248950</v>
       </c>
       <c r="H15">
-        <v>259721</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1852,22 +1429,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>201</v>
       </c>
       <c r="F16">
         <v>177</v>
       </c>
       <c r="G16">
-        <v>11617322</v>
+        <v>11617386</v>
       </c>
       <c r="H16">
         <v>2723</v>
@@ -1878,22 +1455,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="F17">
         <v>1650</v>
       </c>
       <c r="G17">
-        <v>103526668</v>
+        <v>103526797</v>
       </c>
       <c r="H17">
         <v>211844</v>
@@ -1904,22 +1481,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="F18">
         <v>525</v>
       </c>
       <c r="G18">
-        <v>9013536</v>
+        <v>9013600</v>
       </c>
       <c r="H18">
         <v>7462</v>
@@ -1930,16 +1507,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="F19">
         <v>1398</v>
@@ -1956,22 +1533,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="F20">
         <v>818</v>
       </c>
       <c r="G20">
-        <v>20569161</v>
+        <v>20569156</v>
       </c>
       <c r="H20">
         <v>40258</v>
@@ -1982,22 +1559,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="F21">
         <v>1351</v>
       </c>
       <c r="G21">
-        <v>6934849</v>
+        <v>6934847</v>
       </c>
       <c r="H21">
         <v>13568</v>
@@ -2008,25 +1585,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="F22">
-        <v>291</v>
+        <v>2694</v>
       </c>
       <c r="G22">
-        <v>5248922</v>
+        <v>23741115</v>
       </c>
       <c r="H22">
-        <v>1786</v>
+        <v>259722</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2034,22 +1611,22 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="F23">
         <v>64</v>
       </c>
       <c r="G23">
-        <v>2404837</v>
+        <v>2404847</v>
       </c>
       <c r="H23">
         <v>179</v>
@@ -2060,22 +1637,22 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="F24">
         <v>105</v>
       </c>
       <c r="G24">
-        <v>3641731</v>
+        <v>3641729</v>
       </c>
       <c r="H24">
         <v>33005</v>
@@ -2086,22 +1663,22 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="F25">
         <v>1284</v>
       </c>
       <c r="G25">
-        <v>8415572</v>
+        <v>8415581</v>
       </c>
       <c r="H25">
         <v>86811</v>
@@ -2112,22 +1689,22 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="F26">
         <v>174</v>
       </c>
       <c r="G26">
-        <v>1452176</v>
+        <v>1452177</v>
       </c>
       <c r="H26">
         <v>2312</v>
@@ -2138,22 +1715,22 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="F27">
         <v>1650</v>
       </c>
       <c r="G27">
-        <v>103526670</v>
+        <v>103526800</v>
       </c>
       <c r="H27">
         <v>211844</v>
@@ -2164,22 +1741,22 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="F28">
         <v>33</v>
       </c>
       <c r="G28">
-        <v>2426002</v>
+        <v>2426005</v>
       </c>
       <c r="H28">
         <v>87</v>
@@ -2190,22 +1767,22 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="F29">
         <v>264</v>
       </c>
       <c r="G29">
-        <v>2292502</v>
+        <v>2292505</v>
       </c>
       <c r="H29">
         <v>16911</v>
@@ -2216,22 +1793,22 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="F30">
         <v>700</v>
       </c>
       <c r="G30">
-        <v>24005648</v>
+        <v>24005657</v>
       </c>
       <c r="H30">
         <v>75463</v>
@@ -2242,25 +1819,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <v>1530</v>
+        <v>2694</v>
       </c>
       <c r="G31">
-        <v>3361700</v>
+        <v>23741115</v>
       </c>
       <c r="H31">
-        <v>14106</v>
+        <v>259722</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2268,16 +1845,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="F32">
         <v>133</v>
@@ -2294,22 +1871,22 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="F33">
         <v>92</v>
       </c>
       <c r="G33">
-        <v>10701113</v>
+        <v>10701111</v>
       </c>
       <c r="H33">
         <v>3825</v>
@@ -2320,16 +1897,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="F34">
         <v>1431</v>
@@ -2346,22 +1923,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="F35">
         <v>131</v>
       </c>
       <c r="G35">
-        <v>3932522</v>
+        <v>3932520</v>
       </c>
       <c r="H35">
         <v>28199</v>
@@ -2372,25 +1949,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="F36">
-        <v>2694</v>
+        <v>1530</v>
       </c>
       <c r="G36">
-        <v>23741113</v>
+        <v>3361701</v>
       </c>
       <c r="H36">
-        <v>259721</v>
+        <v>14106</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2398,25 +1975,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="F37">
         <v>2694</v>
       </c>
       <c r="G37">
-        <v>23741113</v>
+        <v>23741115</v>
       </c>
       <c r="H37">
-        <v>259721</v>
+        <v>259722</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2424,22 +2001,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="F38">
         <v>1650</v>
       </c>
       <c r="G38">
-        <v>103526674</v>
+        <v>103526799</v>
       </c>
       <c r="H38">
         <v>211844</v>
@@ -2450,22 +2027,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="F39">
         <v>1156</v>
       </c>
       <c r="G39">
-        <v>2177727</v>
+        <v>2177728</v>
       </c>
       <c r="H39">
         <v>18249</v>
@@ -2476,22 +2053,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="F40">
         <v>1004</v>
       </c>
       <c r="G40">
-        <v>955481</v>
+        <v>955480</v>
       </c>
       <c r="H40">
         <v>4698</v>
@@ -2502,16 +2079,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="F41">
         <v>1467</v>
@@ -2528,22 +2105,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F42">
         <v>1530</v>
       </c>
       <c r="G42">
-        <v>3361700</v>
+        <v>3361701</v>
       </c>
       <c r="H42">
         <v>14106</v>
@@ -2554,16 +2131,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="E43" t="s">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c r="F43">
         <v>126</v>
@@ -2580,22 +2157,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="F44">
         <v>1650</v>
       </c>
       <c r="G44">
-        <v>103526675</v>
+        <v>103526800</v>
       </c>
       <c r="H44">
         <v>211844</v>
@@ -2606,22 +2183,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="F45">
         <v>129</v>
       </c>
       <c r="G45">
-        <v>14561898</v>
+        <v>14561897</v>
       </c>
       <c r="H45">
         <v>1635</v>
@@ -2632,16 +2209,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="F46">
         <v>1431</v>
@@ -2651,786 +2228,6 @@
       </c>
       <c r="H46">
         <v>41145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>277</v>
-      </c>
-      <c r="E47" t="s">
-        <v>339</v>
-      </c>
-      <c r="F47">
-        <v>103</v>
-      </c>
-      <c r="G47">
-        <v>2138369</v>
-      </c>
-      <c r="H47">
-        <v>19077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" t="s">
-        <v>340</v>
-      </c>
-      <c r="F48">
-        <v>2608</v>
-      </c>
-      <c r="G48">
-        <v>59974014</v>
-      </c>
-      <c r="H48">
-        <v>167882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" t="s">
-        <v>308</v>
-      </c>
-      <c r="F49">
-        <v>1650</v>
-      </c>
-      <c r="G49">
-        <v>103526676</v>
-      </c>
-      <c r="H49">
-        <v>211844</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E50" t="s">
-        <v>334</v>
-      </c>
-      <c r="F50">
-        <v>1156</v>
-      </c>
-      <c r="G50">
-        <v>2177727</v>
-      </c>
-      <c r="H50">
-        <v>18249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E51" t="s">
-        <v>341</v>
-      </c>
-      <c r="F51">
-        <v>133</v>
-      </c>
-      <c r="G51">
-        <v>1212140</v>
-      </c>
-      <c r="H51">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" t="s">
-        <v>282</v>
-      </c>
-      <c r="E52" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52">
-        <v>335</v>
-      </c>
-      <c r="G52">
-        <v>8796803</v>
-      </c>
-      <c r="H52">
-        <v>17188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" t="s">
-        <v>343</v>
-      </c>
-      <c r="F53">
-        <v>1191</v>
-      </c>
-      <c r="G53">
-        <v>32769503</v>
-      </c>
-      <c r="H53">
-        <v>174117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D54" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" t="s">
-        <v>344</v>
-      </c>
-      <c r="F54">
-        <v>170</v>
-      </c>
-      <c r="G54">
-        <v>7595159</v>
-      </c>
-      <c r="H54">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" t="s">
-        <v>285</v>
-      </c>
-      <c r="E55" t="s">
-        <v>345</v>
-      </c>
-      <c r="F55">
-        <v>398</v>
-      </c>
-      <c r="G55">
-        <v>2644789</v>
-      </c>
-      <c r="H55">
-        <v>110636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" t="s">
-        <v>286</v>
-      </c>
-      <c r="E56" t="s">
-        <v>334</v>
-      </c>
-      <c r="F56">
-        <v>1156</v>
-      </c>
-      <c r="G56">
-        <v>2177727</v>
-      </c>
-      <c r="H56">
-        <v>18249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" t="s">
-        <v>287</v>
-      </c>
-      <c r="E57" t="s">
-        <v>321</v>
-      </c>
-      <c r="F57">
-        <v>818</v>
-      </c>
-      <c r="G57">
-        <v>20569161</v>
-      </c>
-      <c r="H57">
-        <v>40258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" t="s">
-        <v>214</v>
-      </c>
-      <c r="D58" t="s">
-        <v>288</v>
-      </c>
-      <c r="E58" t="s">
-        <v>346</v>
-      </c>
-      <c r="F58">
-        <v>119</v>
-      </c>
-      <c r="G58">
-        <v>12977393</v>
-      </c>
-      <c r="H58">
-        <v>3748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" t="s">
-        <v>289</v>
-      </c>
-      <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="F59">
-        <v>1650</v>
-      </c>
-      <c r="G59">
-        <v>103526676</v>
-      </c>
-      <c r="H59">
-        <v>211844</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" t="s">
-        <v>290</v>
-      </c>
-      <c r="E60" t="s">
-        <v>347</v>
-      </c>
-      <c r="F60">
-        <v>843</v>
-      </c>
-      <c r="G60">
-        <v>574102</v>
-      </c>
-      <c r="H60">
-        <v>9239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" t="s">
-        <v>291</v>
-      </c>
-      <c r="E61" t="s">
-        <v>348</v>
-      </c>
-      <c r="F61">
-        <v>143</v>
-      </c>
-      <c r="G61">
-        <v>1549926</v>
-      </c>
-      <c r="H61">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" t="s">
-        <v>218</v>
-      </c>
-      <c r="D62" t="s">
-        <v>292</v>
-      </c>
-      <c r="E62" t="s">
-        <v>311</v>
-      </c>
-      <c r="F62">
-        <v>2694</v>
-      </c>
-      <c r="G62">
-        <v>23741114</v>
-      </c>
-      <c r="H62">
-        <v>259721</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" t="s">
-        <v>293</v>
-      </c>
-      <c r="E63" t="s">
-        <v>349</v>
-      </c>
-      <c r="F63">
-        <v>1053</v>
-      </c>
-      <c r="G63">
-        <v>82561465</v>
-      </c>
-      <c r="H63">
-        <v>127910</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" t="s">
-        <v>350</v>
-      </c>
-      <c r="F64">
-        <v>410</v>
-      </c>
-      <c r="G64">
-        <v>43608949</v>
-      </c>
-      <c r="H64">
-        <v>81023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" t="s">
-        <v>295</v>
-      </c>
-      <c r="E65" t="s">
-        <v>351</v>
-      </c>
-      <c r="F65">
-        <v>1198</v>
-      </c>
-      <c r="G65">
-        <v>38053733</v>
-      </c>
-      <c r="H65">
-        <v>165643</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" t="s">
-        <v>222</v>
-      </c>
-      <c r="D66" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" t="s">
-        <v>352</v>
-      </c>
-      <c r="F66">
-        <v>71</v>
-      </c>
-      <c r="G66">
-        <v>77142</v>
-      </c>
-      <c r="H66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" t="s">
-        <v>223</v>
-      </c>
-      <c r="D67" t="s">
-        <v>297</v>
-      </c>
-      <c r="E67" t="s">
-        <v>334</v>
-      </c>
-      <c r="F67">
-        <v>1156</v>
-      </c>
-      <c r="G67">
-        <v>2177727</v>
-      </c>
-      <c r="H67">
-        <v>18249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" t="s">
-        <v>353</v>
-      </c>
-      <c r="F68">
-        <v>256</v>
-      </c>
-      <c r="G68">
-        <v>3822512</v>
-      </c>
-      <c r="H68">
-        <v>91147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F69">
-        <v>525</v>
-      </c>
-      <c r="G69">
-        <v>9013537</v>
-      </c>
-      <c r="H69">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70" t="s">
-        <v>300</v>
-      </c>
-      <c r="E70" t="s">
-        <v>354</v>
-      </c>
-      <c r="F70">
-        <v>416</v>
-      </c>
-      <c r="G70">
-        <v>3355712</v>
-      </c>
-      <c r="H70">
-        <v>11703</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71">
-        <v>8333</v>
-      </c>
-      <c r="G71">
-        <v>27375154</v>
-      </c>
-      <c r="H71">
-        <v>166195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" t="s">
-        <v>302</v>
-      </c>
-      <c r="E72" t="s">
-        <v>356</v>
-      </c>
-      <c r="F72">
-        <v>2504</v>
-      </c>
-      <c r="G72">
-        <v>10777070</v>
-      </c>
-      <c r="H72">
-        <v>47688</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" t="s">
-        <v>357</v>
-      </c>
-      <c r="F73">
-        <v>1261</v>
-      </c>
-      <c r="G73">
-        <v>71778874</v>
-      </c>
-      <c r="H73">
-        <v>168765</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" t="s">
-        <v>304</v>
-      </c>
-      <c r="E74" t="s">
-        <v>358</v>
-      </c>
-      <c r="F74">
-        <v>595</v>
-      </c>
-      <c r="G74">
-        <v>23361751</v>
-      </c>
-      <c r="H74">
-        <v>56982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" t="s">
-        <v>305</v>
-      </c>
-      <c r="E75" t="s">
-        <v>308</v>
-      </c>
-      <c r="F75">
-        <v>1650</v>
-      </c>
-      <c r="G75">
-        <v>103526679</v>
-      </c>
-      <c r="H75">
-        <v>211844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" t="s">
-        <v>359</v>
-      </c>
-      <c r="F76">
-        <v>2715</v>
-      </c>
-      <c r="G76">
-        <v>120390274</v>
-      </c>
-      <c r="H76">
-        <v>144688</v>
       </c>
     </row>
   </sheetData>

--- a/C:\Users\yiwang\Desktop\sina.xlsx
+++ b/C:\Users\yiwang\Desktop\sina.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="491">
   <si>
     <t>top_name</t>
   </si>
@@ -40,141 +40,321 @@
     <t>host_weibpo</t>
   </si>
   <si>
+    <t>两个人在一起的真正意义</t>
+  </si>
+  <si>
+    <t>手机充电一夜不拔对电池有坏处吗</t>
+  </si>
+  <si>
+    <t>如何看待重庆两幼童坠亡生父被捕</t>
+  </si>
+  <si>
+    <t>离职后能挖上家公司的人吗</t>
+  </si>
+  <si>
+    <t>如何看待金毛Siri在托运过程中死亡</t>
+  </si>
+  <si>
+    <t>三十岁后还敢谈理想吗</t>
+  </si>
+  <si>
+    <t>如何正确对待身材焦虑</t>
+  </si>
+  <si>
+    <t>怎么看网友曝光华晨宇整容等行为</t>
+  </si>
+  <si>
+    <t>如何看待南昌杀妻抛尸案被告被判死刑</t>
+  </si>
+  <si>
+    <t>Bo能否登场对于FPX的影响有多大</t>
+  </si>
+  <si>
+    <t>金钱和快乐哪个更重要</t>
+  </si>
+  <si>
+    <t>你怎么看失孤原型儿子决定留在养父母身边</t>
+  </si>
+  <si>
+    <t>怎样保护被托运的宠物</t>
+  </si>
+  <si>
     <t>刘浩存需要为父母的错误承担责任吗</t>
   </si>
   <si>
-    <t>你怎么看失孤原型儿子决定留在养父母身边</t>
-  </si>
-  <si>
-    <t>如何正确对待身材焦虑</t>
+    <t>打工人暑假如何带孩子</t>
+  </si>
+  <si>
+    <t>林生斌事件反映哪些舆论现象</t>
+  </si>
+  <si>
+    <t>那些旅行中感叹百闻不如一见的瞬间</t>
+  </si>
+  <si>
+    <t>如何将熬夜的伤害减到最轻</t>
+  </si>
+  <si>
+    <t>如何看待部分地区未打疫苗影响出行</t>
+  </si>
+  <si>
+    <t>不让快递员进小区合理吗</t>
+  </si>
+  <si>
+    <t>如何看待小红书暂停赴美上市</t>
+  </si>
+  <si>
+    <t>名校生到卷烟厂当工人是浪费吗</t>
+  </si>
+  <si>
+    <t>中国传统文化该怎么保护</t>
+  </si>
+  <si>
+    <t>那些进产房前必须知道的事</t>
+  </si>
+  <si>
+    <t>你接受只谈恋爱不结婚吗</t>
+  </si>
+  <si>
+    <t>该不该向朋友索取专业的服务</t>
+  </si>
+  <si>
+    <t>碳交易市场开市有何深远意义</t>
+  </si>
+  <si>
+    <t>大学的班级活动必须参加吗</t>
+  </si>
+  <si>
+    <t>如何看待于晓光婚后与异性亲密接触行为</t>
+  </si>
+  <si>
+    <t>裸辞后一时找不到工作怎么办</t>
+  </si>
+  <si>
+    <t>笔记本电脑需要每天关机吗</t>
+  </si>
+  <si>
+    <t>我们能为失孤做些什么</t>
+  </si>
+  <si>
+    <t>小米销量是怎样超过苹果跻身全球第二的</t>
+  </si>
+  <si>
+    <t>暑假到底要不要给孩子报补习班</t>
+  </si>
+  <si>
+    <t>北京环球影城为什么那么火</t>
+  </si>
+  <si>
+    <t>高价跨城代购茶颜悦色你怎么看</t>
+  </si>
+  <si>
+    <t>父母追星该阻挠吗</t>
+  </si>
+  <si>
+    <t>在银行存款一亿是什么体验</t>
   </si>
   <si>
     <t>被拐儿童养父母是否应被追责</t>
   </si>
   <si>
-    <t>名校生到卷烟厂当工人是浪费吗</t>
-  </si>
-  <si>
-    <t>在银行存款一亿是什么体验</t>
+    <t>频繁聊天会出现恋爱错觉吗</t>
+  </si>
+  <si>
+    <t>如何看待梅桢放弃华东政法大学任教机会</t>
+  </si>
+  <si>
+    <t>瘦了30斤后会有什么变化</t>
+  </si>
+  <si>
+    <t>哪个瞬间觉得皇帝活得无比悲催</t>
+  </si>
+  <si>
+    <t>复必泰新冠疫苗有望成为国内加强针吗</t>
+  </si>
+  <si>
+    <t>苏州一酒店倒塌有哪些信息值得关注</t>
+  </si>
+  <si>
+    <t>如何治愈原生家庭带来的伤害</t>
+  </si>
+  <si>
+    <t>你能接受和伴侣异地吗</t>
+  </si>
+  <si>
+    <t>为何西安多地出现停电模式</t>
+  </si>
+  <si>
+    <t>那些养猫后的崩溃瞬间</t>
+  </si>
+  <si>
+    <t>痛经如何有效缓解</t>
+  </si>
+  <si>
+    <t>花泽香菜配SP面灵气有多合适</t>
+  </si>
+  <si>
+    <t>如何看待私立整形医院乱象</t>
+  </si>
+  <si>
+    <t>如何看待阿里腾讯考虑互相开放生态系统</t>
+  </si>
+  <si>
+    <t>为什么大多数人都喜欢稳定</t>
+  </si>
+  <si>
+    <t>如何看待中巴水电站项目遭爆炸袭击</t>
+  </si>
+  <si>
+    <t>如何才能防止儿童被拐卖</t>
   </si>
   <si>
     <t>开心消消乐文案是德云社写的吗</t>
   </si>
   <si>
-    <t>如何看待梅桢放弃华东政法大学任教机会</t>
+    <t>读书是不是改变命运的唯一机会</t>
+  </si>
+  <si>
+    <t>如何看待美国自称全球抗疫第一</t>
+  </si>
+  <si>
+    <t>京东全员涨至16薪会带来什么影响</t>
+  </si>
+  <si>
+    <t>人为什么一定要善良</t>
+  </si>
+  <si>
+    <t>姐弟恋真的能长久吗</t>
+  </si>
+  <si>
+    <t>即将租房开始独居需要准备什么</t>
+  </si>
+  <si>
+    <t>沈阳超市员工持刀伤人致2死7伤有哪些信息值得关注</t>
+  </si>
+  <si>
+    <t>得知电影失孤原型的孩子找到了的感想</t>
+  </si>
+  <si>
+    <t>如果雷神去供电局上班能开多少工资</t>
+  </si>
+  <si>
+    <t>家长持证上岗为何引发争议</t>
+  </si>
+  <si>
+    <t>你会支持超前点播吗</t>
+  </si>
+  <si>
+    <t>中国科幻到底能有多浪漫</t>
+  </si>
+  <si>
+    <t>婚房被9个陌生人偷住4个月你怎么看</t>
+  </si>
+  <si>
+    <t>摸鱼到极致是一种什么体验</t>
+  </si>
+  <si>
+    <t>废名的花红山要怎么读</t>
+  </si>
+  <si>
+    <t>研究称每天喝两杯酒也有患癌风险可信吗</t>
+  </si>
+  <si>
+    <t>怎么看鞠婧祎起诉花椰菜大王二审败诉</t>
+  </si>
+  <si>
+    <t>如何看待大妈高铁吸烟触发警报下跪求饶</t>
+  </si>
+  <si>
+    <t>记者去东京奥运会带了哪些装备</t>
+  </si>
+  <si>
+    <t>小樱到底有没有喜欢过鸣人</t>
+  </si>
+  <si>
+    <t>多少积蓄才能撑起一个快乐暑假</t>
+  </si>
+  <si>
+    <t>上海车库发生天价车祸要损失多少钱</t>
+  </si>
+  <si>
+    <t>内向的人生气时在干什么</t>
+  </si>
+  <si>
+    <t>雷雨天这些行为很危险</t>
   </si>
   <si>
     <t>吸脂手术到底存在哪些危险</t>
   </si>
   <si>
-    <t>如何看待部分地区未打疫苗影响出行</t>
-  </si>
-  <si>
-    <t>你接受只谈恋爱不结婚吗</t>
-  </si>
-  <si>
-    <t>该不该向朋友索取专业的服务</t>
-  </si>
-  <si>
     <t>临时抱佛脚到底有没有用</t>
   </si>
   <si>
-    <t>中国传统文化该怎么保护</t>
-  </si>
-  <si>
-    <t>小樱到底有没有喜欢过鸣人</t>
-  </si>
-  <si>
-    <t>婚房被9个陌生人偷住4个月你怎么看</t>
-  </si>
-  <si>
-    <t>如何看待阿里腾讯考虑互相开放生态系统</t>
-  </si>
-  <si>
-    <t>如何治愈原生家庭带来的伤害</t>
-  </si>
-  <si>
-    <t>沈阳超市员工持刀伤人致2死7伤有哪些信息值得关注</t>
-  </si>
-  <si>
-    <t>姐弟恋真的能长久吗</t>
-  </si>
-  <si>
-    <t>如何看待私立整形医院乱象</t>
-  </si>
-  <si>
-    <t>即将租房开始独居需要准备什么</t>
-  </si>
-  <si>
-    <t>笔记本电脑需要每天关机吗</t>
-  </si>
-  <si>
-    <t>如何才能防止儿童被拐卖</t>
-  </si>
-  <si>
-    <t>如何看待于晓光婚后与异性亲密接触行为</t>
+    <t>女子酒后死亡劝酒者也要承担责任吗</t>
+  </si>
+  <si>
+    <t>如何评价洛基大结局</t>
+  </si>
+  <si>
+    <t>二创内容属于侵权吗</t>
+  </si>
+  <si>
+    <t>粉红女郎的爱情观适合现在吗</t>
+  </si>
+  <si>
+    <t>青少年模式能保护好未成年吗</t>
+  </si>
+  <si>
+    <t>如何吐槽一部电影很烂</t>
+  </si>
+  <si>
+    <t>共同富裕示范区什么样</t>
+  </si>
+  <si>
+    <t>坏死性筋膜炎有多严重</t>
+  </si>
+  <si>
+    <t>西游记中被遗落的爱情</t>
+  </si>
+  <si>
+    <t>方媛带孩子坐经济舱是勤俭持家还是天王太抠</t>
+  </si>
+  <si>
+    <t>如何通过奥运选拔</t>
+  </si>
+  <si>
+    <t>直播带货是电商标配吗</t>
+  </si>
+  <si>
+    <t>B站服务器机房故障带来什么影响</t>
+  </si>
+  <si>
+    <t>雪花500元一瓶的啤酒值得买吗</t>
+  </si>
+  <si>
+    <t>快递是否有送货上门义务</t>
+  </si>
+  <si>
+    <t>武林外传里的台词有多浪漫</t>
+  </si>
+  <si>
+    <t>实习医生女友装护士拔病人尿管要负哪些责任</t>
+  </si>
+  <si>
+    <t>医美整形水有多深</t>
+  </si>
+  <si>
+    <t>如何评价王者荣耀体验服大乔削弱</t>
+  </si>
+  <si>
+    <t>带娃上班的宝妈有多难</t>
+  </si>
+  <si>
+    <t>金庸的天龙八部是个悲剧吗</t>
   </si>
   <si>
     <t>抽脂为什么有这么大风险</t>
   </si>
   <si>
-    <t>那些养猫后的崩溃瞬间</t>
-  </si>
-  <si>
-    <t>如何看待中巴水电站项目遭爆炸袭击</t>
-  </si>
-  <si>
-    <t>电影中国医生为何催泪</t>
-  </si>
-  <si>
-    <t>以租代买的共享衣橱为什么倒下了</t>
-  </si>
-  <si>
-    <t>内向的人生气时在干什么</t>
-  </si>
-  <si>
-    <t>瘦了30斤后会有什么变化</t>
-  </si>
-  <si>
-    <t>痛经如何有效缓解</t>
-  </si>
-  <si>
-    <t>那些进产房前必须知道的事</t>
-  </si>
-  <si>
-    <t>怎么看鞠婧祎起诉花椰菜大王二审败诉</t>
-  </si>
-  <si>
-    <t>京东全员涨至16薪会带来什么影响</t>
-  </si>
-  <si>
-    <t>汶川发生4.8级地震现场情况如何</t>
-  </si>
-  <si>
-    <t>青少年模式能保护好未成年吗</t>
-  </si>
-  <si>
-    <t>暑假到底要不要给孩子报补习班</t>
-  </si>
-  <si>
-    <t>你能接受和伴侣异地吗</t>
-  </si>
-  <si>
-    <t>怎么劝说父母理智追星</t>
-  </si>
-  <si>
-    <t>人为什么一定要善良</t>
-  </si>
-  <si>
-    <t>情绪稳定是成年人的必修课吗</t>
-  </si>
-  <si>
-    <t>频繁聊天会出现恋爱错觉吗</t>
-  </si>
-  <si>
-    <t>7岁小女孩洗头后骑车为什么会成面瘫</t>
-  </si>
-  <si>
     <t>TOP1</t>
   </si>
   <si>
@@ -310,367 +490,1003 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>你觉得两个人在一起的真正意义是什么？带话题讨论一下，说说你的感受～</t>
+  </si>
+  <si>
+    <t>手机充满后会自动断电的，所以充一夜不会对电池造成实质性损坏的~但如...</t>
+  </si>
+  <si>
+    <t>2020年11月2日，重庆一小区内，一对不到三岁的姐弟从15楼坠落身亡。经...</t>
+  </si>
+  <si>
+    <t>离职后该不该挖上家公司的人？需要为上家考虑吗？还是人往高处走，哪...</t>
+  </si>
+  <si>
+    <t>近日，网友发文称自己委托某宠物托运机构托运自己快2岁的 金毛Siri，...</t>
+  </si>
+  <si>
+    <t>电影《大学》里记录的青年学者蔡峥有一个理想，要制造出世界领先的光...</t>
+  </si>
+  <si>
+    <t>近日，网红小冉5月2日进行吸脂填充手术，5月4日术后因皮肤溃烂、器官...</t>
+  </si>
+  <si>
+    <t>网友“发发爱我2021”以华晨宇 “女友”名义发布有关于华晨宇整容和治疗皮...</t>
+  </si>
+  <si>
+    <t>7月16日上午，南昌杀妻抛尸案被告被判死刑。死者母亲称女儿还未下葬，...</t>
+  </si>
+  <si>
+    <t>FPX 经理ChunLi发文：FPX俱乐部决定保留Bo在FPX登场的可能性，对此你...</t>
+  </si>
+  <si>
+    <t>在这个快速发展的时代真的很茫然，不知道自己到底要干什么想干什么能...</t>
+  </si>
+  <si>
+    <t>7月13日，公安部召开“我为群众办实事”系列新闻发布会，郭刚堂儿子被拐...</t>
+  </si>
+  <si>
+    <t>金毛siri在托运途中死亡，不久以前宠物盲盒事件也因为宠物在托运箱中...</t>
+  </si>
+  <si>
     <t>刘浩存父母的舞蹈机构教学不当导致小女孩残疾，她需要为父母的错误承...</t>
   </si>
   <si>
-    <t>7月13日，公安部召开“我为群众办实事”系列新闻发布会，郭刚堂儿子被拐...</t>
-  </si>
-  <si>
-    <t>近日，网红小冉5月2日进行吸脂填充手术，5月4日术后因皮肤溃烂、器官...</t>
+    <t>孩子的暑假来了，可身为打工人的父母又要上班，如何照看孩子成为了一...</t>
+  </si>
+  <si>
+    <t>聊聊林生斌这个话题上的阴谋论，是怎么偏到天边去的。这里面反映了什...</t>
+  </si>
+  <si>
+    <t>旅行中百闻不如一见的瞬间可能是壮丽的风景，也可能是拐角的小猫咪，...</t>
+  </si>
+  <si>
+    <t>很多年轻人都习惯熬夜，既使知道熬夜有很多危害，那么如何将熬夜的伤...</t>
+  </si>
+  <si>
+    <t>日前，江西崇仁县、江西定南县、江西安远县、浙江丽水、宁波宁海等相...</t>
+  </si>
+  <si>
+    <t>近年来，随着越来越多小区实施封闭式管理，不少外卖、快递小哥被拦在...</t>
+  </si>
+  <si>
+    <t>据报道，中国初创公司小红书将暂停在美国上市。今年4月，路透社旗下IF...</t>
+  </si>
+  <si>
+    <t>卷烟厂“卷”到什么程度？人大、武大等985名校毕业生纷纷上流水线打包装...</t>
+  </si>
+  <si>
+    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
+  </si>
+  <si>
+    <t>生孩子可不是想生就生！准妈妈生产前需要知道哪些事，才能让自己做足...</t>
+  </si>
+  <si>
+    <t>不结婚只恋爱，有人享受距离带来的无拘无束；想要切实陪伴并一起组成...</t>
+  </si>
+  <si>
+    <t>每一个专业人士朋友的举手之劳背后，都花费大量的时间精力……你觉得该...</t>
+  </si>
+  <si>
+    <t>全国碳排放权交易于7月16日启动，首批纳入2225家发电行业重点排放单位。</t>
+  </si>
+  <si>
+    <t>嘿嘿姐妹们，你们在上大学的时候，班级活动有每一个都参与了吗？你们...</t>
+  </si>
+  <si>
+    <t>有了老婆孩子的于晓光还让其他女性坐在自己的大腿上，这不光是对不起...</t>
+  </si>
+  <si>
+    <t>选择了裸辞但是一时间找不到工作怎么办？不要放弃战斗，瞬息万变的每...</t>
+  </si>
+  <si>
+    <t>笔记本电脑每天都关机的话真的好麻烦！！其实平时选择睡眠或休眠模式...</t>
+  </si>
+  <si>
+    <t>《失孤》迎来了“圆满”结局，可为什么人贩子不能判处死刑？我们普通人...</t>
+  </si>
+  <si>
+    <t>Canalys发布的最新数据显示，2021年第二季度全球智能手机市占率排名，...</t>
+  </si>
+  <si>
+    <t>放暑假了，到底要不要给孩子报补习班？快乐的暑假到底是怎么样的呢？</t>
+  </si>
+  <si>
+    <t>随着北京环球影城开业时间的临近，越来越多公司已经开始押注环球影城...</t>
+  </si>
+  <si>
+    <t>代购表示：他每天能接到几百杯的订单，代购费600起，凡是长沙高铁站能...</t>
+  </si>
+  <si>
+    <t>近日，女儿吐槽妈妈花800买歌手代言咖啡机引发热议。该网友吐槽自己妈...</t>
+  </si>
+  <si>
+    <t>如果你在银行有一个亿的存款，你最想做的事情是什么？</t>
   </si>
   <si>
     <t>等了24年《失孤》剧终，郭刚堂找到儿子一家团圆，还为儿子养父母准备...</t>
   </si>
   <si>
-    <t>卷烟厂“卷”到什么程度？人大、武大等985名校毕业生纷纷上流水线打包装...</t>
-  </si>
-  <si>
-    <t>如果你在银行有一个亿的存款，你最想做的事情是什么？</t>
+    <t>你觉得频繁聊天会出现恋爱错觉吗？快带话题发微博一起聊聊吧。</t>
+  </si>
+  <si>
+    <t>近日，《心动的offer》梅桢出现在华东政法大学的拟聘名单上，遭到网友...</t>
+  </si>
+  <si>
+    <t>瘦了30斤后会有什么变化？带上话题词一起来说说你的瘦身经历吧～</t>
+  </si>
+  <si>
+    <t>皇帝一个让人羡慕的角色，有没有一瞬间让你觉得皇帝活得也挺悲催？带...</t>
+  </si>
+  <si>
+    <t>据媒体报道，7月14日，复星医药在股东大会上回复投资人问询时表示，国...</t>
+  </si>
+  <si>
+    <t>7月12日下午，江苏省苏州市吴江区松陵镇油车路188号四季开源酒店发生...</t>
+  </si>
+  <si>
+    <t>《谎言真探》中，连环杀人案的主谋童年曾受到来自父亲的家暴虐待。从...</t>
+  </si>
+  <si>
+    <t>秋瓷炫和于晓光一个在韩国一个在中国，大S和汪小菲一个在台北一个在北...</t>
+  </si>
+  <si>
+    <t>近几天，高温下电力系统超荷负载。停电，成为西安朋友圈最“热”的新闻。</t>
+  </si>
+  <si>
+    <t>没养猫前不知道，原来猫咪也会拆家！你家猫主子是这样的吗，一起来分...</t>
+  </si>
+  <si>
+    <t>用药、暖敷、多喝热水...缓解痛经你都试过哪些方法？一起来聊聊吧！</t>
+  </si>
+  <si>
+    <t>花泽香菜本身的业务能力毋容置疑，从SSR面灵气到SP面灵气，可攻可柔无...</t>
+  </si>
+  <si>
+    <t>杭州一名女性在抽脂术后2个月死亡。我们要问一下，抽脂真的是‘轻松’？...</t>
+  </si>
+  <si>
+    <t>阿里巴巴的初步举措可能包括将腾讯控股的微信支付引入淘宝和天猫；双...</t>
+  </si>
+  <si>
+    <t>你喜欢稳定的生活吗？一起来说说看为什么大多数人都喜欢稳定吧</t>
+  </si>
+  <si>
+    <t>7月14日上午当地时间7时左右，中方企业承建的巴基斯坦开普省达苏水电...</t>
+  </si>
+  <si>
+    <t>7月12日，电影《失孤》原型人物郭刚堂找到被拐多年儿子一事引发广泛关...</t>
   </si>
   <si>
     <t>开心消消乐更新文案也太好笑了吧，小游真的怀疑是德云社外派到游戏方...</t>
   </si>
   <si>
-    <t>近日，《心动的offer》梅桢出现在华东政法大学的拟聘名单上，遭到网友...</t>
+    <t>张桂梅老师用十几年的时间，几乎是用生命在证明，女孩读书可以改变三...</t>
+  </si>
+  <si>
+    <t>近日，彭博社发布了一项着眼于世界主要国家如何应对大流行的排名公布...</t>
+  </si>
+  <si>
+    <t>7月13日，京东集团宣布自2021年7月1日开始到2023年7月1日，用两年时间...</t>
+  </si>
+  <si>
+    <t>人为什么一定要善良，大概是这样的偶尔的善良是唯一让我自己能看得起...</t>
+  </si>
+  <si>
+    <t>今日，有媒体拍到于晓光与美女亲密搂抱！于晓光和妻子秋瓷炫俩人是姐...</t>
+  </si>
+  <si>
+    <t>很多人独居都不知道怎么装饰自己的小窝，收下这份安利，把自己的小空...</t>
+  </si>
+  <si>
+    <t>7月14日，沈阳市某超市发生一起刑事案件，该超市肉食柜台员工田某某持...</t>
+  </si>
+  <si>
+    <t>7月11日，从电影《失孤》原型郭刚堂处证实，他已获知儿子郭振的下落。...</t>
+  </si>
+  <si>
+    <t>如果用雷神的超能力让他去发电的话，你觉得电网会给他开多少工资？</t>
+  </si>
+  <si>
+    <t>杭州市上城区对“父母持证上岗”进行了有效探索，计划2021年秋季学期开...</t>
+  </si>
+  <si>
+    <t>7月已开播的新剧《你好，火焰蓝》《贺先生的恋恋不忘》已开启超前点播...</t>
+  </si>
+  <si>
+    <t>“天和”入九天，“天舟”完成“妥投”，“祝融号”巡游火星，3名航天员入住太...</t>
+  </si>
+  <si>
+    <t>前一段时间，河南南阳网红余岛岛在网络上向大家求助，说他的婚房被一...</t>
+  </si>
+  <si>
+    <t>“摸鱼”这个话题不断被讨论，它既是“社畜”的神仙丸，又是职场的灰色地...</t>
+  </si>
+  <si>
+    <t>废名的《花红山》究竟写了什么？花红山这个题目的意思是什么？废名是...</t>
+  </si>
+  <si>
+    <t>根据国际标准，健康成年男性一天的酒精量不超过25克。专家指出，长期...</t>
+  </si>
+  <si>
+    <t>鞠婧祎之前起诉网红花椰菜大王侵犯名誉权后败诉，随后丝芭文化发布声...</t>
+  </si>
+  <si>
+    <t>7月11日，河北，一女子在高铁车厢内吸烟触发警报，该女子当场下跪知错...</t>
+  </si>
+  <si>
+    <t>7月15日，新华社东京奥运会报道团从北京出发，将经福州飞往日本开展东...</t>
+  </si>
+  <si>
+    <t>《火影忍者》也算是我们关于青春和暑假回忆的一部分了，你觉得漫画里...</t>
+  </si>
+  <si>
+    <t>你觉得，多少积蓄才能撑起一个快乐暑假？你觉得最快乐的暑假是什么样的？</t>
+  </si>
+  <si>
+    <t>近日，上海某高档小区地下车库内发生天价车祸。目击者称，一女车主驾...</t>
+  </si>
+  <si>
+    <t>吵架是外向的人生气时会做的事，那么内向的人生气时会怎样呢？</t>
+  </si>
+  <si>
+    <t>7月13日，台湾苗栗一名男子在跑步时被雷劈中当场失去呼吸心跳，当时耳...</t>
   </si>
   <si>
     <t>据悉，小冉5月2日在杭州华颜医疗美容医院进行吸脂填充手术，5月4日术...</t>
   </si>
   <si>
-    <t>日前，江西崇仁县、江西定南县、江西安远县、浙江丽水、宁波宁海等相...</t>
-  </si>
-  <si>
-    <t>不结婚只恋爱，有人享受距离带来的无拘无束；想要切实陪伴并一起组成...</t>
-  </si>
-  <si>
-    <t>每一个专业人士朋友的举手之劳背后，都花费大量的时间精力……你觉得该...</t>
-  </si>
-  <si>
     <t>网友投稿: 考试之前临时抱佛脚，竟然通过了考试，大家有没有过类似的...</t>
   </si>
   <si>
-    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
-  </si>
-  <si>
-    <t>《火影忍者》也算是我们关于青春和暑假回忆的一部分了，你觉得漫画里...</t>
-  </si>
-  <si>
-    <t>前一段时间，河南南阳网红余岛岛在网络上向大家求助，说他的婚房被一...</t>
-  </si>
-  <si>
-    <t>阿里巴巴的初步举措可能包括将腾讯控股的微信支付引入淘宝和天猫；双...</t>
-  </si>
-  <si>
-    <t>《谎言真探》中，连环杀人案的主谋童年曾受到来自父亲的家暴虐待。从...</t>
-  </si>
-  <si>
-    <t>7月14日，沈阳市某超市发生一起刑事案件，该超市肉食柜台员工田某某持...</t>
-  </si>
-  <si>
-    <t>今日，有媒体拍到于晓光与美女亲密搂抱！于晓光和妻子秋瓷炫俩人是姐...</t>
-  </si>
-  <si>
-    <t>杭州一名女性在抽脂术后2个月死亡。我们要问一下，抽脂真的是‘轻松’？...</t>
-  </si>
-  <si>
-    <t>很多人独居都不知道怎么装饰自己的小窝，收下这份安利，把自己的小空...</t>
-  </si>
-  <si>
-    <t>笔记本电脑每天都关机的话真的好麻烦！！其实平时选择睡眠或休眠模式...</t>
-  </si>
-  <si>
-    <t>7月12日，电影《失孤》原型人物郭刚堂找到被拐多年儿子一事引发广泛关...</t>
-  </si>
-  <si>
-    <t>有了老婆孩子的于晓光还让其他女性坐在自己的大腿上，这不光是对不起...</t>
+    <t>小桃至烧烤店独自撸串喝酒。几位男士上前搭讪，并邀请小桃一起喝酒聊...</t>
+  </si>
+  <si>
+    <t>《洛基》第一季大结局今日上线，但是结局褒贬不一，你如何评价这个大...</t>
+  </si>
+  <si>
+    <t>2021中国互联网大会于7.13-7.15在北京国家会议中心举行。其议程知识产...</t>
+  </si>
+  <si>
+    <t>距离粉红女郎开播已经快20年了，现在回头看，剧里的爱情观，是否还适...</t>
+  </si>
+  <si>
+    <t>近一年多来，全国已有50多家短视频和直播平台试点推出了青少年模式，...</t>
+  </si>
+  <si>
+    <t>在电影市场鱼龙混杂的时代，烂片带给观影者的伤害巨大，你认为该如何...</t>
+  </si>
+  <si>
+    <t>先行先试、作出示范，浙江高质量发展建设共同富裕示范区，和@侠客岛 ...</t>
+  </si>
+  <si>
+    <t>抽脂手术是项大手术，它最可怕的地方就是发生坏死性筋膜炎。这种病...</t>
+  </si>
+  <si>
+    <t>西游记中被人遗落的爱情故事，你知道有哪些？一起来说说～</t>
+  </si>
+  <si>
+    <t>近日，方媛暑假从香港飞去上海探班郭富城，在飞机起飞前晒了一段Vlog...</t>
+  </si>
+  <si>
+    <t>备受瞩目的东京奥运会中国体育代表团正式成立啦，我国体育事业的不断...</t>
+  </si>
+  <si>
+    <t>疫情期间，直播带货迅速席卷各大电商平台，似乎成为了电商的一个标配...</t>
+  </si>
+  <si>
+    <t>7月13日晚，B站的部分服务器机房发生故障，造成无法访问。随后，A站、...</t>
+  </si>
+  <si>
+    <t>华润啤酒CEO侯孝海表示：“醴在啤酒行业没有对标的产品，但醴与茅台同...</t>
+  </si>
+  <si>
+    <t>当前，我国快递日均业务量约3亿件，日均服务用户约6亿人次。快递业红...</t>
+  </si>
+  <si>
+    <t>小时候看武林外传不觉得，长大重温才发现原来里面的台词和告白都这么...</t>
+  </si>
+  <si>
+    <t>近日，有网友报料称，北京大学人民医院一名实习医生带女朋友去值班室...</t>
+  </si>
+  <si>
+    <t>你怎么看待王者荣耀本次英雄调整导致大乔“削弱式增强”？</t>
+  </si>
+  <si>
+    <t>武汉远郊的一家服装厂专招全职宝妈，这些带着孩子来工厂的母亲，最终...</t>
+  </si>
+  <si>
+    <t>《天龙八部》是在金庸中年丧子之后写的，这其中的打击可想而知，“只因...</t>
   </si>
   <si>
     <t>7月14日，有网友爆料称一女子吸脂手术后全身多器官衰竭，两个月多后抢...</t>
   </si>
   <si>
-    <t>没养猫前不知道，原来猫咪也会拆家！你家猫主子是这样的吗，一起来分...</t>
-  </si>
-  <si>
-    <t>7月14日上午当地时间7时左右，中方企业承建的巴基斯坦开普省达苏水电...</t>
-  </si>
-  <si>
-    <t>对于从这场战争中走出不久的国人而言，电影中的任何虚构都可能带来质...</t>
-  </si>
-  <si>
-    <t>从初创时的风光无限到而今纷纷宣告倒闭，共享衣橱这一赛道究竟经历了...</t>
-  </si>
-  <si>
-    <t>吵架是外向的人生气时会做的事，那么内向的人生气时会怎样呢？</t>
-  </si>
-  <si>
-    <t>瘦了30斤后会有什么变化？带上话题词一起来说说你的瘦身经历吧～</t>
-  </si>
-  <si>
-    <t>用药、暖敷、多喝热水...缓解痛经你都试过哪些方法？一起来聊聊吧！</t>
-  </si>
-  <si>
-    <t>生孩子可不是想生就生！准妈妈生产前需要知道哪些事，才能让自己做足...</t>
-  </si>
-  <si>
-    <t>鞠婧祎之前起诉网红花椰菜大王侵犯名誉权后败诉，随后丝芭文化发布声...</t>
-  </si>
-  <si>
-    <t>7月13日，京东集团宣布自2021年7月1日开始到2023年7月1日，用两年时间...</t>
-  </si>
-  <si>
-    <t>7月14日23时36分在四川阿坝州汶川县（北纬30.97度，东经103.37度）发...</t>
-  </si>
-  <si>
-    <t>近一年多来，全国已有50多家短视频和直播平台试点推出了青少年模式，...</t>
-  </si>
-  <si>
-    <t>放暑假了，到底要不要给孩子报补习班？快乐的暑假到底是怎么样的呢？</t>
-  </si>
-  <si>
-    <t>秋瓷炫和于晓光一个在韩国一个在中国，大S和汪小菲一个在台北一个在北...</t>
-  </si>
-  <si>
-    <t>你的父母追星吗？是否曾因一首歌，一部电影，电视剧而为某一个角色“沉...</t>
-  </si>
-  <si>
-    <t>人为什么一定要善良，大概是这样的偶尔的善良是唯一让我自己能看得起...</t>
-  </si>
-  <si>
-    <t>本期《姐妹俱乐部》中，冯瑶瑶项目被迫暂停却仍保持冷静安慰同事；程...</t>
-  </si>
-  <si>
-    <t>你觉得频繁聊天会出现恋爱错觉吗？快带话题发微博一起聊聊吧。</t>
-  </si>
-  <si>
-    <t>戴挂脖式小风扇，睡醒之后可能会面瘫；洗完头，头发没有吹干就骑车出...</t>
-  </si>
-  <si>
     <t>2.3亿</t>
   </si>
   <si>
-    <t>7697.7万</t>
-  </si>
-  <si>
-    <t>2055.6万</t>
-  </si>
-  <si>
-    <t>9695.2万</t>
-  </si>
-  <si>
-    <t>3627.8万</t>
-  </si>
-  <si>
-    <t>3.1亿</t>
-  </si>
-  <si>
-    <t>352.5万</t>
-  </si>
-  <si>
-    <t>9661.3万</t>
-  </si>
-  <si>
-    <t>1321.4万</t>
+    <t>5.1亿</t>
   </si>
   <si>
     <t>1亿</t>
   </si>
   <si>
-    <t>9991.8万</t>
-  </si>
-  <si>
-    <t>3450.6万</t>
-  </si>
-  <si>
-    <t>747.4万</t>
-  </si>
-  <si>
-    <t>1349.5万</t>
+    <t>1.1亿</t>
+  </si>
+  <si>
+    <t>1.3亿</t>
+  </si>
+  <si>
+    <t>9417.8万</t>
+  </si>
+  <si>
+    <t>6201.3万</t>
+  </si>
+  <si>
+    <t>370.1万</t>
+  </si>
+  <si>
+    <t>572.5万</t>
+  </si>
+  <si>
+    <t>826.7万</t>
+  </si>
+  <si>
+    <t>4633.4万</t>
+  </si>
+  <si>
+    <t>1.5亿</t>
+  </si>
+  <si>
+    <t>5307.3万</t>
+  </si>
+  <si>
+    <t>4.2亿</t>
+  </si>
+  <si>
+    <t>1640.6万</t>
+  </si>
+  <si>
+    <t>3.4亿</t>
+  </si>
+  <si>
+    <t>907.6万</t>
+  </si>
+  <si>
+    <t>133.4万</t>
+  </si>
+  <si>
+    <t>4238.5万</t>
+  </si>
+  <si>
+    <t>71.7万</t>
+  </si>
+  <si>
+    <t>5749.7万</t>
+  </si>
+  <si>
+    <t>663.5万</t>
+  </si>
+  <si>
+    <t>1.6亿</t>
+  </si>
+  <si>
+    <t>4300.6万</t>
+  </si>
+  <si>
+    <t>342.5万</t>
+  </si>
+  <si>
+    <t>646.9万</t>
+  </si>
+  <si>
+    <t>5492.5万</t>
+  </si>
+  <si>
+    <t>425万</t>
+  </si>
+  <si>
+    <t>2.8亿</t>
+  </si>
+  <si>
+    <t>1628.1万</t>
+  </si>
+  <si>
+    <t>53.9万</t>
+  </si>
+  <si>
+    <t>6615.4万</t>
+  </si>
+  <si>
+    <t>1308.7万</t>
+  </si>
+  <si>
+    <t>930.8万</t>
+  </si>
+  <si>
+    <t>3.5亿</t>
+  </si>
+  <si>
+    <t>6亿</t>
+  </si>
+  <si>
+    <t>6.3亿</t>
+  </si>
+  <si>
+    <t>917.8万</t>
+  </si>
+  <si>
+    <t>25.3万</t>
+  </si>
+  <si>
+    <t>1377.5万</t>
+  </si>
+  <si>
+    <t>7705万</t>
+  </si>
+  <si>
+    <t>740.8万</t>
+  </si>
+  <si>
+    <t>507万</t>
+  </si>
+  <si>
+    <t>2912.7万</t>
+  </si>
+  <si>
+    <t>992.2万</t>
+  </si>
+  <si>
+    <t>441.7万</t>
+  </si>
+  <si>
+    <t>1375.8万</t>
+  </si>
+  <si>
+    <t>279.8万</t>
+  </si>
+  <si>
+    <t>773万</t>
+  </si>
+  <si>
+    <t>336.8万</t>
+  </si>
+  <si>
+    <t>3373.7万</t>
+  </si>
+  <si>
+    <t>1194.4万</t>
+  </si>
+  <si>
+    <t>600.1万</t>
+  </si>
+  <si>
+    <t>1629.5万</t>
+  </si>
+  <si>
+    <t>5591万</t>
+  </si>
+  <si>
+    <t>7895.7万</t>
+  </si>
+  <si>
+    <t>762.4万</t>
+  </si>
+  <si>
+    <t>1423.8万</t>
+  </si>
+  <si>
+    <t>286.3万</t>
+  </si>
+  <si>
+    <t>5528万</t>
+  </si>
+  <si>
+    <t>2323.4万</t>
+  </si>
+  <si>
+    <t>170.4万</t>
+  </si>
+  <si>
+    <t>218.9万</t>
+  </si>
+  <si>
+    <t>542.3万</t>
+  </si>
+  <si>
+    <t>1031.3万</t>
+  </si>
+  <si>
+    <t>481.6万</t>
+  </si>
+  <si>
+    <t>120.6万</t>
+  </si>
+  <si>
+    <t>43万</t>
+  </si>
+  <si>
+    <t>115.5万</t>
+  </si>
+  <si>
+    <t>674万</t>
+  </si>
+  <si>
+    <t>305.2万</t>
   </si>
   <si>
     <t>1.2亿</t>
   </si>
   <si>
-    <t>749.5万</t>
-  </si>
-  <si>
-    <t>62.4万</t>
-  </si>
-  <si>
-    <t>6614.9万</t>
-  </si>
-  <si>
-    <t>151.3万</t>
-  </si>
-  <si>
-    <t>369.5万</t>
-  </si>
-  <si>
-    <t>197.2万</t>
-  </si>
-  <si>
-    <t>305.9万</t>
-  </si>
-  <si>
-    <t>2.7亿</t>
-  </si>
-  <si>
-    <t>3112.7万</t>
-  </si>
-  <si>
-    <t>19.1万</t>
-  </si>
-  <si>
-    <t>224.8万</t>
-  </si>
-  <si>
-    <t>2147.4万</t>
-  </si>
-  <si>
-    <t>294.2万</t>
-  </si>
-  <si>
-    <t>1391.8万</t>
-  </si>
-  <si>
-    <t>127.7万</t>
-  </si>
-  <si>
-    <t>8283.8万</t>
-  </si>
-  <si>
-    <t>6.2亿</t>
-  </si>
-  <si>
-    <t>758.4万</t>
-  </si>
-  <si>
-    <t>108.2万</t>
-  </si>
-  <si>
-    <t>53.2万</t>
-  </si>
-  <si>
-    <t>5208.5万</t>
-  </si>
-  <si>
-    <t>76.2万</t>
-  </si>
-  <si>
-    <t>44万</t>
-  </si>
-  <si>
-    <t>343.5万</t>
-  </si>
-  <si>
-    <t>3217.2万</t>
-  </si>
-  <si>
-    <t>7541.1万</t>
-  </si>
-  <si>
-    <t>8382.8万</t>
-  </si>
-  <si>
-    <t>5.8亿</t>
-  </si>
-  <si>
-    <t>13.7万</t>
+    <t>9541.1万</t>
+  </si>
+  <si>
+    <t>94万</t>
+  </si>
+  <si>
+    <t>9201.9万</t>
+  </si>
+  <si>
+    <t>466.2万</t>
+  </si>
+  <si>
+    <t>2220.6万</t>
+  </si>
+  <si>
+    <t>1091.8万</t>
+  </si>
+  <si>
+    <t>140.3万</t>
+  </si>
+  <si>
+    <t>171.1万</t>
+  </si>
+  <si>
+    <t>4814.3万</t>
+  </si>
+  <si>
+    <t>3532.4万</t>
+  </si>
+  <si>
+    <t>223万</t>
+  </si>
+  <si>
+    <t>460.4万</t>
+  </si>
+  <si>
+    <t>192万</t>
+  </si>
+  <si>
+    <t>673万</t>
+  </si>
+  <si>
+    <t>1066.2万</t>
+  </si>
+  <si>
+    <t>3021.3万</t>
+  </si>
+  <si>
+    <t>232.3万</t>
+  </si>
+  <si>
+    <t>389.4万</t>
+  </si>
+  <si>
+    <t>2820.1万</t>
+  </si>
+  <si>
+    <t>2662.6万</t>
+  </si>
+  <si>
+    <t>215.7万</t>
+  </si>
+  <si>
+    <t>933.4万</t>
+  </si>
+  <si>
+    <t>279.9万</t>
+  </si>
+  <si>
+    <t>510.7万</t>
+  </si>
+  <si>
+    <t>862万</t>
+  </si>
+  <si>
+    <t>393.4万</t>
+  </si>
+  <si>
+    <t>26.1万</t>
+  </si>
+  <si>
+    <t>332万</t>
+  </si>
+  <si>
+    <t>两碗哥哥</t>
+  </si>
+  <si>
+    <t>原来如此bot</t>
+  </si>
+  <si>
+    <t>凤凰网</t>
+  </si>
+  <si>
+    <t>朋友圈那点事</t>
+  </si>
+  <si>
+    <t>头条新闻</t>
+  </si>
+  <si>
+    <t>光明日报</t>
+  </si>
+  <si>
+    <t>科技猩球</t>
+  </si>
+  <si>
+    <t>我爱围观</t>
+  </si>
+  <si>
+    <t>电竞游戏BB姬</t>
+  </si>
+  <si>
+    <t>微博法律</t>
   </si>
   <si>
     <t>追剧综的李二狗</t>
   </si>
   <si>
-    <t>头条新闻</t>
-  </si>
-  <si>
-    <t>科技猩球</t>
+    <t>芝士热亿点</t>
+  </si>
+  <si>
+    <t>破破的桥</t>
+  </si>
+  <si>
+    <t>人间投影仪</t>
+  </si>
+  <si>
+    <t>微博健康</t>
+  </si>
+  <si>
+    <t>每日经济新闻</t>
+  </si>
+  <si>
+    <t>央视网</t>
+  </si>
+  <si>
+    <t>新浪财经</t>
+  </si>
+  <si>
+    <t>西部雄仔</t>
+  </si>
+  <si>
+    <t>堂堂小方总</t>
+  </si>
+  <si>
+    <t>热剧班主任</t>
+  </si>
+  <si>
+    <t>回忆专用小马甲</t>
+  </si>
+  <si>
+    <t>我的损友滕依梵</t>
+  </si>
+  <si>
+    <t>叫我栗宝就好了</t>
+  </si>
+  <si>
+    <t>十八线幻想家</t>
+  </si>
+  <si>
+    <t>徐叫兽</t>
+  </si>
+  <si>
+    <t>新浪5G</t>
+  </si>
+  <si>
+    <t>哈尼Mamma</t>
+  </si>
+  <si>
+    <t>中国新闻周刊</t>
+  </si>
+  <si>
+    <t>问号哥哥</t>
   </si>
   <si>
     <t>正观新闻</t>
   </si>
   <si>
-    <t>新浪财经</t>
-  </si>
-  <si>
-    <t>问号哥哥</t>
+    <t>陈秋欤</t>
+  </si>
+  <si>
+    <t>陈甜竹</t>
+  </si>
+  <si>
+    <t>我的闺蜜是沙雕</t>
+  </si>
+  <si>
+    <t>新浪看点</t>
+  </si>
+  <si>
+    <t>娱乐有饭</t>
+  </si>
+  <si>
+    <t>痒痒鼠办事处</t>
+  </si>
+  <si>
+    <t>网络发言大赏</t>
+  </si>
+  <si>
+    <t>猛犸新闻</t>
   </si>
   <si>
     <t>微博游戏</t>
   </si>
   <si>
-    <t>芝士热亿点</t>
-  </si>
-  <si>
-    <t>猛犸新闻</t>
-  </si>
-  <si>
-    <t>每日经济新闻</t>
-  </si>
-  <si>
-    <t>热剧班主任</t>
-  </si>
-  <si>
-    <t>回忆专用小马甲</t>
+    <t>一缕思绪</t>
+  </si>
+  <si>
+    <t>微天下</t>
+  </si>
+  <si>
+    <t>阿侃</t>
+  </si>
+  <si>
+    <t>娱理</t>
+  </si>
+  <si>
+    <t>人间百宝箱</t>
+  </si>
+  <si>
+    <t>弄潮儿大总管</t>
+  </si>
+  <si>
+    <t>财经网</t>
+  </si>
+  <si>
+    <t>环球时报</t>
+  </si>
+  <si>
+    <t>三联生活周刊</t>
+  </si>
+  <si>
+    <t>观视频工作室</t>
+  </si>
+  <si>
+    <t>新浪视频</t>
+  </si>
+  <si>
+    <t>娱老爷</t>
+  </si>
+  <si>
+    <t>新华网</t>
+  </si>
+  <si>
+    <t>阿莫学长</t>
+  </si>
+  <si>
+    <t>年糕妈妈</t>
+  </si>
+  <si>
+    <t>现男友</t>
+  </si>
+  <si>
+    <t>新闻晨报</t>
   </si>
   <si>
     <t>这个太牛了</t>
   </si>
   <si>
-    <t>西部雄仔</t>
-  </si>
-  <si>
-    <t>阿莫学长</t>
-  </si>
-  <si>
-    <t>凤凰网</t>
-  </si>
-  <si>
-    <t>娱理</t>
-  </si>
-  <si>
-    <t>人间百宝箱</t>
-  </si>
-  <si>
-    <t>原来如此bot</t>
-  </si>
-  <si>
-    <t>叫我栗宝就好了</t>
-  </si>
-  <si>
-    <t>人间投影仪</t>
-  </si>
-  <si>
-    <t>光明日报</t>
-  </si>
-  <si>
-    <t>现男友</t>
-  </si>
-  <si>
-    <t>陈甜竹</t>
-  </si>
-  <si>
-    <t>微博健康</t>
-  </si>
-  <si>
-    <t>堂堂小方总</t>
-  </si>
-  <si>
-    <t>娱老爷</t>
+    <t>微博海外剧</t>
   </si>
   <si>
     <t>微博科技</t>
   </si>
   <si>
-    <t>哈尼Mamma</t>
-  </si>
-  <si>
-    <t>娱乐有饭</t>
-  </si>
-  <si>
-    <t>阿侃</t>
-  </si>
-  <si>
-    <t>陈秋欤</t>
+    <t>思想聚焦</t>
+  </si>
+  <si>
+    <t>电影集结号</t>
+  </si>
+  <si>
+    <t>侠客岛</t>
+  </si>
+  <si>
+    <t>封面新闻</t>
+  </si>
+  <si>
+    <t>我的损友嘴狠贱</t>
+  </si>
+  <si>
+    <t>剪了个剧</t>
+  </si>
+  <si>
+    <t>新京报</t>
+  </si>
+  <si>
+    <t>王者荣耀课代表</t>
+  </si>
+  <si>
+    <t>网易浪潮工作室</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,25 +1881,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>422</v>
       </c>
       <c r="F2">
-        <v>3518</v>
+        <v>194</v>
       </c>
       <c r="G2">
-        <v>3737578</v>
+        <v>11548179</v>
       </c>
       <c r="H2">
-        <v>6395</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1091,25 +1907,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="F3">
-        <v>1650</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>103526797</v>
+        <v>3657201</v>
       </c>
       <c r="H3">
-        <v>211844</v>
+        <v>33006</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1117,25 +1933,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>424</v>
       </c>
       <c r="F4">
-        <v>525</v>
+        <v>818</v>
       </c>
       <c r="G4">
-        <v>9013599</v>
+        <v>20571093</v>
       </c>
       <c r="H4">
-        <v>7462</v>
+        <v>40289</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1143,25 +1959,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>425</v>
       </c>
       <c r="F5">
-        <v>264</v>
+        <v>543</v>
       </c>
       <c r="G5">
-        <v>2292505</v>
+        <v>10165137</v>
       </c>
       <c r="H5">
-        <v>16911</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1169,25 +1985,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>426</v>
       </c>
       <c r="F6">
-        <v>2694</v>
+        <v>1650</v>
       </c>
       <c r="G6">
-        <v>23741115</v>
+        <v>103570634</v>
       </c>
       <c r="H6">
-        <v>259722</v>
+        <v>211978</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1195,25 +2011,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>427</v>
       </c>
       <c r="F7">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="G7">
-        <v>13704159</v>
+        <v>24007472</v>
       </c>
       <c r="H7">
-        <v>9999</v>
+        <v>75502</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1221,25 +2037,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>428</v>
       </c>
       <c r="F8">
-        <v>2581</v>
+        <v>527</v>
       </c>
       <c r="G8">
-        <v>8898957</v>
+        <v>9032456</v>
       </c>
       <c r="H8">
-        <v>5389</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1247,25 +2063,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="F9">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="G9">
-        <v>603230</v>
+        <v>1963440</v>
       </c>
       <c r="H9">
-        <v>8331</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1273,25 +2089,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>426</v>
       </c>
       <c r="F10">
-        <v>1284</v>
+        <v>1650</v>
       </c>
       <c r="G10">
-        <v>8415581</v>
+        <v>103570634</v>
       </c>
       <c r="H10">
-        <v>86811</v>
+        <v>211978</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1299,25 +2115,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>430</v>
       </c>
       <c r="F11">
-        <v>739</v>
+        <v>105</v>
       </c>
       <c r="G11">
-        <v>47867803</v>
+        <v>1265002</v>
       </c>
       <c r="H11">
-        <v>263412</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1325,25 +2141,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>425</v>
       </c>
       <c r="F12">
-        <v>1398</v>
+        <v>543</v>
       </c>
       <c r="G12">
-        <v>3729785</v>
+        <v>10165148</v>
       </c>
       <c r="H12">
-        <v>24799</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1351,25 +2167,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>426</v>
       </c>
       <c r="F13">
-        <v>791</v>
+        <v>1650</v>
       </c>
       <c r="G13">
-        <v>41485872</v>
+        <v>103570633</v>
       </c>
       <c r="H13">
-        <v>42037</v>
+        <v>211978</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1377,25 +2193,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>431</v>
       </c>
       <c r="F14">
-        <v>392</v>
+        <v>1352</v>
       </c>
       <c r="G14">
-        <v>9608405</v>
+        <v>2161688</v>
       </c>
       <c r="H14">
-        <v>79685</v>
+        <v>19744</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1403,25 +2219,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="F15">
-        <v>291</v>
+        <v>3524</v>
       </c>
       <c r="G15">
-        <v>5248950</v>
+        <v>3795966</v>
       </c>
       <c r="H15">
-        <v>1786</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1429,25 +2245,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>433</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="G16">
-        <v>11617386</v>
+        <v>603249</v>
       </c>
       <c r="H16">
-        <v>2723</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1455,25 +2271,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>434</v>
       </c>
       <c r="F17">
-        <v>1650</v>
+        <v>2155</v>
       </c>
       <c r="G17">
-        <v>103526797</v>
+        <v>1265265</v>
       </c>
       <c r="H17">
-        <v>211844</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1481,25 +2297,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>435</v>
       </c>
       <c r="F18">
-        <v>525</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>9013600</v>
+        <v>2450095</v>
       </c>
       <c r="H18">
-        <v>7462</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1507,25 +2323,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>436</v>
       </c>
       <c r="F19">
-        <v>1398</v>
+        <v>1431</v>
       </c>
       <c r="G19">
-        <v>3729785</v>
+        <v>1493786</v>
       </c>
       <c r="H19">
-        <v>24799</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1533,25 +2349,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
       <c r="F20">
-        <v>818</v>
+        <v>739</v>
       </c>
       <c r="G20">
-        <v>20569156</v>
+        <v>47866913</v>
       </c>
       <c r="H20">
-        <v>40258</v>
+        <v>263586</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1559,25 +2375,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
       <c r="F21">
-        <v>1351</v>
+        <v>261</v>
       </c>
       <c r="G21">
-        <v>6934847</v>
+        <v>15192573</v>
       </c>
       <c r="H21">
-        <v>13568</v>
+        <v>120327</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1585,25 +2401,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="F22">
         <v>2694</v>
       </c>
       <c r="G22">
-        <v>23741115</v>
+        <v>23741048</v>
       </c>
       <c r="H22">
-        <v>259722</v>
+        <v>259998</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1611,25 +2427,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>439</v>
       </c>
       <c r="F23">
-        <v>64</v>
+        <v>2694</v>
       </c>
       <c r="G23">
-        <v>2404847</v>
+        <v>23741048</v>
       </c>
       <c r="H23">
-        <v>179</v>
+        <v>259998</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1637,25 +2453,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>440</v>
       </c>
       <c r="F24">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="G24">
-        <v>3641729</v>
+        <v>5256202</v>
       </c>
       <c r="H24">
-        <v>33005</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1663,25 +2479,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>441</v>
       </c>
       <c r="F25">
-        <v>1284</v>
+        <v>131</v>
       </c>
       <c r="G25">
-        <v>8415581</v>
+        <v>3932121</v>
       </c>
       <c r="H25">
-        <v>86811</v>
+        <v>28201</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1689,25 +2505,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
       <c r="F26">
-        <v>174</v>
+        <v>1398</v>
       </c>
       <c r="G26">
-        <v>1452177</v>
+        <v>3730711</v>
       </c>
       <c r="H26">
-        <v>2312</v>
+        <v>24838</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1715,25 +2531,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>443</v>
       </c>
       <c r="F27">
-        <v>1650</v>
+        <v>791</v>
       </c>
       <c r="G27">
-        <v>103526800</v>
+        <v>41483033</v>
       </c>
       <c r="H27">
-        <v>211844</v>
+        <v>42055</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1741,25 +2557,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>439</v>
       </c>
       <c r="F28">
-        <v>33</v>
+        <v>2694</v>
       </c>
       <c r="G28">
-        <v>2426005</v>
+        <v>23741048</v>
       </c>
       <c r="H28">
-        <v>87</v>
+        <v>259998</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1767,25 +2583,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>444</v>
       </c>
       <c r="F29">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>2292505</v>
+        <v>10005464</v>
       </c>
       <c r="H29">
-        <v>16911</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1793,25 +2609,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>445</v>
       </c>
       <c r="F30">
-        <v>700</v>
+        <v>174</v>
       </c>
       <c r="G30">
-        <v>24005657</v>
+        <v>1463558</v>
       </c>
       <c r="H30">
-        <v>75463</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1819,25 +2635,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="F31">
-        <v>2694</v>
+        <v>54</v>
       </c>
       <c r="G31">
-        <v>23741115</v>
+        <v>2066244</v>
       </c>
       <c r="H31">
-        <v>259722</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1845,25 +2661,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>423</v>
       </c>
       <c r="F32">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G32">
-        <v>10250621</v>
+        <v>3657201</v>
       </c>
       <c r="H32">
-        <v>1575</v>
+        <v>33006</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1871,25 +2687,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>447</v>
       </c>
       <c r="F33">
-        <v>92</v>
+        <v>614</v>
       </c>
       <c r="G33">
-        <v>10701111</v>
+        <v>909158</v>
       </c>
       <c r="H33">
-        <v>3825</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1897,25 +2713,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>448</v>
       </c>
       <c r="F34">
-        <v>1431</v>
+        <v>129</v>
       </c>
       <c r="G34">
-        <v>1493754</v>
+        <v>448729</v>
       </c>
       <c r="H34">
-        <v>41145</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1923,25 +2739,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>449</v>
       </c>
       <c r="F35">
-        <v>131</v>
+        <v>1004</v>
       </c>
       <c r="G35">
-        <v>3932520</v>
+        <v>955423</v>
       </c>
       <c r="H35">
-        <v>28199</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1949,25 +2765,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="F36">
-        <v>1530</v>
+        <v>2694</v>
       </c>
       <c r="G36">
-        <v>3361701</v>
+        <v>23741048</v>
       </c>
       <c r="H36">
-        <v>14106</v>
+        <v>259998</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1975,25 +2791,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="F37">
         <v>2694</v>
       </c>
       <c r="G37">
-        <v>23741115</v>
+        <v>23741048</v>
       </c>
       <c r="H37">
-        <v>259722</v>
+        <v>259998</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2001,25 +2817,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>355</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>450</v>
       </c>
       <c r="F38">
-        <v>1650</v>
+        <v>2609</v>
       </c>
       <c r="G38">
-        <v>103526799</v>
+        <v>59975347</v>
       </c>
       <c r="H38">
-        <v>211844</v>
+        <v>167960</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2027,25 +2843,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>356</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>451</v>
       </c>
       <c r="F39">
-        <v>1156</v>
+        <v>674</v>
       </c>
       <c r="G39">
-        <v>2177728</v>
+        <v>13823368</v>
       </c>
       <c r="H39">
-        <v>18249</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2053,25 +2869,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>344</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>452</v>
       </c>
       <c r="F40">
-        <v>1004</v>
+        <v>265</v>
       </c>
       <c r="G40">
-        <v>955480</v>
+        <v>2293778</v>
       </c>
       <c r="H40">
-        <v>4698</v>
+        <v>16993</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2079,25 +2895,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>453</v>
       </c>
       <c r="F41">
-        <v>1467</v>
+        <v>129</v>
       </c>
       <c r="G41">
-        <v>12588831</v>
+        <v>14648920</v>
       </c>
       <c r="H41">
-        <v>28206</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2105,25 +2921,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>433</v>
       </c>
       <c r="F42">
-        <v>1530</v>
+        <v>80</v>
       </c>
       <c r="G42">
-        <v>3361701</v>
+        <v>603249</v>
       </c>
       <c r="H42">
-        <v>14106</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2131,25 +2947,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>358</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>454</v>
       </c>
       <c r="F43">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="G43">
-        <v>4525031</v>
+        <v>10771809</v>
       </c>
       <c r="H43">
-        <v>2635</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2157,25 +2973,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="F44">
-        <v>1650</v>
+        <v>215</v>
       </c>
       <c r="G44">
-        <v>103526800</v>
+        <v>5055897</v>
       </c>
       <c r="H44">
-        <v>211844</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2183,25 +2999,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="F45">
-        <v>129</v>
+        <v>1636</v>
       </c>
       <c r="G45">
-        <v>14561897</v>
+        <v>8304120</v>
       </c>
       <c r="H45">
-        <v>1635</v>
+        <v>44169</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2209,25 +3025,1582 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s">
+        <v>361</v>
+      </c>
+      <c r="E46" t="s">
+        <v>424</v>
+      </c>
+      <c r="F46">
+        <v>818</v>
+      </c>
+      <c r="G46">
+        <v>20571095</v>
+      </c>
+      <c r="H46">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" t="s">
+        <v>362</v>
+      </c>
+      <c r="E47" t="s">
+        <v>442</v>
+      </c>
+      <c r="F47">
+        <v>1398</v>
+      </c>
+      <c r="G47">
+        <v>3730711</v>
+      </c>
+      <c r="H47">
+        <v>24838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48" t="s">
+        <v>457</v>
+      </c>
+      <c r="F48">
+        <v>1467</v>
+      </c>
+      <c r="G48">
+        <v>12599256</v>
+      </c>
+      <c r="H48">
+        <v>28244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" t="s">
+        <v>364</v>
+      </c>
+      <c r="E49" t="s">
+        <v>424</v>
+      </c>
+      <c r="F49">
+        <v>818</v>
+      </c>
+      <c r="G49">
+        <v>20571095</v>
+      </c>
+      <c r="H49">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" t="s">
+        <v>435</v>
+      </c>
+      <c r="F50">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>2450095</v>
+      </c>
+      <c r="H50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" t="s">
+        <v>366</v>
+      </c>
+      <c r="E51" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51">
+        <v>1431</v>
+      </c>
+      <c r="G51">
+        <v>1493786</v>
+      </c>
+      <c r="H51">
+        <v>41150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="s">
+        <v>458</v>
+      </c>
+      <c r="F52">
+        <v>843</v>
+      </c>
+      <c r="G52">
+        <v>575849</v>
+      </c>
+      <c r="H52">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" t="s">
+        <v>439</v>
+      </c>
+      <c r="F53">
+        <v>2694</v>
+      </c>
+      <c r="G53">
+        <v>23741048</v>
+      </c>
+      <c r="H53">
+        <v>259998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E54" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54">
+        <v>527</v>
+      </c>
+      <c r="G54">
+        <v>9032458</v>
+      </c>
+      <c r="H54">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" t="s">
+        <v>370</v>
+      </c>
+      <c r="E55" t="s">
+        <v>459</v>
+      </c>
+      <c r="F55">
+        <v>245</v>
+      </c>
+      <c r="G55">
+        <v>2442118</v>
+      </c>
+      <c r="H55">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56" t="s">
+        <v>452</v>
+      </c>
+      <c r="F56">
+        <v>265</v>
+      </c>
+      <c r="G56">
+        <v>2293778</v>
+      </c>
+      <c r="H56">
+        <v>16993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" t="s">
+        <v>460</v>
+      </c>
+      <c r="F57">
+        <v>1286</v>
+      </c>
+      <c r="G57">
+        <v>8415347</v>
+      </c>
+      <c r="H57">
+        <v>86905</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" t="s">
+        <v>373</v>
+      </c>
+      <c r="E58" t="s">
+        <v>461</v>
+      </c>
+      <c r="F58">
+        <v>2583</v>
+      </c>
+      <c r="G58">
+        <v>8900496</v>
+      </c>
+      <c r="H58">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" t="s">
+        <v>462</v>
+      </c>
+      <c r="F59">
+        <v>103</v>
+      </c>
+      <c r="G59">
+        <v>2138389</v>
+      </c>
+      <c r="H59">
+        <v>19078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" t="s">
+        <v>375</v>
+      </c>
+      <c r="E60" t="s">
+        <v>463</v>
+      </c>
+      <c r="F60">
+        <v>1191</v>
+      </c>
+      <c r="G60">
+        <v>32790334</v>
+      </c>
+      <c r="H60">
+        <v>174207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" t="s">
+        <v>376</v>
+      </c>
+      <c r="E61" t="s">
+        <v>439</v>
+      </c>
+      <c r="F61">
+        <v>2694</v>
+      </c>
+      <c r="G61">
+        <v>23741048</v>
+      </c>
+      <c r="H61">
+        <v>259998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" t="s">
+        <v>377</v>
+      </c>
+      <c r="E62" t="s">
+        <v>464</v>
+      </c>
+      <c r="F62">
+        <v>126</v>
+      </c>
+      <c r="G62">
+        <v>4525082</v>
+      </c>
+      <c r="H62">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" t="s">
+        <v>378</v>
+      </c>
+      <c r="E63" t="s">
+        <v>465</v>
+      </c>
+      <c r="F63">
+        <v>1352</v>
+      </c>
+      <c r="G63">
+        <v>6933626</v>
+      </c>
+      <c r="H63">
+        <v>13591</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" t="s">
+        <v>379</v>
+      </c>
+      <c r="E64" t="s">
+        <v>466</v>
+      </c>
+      <c r="F64">
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <v>2430648</v>
+      </c>
+      <c r="H64">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" t="s">
+        <v>380</v>
+      </c>
+      <c r="E65" t="s">
+        <v>424</v>
+      </c>
+      <c r="F65">
+        <v>818</v>
+      </c>
+      <c r="G65">
+        <v>20571096</v>
+      </c>
+      <c r="H65">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" t="s">
+        <v>426</v>
+      </c>
+      <c r="F66">
+        <v>1650</v>
+      </c>
+      <c r="G66">
+        <v>103570636</v>
+      </c>
+      <c r="H66">
+        <v>211978</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" t="s">
+        <v>382</v>
+      </c>
+      <c r="E67" t="s">
+        <v>467</v>
+      </c>
+      <c r="F67">
+        <v>373</v>
+      </c>
+      <c r="G67">
+        <v>2919270</v>
+      </c>
+      <c r="H67">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
+        <v>383</v>
+      </c>
+      <c r="E68" t="s">
+        <v>468</v>
+      </c>
+      <c r="F68">
+        <v>962</v>
+      </c>
+      <c r="G68">
+        <v>40036253</v>
+      </c>
+      <c r="H68">
+        <v>207149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" t="s">
+        <v>384</v>
+      </c>
+      <c r="E69" t="s">
+        <v>465</v>
+      </c>
+      <c r="F69">
+        <v>1352</v>
+      </c>
+      <c r="G69">
+        <v>6933626</v>
+      </c>
+      <c r="H69">
+        <v>13591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" t="s">
+        <v>385</v>
+      </c>
+      <c r="E70" t="s">
+        <v>469</v>
+      </c>
+      <c r="F70">
+        <v>737</v>
+      </c>
+      <c r="G70">
+        <v>29629416</v>
+      </c>
+      <c r="H70">
+        <v>211744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" t="s">
+        <v>386</v>
+      </c>
+      <c r="E71" t="s">
+        <v>426</v>
+      </c>
+      <c r="F71">
+        <v>1650</v>
+      </c>
+      <c r="G71">
+        <v>103570635</v>
+      </c>
+      <c r="H71">
+        <v>211978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" t="s">
+        <v>470</v>
+      </c>
+      <c r="F72">
+        <v>595</v>
+      </c>
+      <c r="G72">
+        <v>23360212</v>
+      </c>
+      <c r="H72">
+        <v>57023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" t="s">
+        <v>471</v>
+      </c>
+      <c r="F73">
+        <v>156</v>
+      </c>
+      <c r="G73">
+        <v>3391952</v>
+      </c>
+      <c r="H73">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F74">
+        <v>1871</v>
+      </c>
+      <c r="G74">
+        <v>18369163</v>
+      </c>
+      <c r="H74">
+        <v>115426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" t="s">
+        <v>390</v>
+      </c>
+      <c r="E75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75">
+        <v>1530</v>
+      </c>
+      <c r="G75">
+        <v>3362629</v>
+      </c>
+      <c r="H75">
+        <v>14112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>292</v>
+      </c>
+      <c r="D76" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76" t="s">
+        <v>426</v>
+      </c>
+      <c r="F76">
+        <v>1650</v>
+      </c>
+      <c r="G76">
+        <v>103570635</v>
+      </c>
+      <c r="H76">
+        <v>211978</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" t="s">
+        <v>474</v>
+      </c>
+      <c r="F77">
+        <v>1054</v>
+      </c>
+      <c r="G77">
+        <v>82624220</v>
+      </c>
+      <c r="H77">
+        <v>128012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" t="s">
+        <v>393</v>
+      </c>
+      <c r="E78" t="s">
+        <v>475</v>
+      </c>
+      <c r="F78">
+        <v>177</v>
+      </c>
+      <c r="G78">
+        <v>11696901</v>
+      </c>
+      <c r="H78">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" t="s">
+        <v>394</v>
+      </c>
+      <c r="E79" t="s">
+        <v>476</v>
+      </c>
+      <c r="F79">
+        <v>416</v>
+      </c>
+      <c r="G79">
+        <v>3355263</v>
+      </c>
+      <c r="H79">
+        <v>11711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>395</v>
+      </c>
+      <c r="E80" t="s">
+        <v>424</v>
+      </c>
+      <c r="F80">
+        <v>818</v>
+      </c>
+      <c r="G80">
+        <v>20571096</v>
+      </c>
+      <c r="H80">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" t="s">
+        <v>477</v>
+      </c>
+      <c r="F81">
+        <v>134</v>
+      </c>
+      <c r="G81">
+        <v>10412927</v>
+      </c>
+      <c r="H81">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" t="s">
+        <v>397</v>
+      </c>
+      <c r="E82" t="s">
+        <v>478</v>
+      </c>
+      <c r="F82">
+        <v>1201</v>
+      </c>
+      <c r="G82">
+        <v>38053359</v>
+      </c>
+      <c r="H82">
+        <v>165801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" t="s">
+        <v>398</v>
+      </c>
+      <c r="E83" t="s">
+        <v>460</v>
+      </c>
+      <c r="F83">
+        <v>1286</v>
+      </c>
+      <c r="G83">
+        <v>8415347</v>
+      </c>
+      <c r="H83">
+        <v>86905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>399</v>
+      </c>
+      <c r="E84" t="s">
+        <v>479</v>
+      </c>
+      <c r="F84">
+        <v>392</v>
+      </c>
+      <c r="G84">
+        <v>9647525</v>
+      </c>
+      <c r="H84">
+        <v>79688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" t="s">
+        <v>400</v>
+      </c>
+      <c r="E85" t="s">
+        <v>424</v>
+      </c>
+      <c r="F85">
+        <v>818</v>
+      </c>
+      <c r="G85">
+        <v>20571096</v>
+      </c>
+      <c r="H85">
+        <v>40289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" t="s">
+        <v>401</v>
+      </c>
+      <c r="E86" t="s">
+        <v>480</v>
+      </c>
+      <c r="F86">
+        <v>144</v>
+      </c>
+      <c r="G86">
+        <v>1549832</v>
+      </c>
+      <c r="H86">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" t="s">
+        <v>402</v>
+      </c>
+      <c r="E87" t="s">
+        <v>481</v>
+      </c>
+      <c r="F87">
+        <v>1156</v>
+      </c>
+      <c r="G87">
+        <v>2177818</v>
+      </c>
+      <c r="H87">
+        <v>18261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>403</v>
+      </c>
+      <c r="E88" t="s">
+        <v>482</v>
+      </c>
+      <c r="F88">
+        <v>1807</v>
+      </c>
+      <c r="G88">
+        <v>35092752</v>
+      </c>
+      <c r="H88">
+        <v>117116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" t="s">
+        <v>481</v>
+      </c>
+      <c r="F89">
+        <v>1156</v>
+      </c>
+      <c r="G89">
+        <v>2177818</v>
+      </c>
+      <c r="H89">
+        <v>18261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" t="s">
+        <v>405</v>
+      </c>
+      <c r="E90" t="s">
+        <v>483</v>
+      </c>
+      <c r="F90">
+        <v>199</v>
+      </c>
+      <c r="G90">
+        <v>10558968</v>
+      </c>
+      <c r="H90">
+        <v>35150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" t="s">
+        <v>484</v>
+      </c>
+      <c r="F91">
+        <v>216</v>
+      </c>
+      <c r="G91">
+        <v>8963417</v>
+      </c>
+      <c r="H91">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" t="s">
+        <v>407</v>
+      </c>
+      <c r="E92" t="s">
+        <v>485</v>
+      </c>
+      <c r="F92">
+        <v>8333</v>
+      </c>
+      <c r="G92">
+        <v>27430108</v>
+      </c>
+      <c r="H92">
+        <v>166288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" t="s">
+        <v>408</v>
+      </c>
+      <c r="E93" t="s">
+        <v>486</v>
+      </c>
+      <c r="F93">
+        <v>414</v>
+      </c>
+      <c r="G93">
+        <v>10939056</v>
+      </c>
+      <c r="H93">
+        <v>58164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" t="s">
+        <v>445</v>
+      </c>
+      <c r="F94">
+        <v>174</v>
+      </c>
+      <c r="G94">
+        <v>1463558</v>
+      </c>
+      <c r="H94">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" t="s">
+        <v>410</v>
+      </c>
+      <c r="E95" t="s">
+        <v>474</v>
+      </c>
+      <c r="F95">
+        <v>1054</v>
+      </c>
+      <c r="G95">
+        <v>82624223</v>
+      </c>
+      <c r="H95">
+        <v>128012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>411</v>
+      </c>
+      <c r="E96" t="s">
+        <v>481</v>
+      </c>
+      <c r="F96">
+        <v>1156</v>
+      </c>
+      <c r="G96">
+        <v>2177818</v>
+      </c>
+      <c r="H96">
+        <v>18261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" t="s">
+        <v>412</v>
+      </c>
+      <c r="E97" t="s">
+        <v>428</v>
+      </c>
+      <c r="F97">
+        <v>527</v>
+      </c>
+      <c r="G97">
+        <v>9032458</v>
+      </c>
+      <c r="H97">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" t="s">
+        <v>413</v>
+      </c>
+      <c r="E98" t="s">
+        <v>439</v>
+      </c>
+      <c r="F98">
+        <v>2694</v>
+      </c>
+      <c r="G98">
+        <v>23741048</v>
+      </c>
+      <c r="H98">
+        <v>259998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>414</v>
+      </c>
+      <c r="E99" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99">
+        <v>962</v>
+      </c>
+      <c r="G99">
+        <v>40036253</v>
+      </c>
+      <c r="H99">
+        <v>207149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
         <v>211</v>
       </c>
-      <c r="F46">
-        <v>1431</v>
-      </c>
-      <c r="G46">
-        <v>1493754</v>
-      </c>
-      <c r="H46">
-        <v>41145</v>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" t="s">
+        <v>415</v>
+      </c>
+      <c r="E100" t="s">
+        <v>487</v>
+      </c>
+      <c r="F100">
+        <v>96</v>
+      </c>
+      <c r="G100">
+        <v>283247</v>
+      </c>
+      <c r="H100">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" t="s">
+        <v>416</v>
+      </c>
+      <c r="E101" t="s">
+        <v>429</v>
+      </c>
+      <c r="F101">
+        <v>259</v>
+      </c>
+      <c r="G101">
+        <v>1963440</v>
+      </c>
+      <c r="H101">
+        <v>9586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>417</v>
+      </c>
+      <c r="E102" t="s">
+        <v>488</v>
+      </c>
+      <c r="F102">
+        <v>2384</v>
+      </c>
+      <c r="G102">
+        <v>44845488</v>
+      </c>
+      <c r="H102">
+        <v>126511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" t="s">
+        <v>489</v>
+      </c>
+      <c r="F103">
+        <v>119</v>
+      </c>
+      <c r="G103">
+        <v>3525948</v>
+      </c>
+      <c r="H103">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
+        <v>490</v>
+      </c>
+      <c r="F104">
+        <v>134</v>
+      </c>
+      <c r="G104">
+        <v>1211989</v>
+      </c>
+      <c r="H104">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" t="s">
+        <v>420</v>
+      </c>
+      <c r="E105" t="s">
+        <v>473</v>
+      </c>
+      <c r="F105">
+        <v>1530</v>
+      </c>
+      <c r="G105">
+        <v>3362629</v>
+      </c>
+      <c r="H105">
+        <v>14112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D106" t="s">
+        <v>421</v>
+      </c>
+      <c r="E106" t="s">
+        <v>426</v>
+      </c>
+      <c r="F106">
+        <v>1650</v>
+      </c>
+      <c r="G106">
+        <v>103570641</v>
+      </c>
+      <c r="H106">
+        <v>211979</v>
       </c>
     </row>
   </sheetData>

--- a/C:\Users\yiwang\Desktop\sina.xlsx
+++ b/C:\Users\yiwang\Desktop\sina.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="491">
   <si>
     <t>top_name</t>
   </si>
@@ -40,321 +40,321 @@
     <t>host_weibpo</t>
   </si>
   <si>
+    <t>如何拯救塌房男明星</t>
+  </si>
+  <si>
+    <t>怎样评价重庆轨道交通暂不设置女性车厢</t>
+  </si>
+  <si>
+    <t>如何解读恒大被申请冻结资产</t>
+  </si>
+  <si>
+    <t>如何保护未成年人不受性侵害</t>
+  </si>
+  <si>
+    <t>DC中的小丑迷人在哪里</t>
+  </si>
+  <si>
+    <t>夏天开空调26度省电还是28度</t>
+  </si>
+  <si>
+    <t>如何正确对待身材焦虑</t>
+  </si>
+  <si>
+    <t>如何看待重庆两幼童坠亡生父被捕</t>
+  </si>
+  <si>
+    <t>从小被富养是种什么体验</t>
+  </si>
+  <si>
+    <t>电动牙刷真的比普通牙刷更有效吗</t>
+  </si>
+  <si>
+    <t>原生家庭很糟糕是什么体验</t>
+  </si>
+  <si>
+    <t>生孩子能巩固婚姻吗</t>
+  </si>
+  <si>
+    <t>三十岁后还敢谈理想吗</t>
+  </si>
+  <si>
+    <t>为何95后找工作更听父母话</t>
+  </si>
+  <si>
+    <t>金钱和快乐哪个更重要</t>
+  </si>
+  <si>
+    <t>花18万克隆宠物狗真的能延续陪伴吗</t>
+  </si>
+  <si>
+    <t>如何看待恒大集团称要起诉广发银行宜兴支行</t>
+  </si>
+  <si>
+    <t>禁止中小学在校内开设小卖部会有什么影响</t>
+  </si>
+  <si>
+    <t>要为了迎合大众改变自己吗</t>
+  </si>
+  <si>
+    <t>离职后能挖上家公司的人吗</t>
+  </si>
+  <si>
+    <t>你的人生有哪些高光时刻</t>
+  </si>
+  <si>
+    <t>暴雨天开电动汽车安全吗</t>
+  </si>
+  <si>
+    <t>爱好该不该成为工作</t>
+  </si>
+  <si>
+    <t>高三想逼自己一把有必要交手机吗</t>
+  </si>
+  <si>
+    <t>该如何跟孩子谈论至亲离世</t>
+  </si>
+  <si>
+    <t>如何评价被跟踪两年后女护士首次发声</t>
+  </si>
+  <si>
+    <t>10万老人每天上网超10小时反映了什么</t>
+  </si>
+  <si>
+    <t>东京奥运村运动员感染新冠会有哪些影响</t>
+  </si>
+  <si>
+    <t>如何解读深圳赛格大厦的振动原因</t>
+  </si>
+  <si>
+    <t>在银行存款一亿是什么体验</t>
+  </si>
+  <si>
+    <t>在古代为何商人的地位不高</t>
+  </si>
+  <si>
+    <t>快递不送货上门你怎么看</t>
+  </si>
+  <si>
+    <t>你经历过假性亲密关系吗</t>
+  </si>
+  <si>
     <t>两个人在一起的真正意义</t>
   </si>
   <si>
+    <t>为什么印度的食物大多是糊糊</t>
+  </si>
+  <si>
+    <t>你能接受恋爱中男生撒娇吗</t>
+  </si>
+  <si>
     <t>手机充电一夜不拔对电池有坏处吗</t>
   </si>
   <si>
-    <t>如何看待重庆两幼童坠亡生父被捕</t>
-  </si>
-  <si>
-    <t>离职后能挖上家公司的人吗</t>
+    <t>辞职后的空窗期里应该做什么</t>
+  </si>
+  <si>
+    <t>裸辞后一时找不到工作怎么办</t>
   </si>
   <si>
     <t>如何看待金毛Siri在托运过程中死亡</t>
   </si>
   <si>
-    <t>三十岁后还敢谈理想吗</t>
-  </si>
-  <si>
-    <t>如何正确对待身材焦虑</t>
+    <t>刘浩存需要为父母的错误承担责任吗</t>
+  </si>
+  <si>
+    <t>怎样保护被托运的宠物</t>
+  </si>
+  <si>
+    <t>同事以领导的口吻命令我该怎么办</t>
+  </si>
+  <si>
+    <t>该不该向朋友索取专业的服务</t>
+  </si>
+  <si>
+    <t>如何评价韩剧恶魔法官</t>
+  </si>
+  <si>
+    <t>小米销量是怎样超过苹果跻身全球第二的</t>
+  </si>
+  <si>
+    <t>那些进产房前必须知道的事</t>
+  </si>
+  <si>
+    <t>如何避免手机被大数据监控</t>
+  </si>
+  <si>
+    <t>打工人暑假如何带孩子</t>
+  </si>
+  <si>
+    <t>不让快递员进小区合理吗</t>
+  </si>
+  <si>
+    <t>沉迷喝奶茶后的变化</t>
+  </si>
+  <si>
+    <t>那些旅行中感叹百闻不如一见的瞬间</t>
+  </si>
+  <si>
+    <t>点外卖如何避坑</t>
+  </si>
+  <si>
+    <t>开心消消乐文案是德云社写的吗</t>
+  </si>
+  <si>
+    <t>哪个瞬间觉得皇帝活得无比悲催</t>
+  </si>
+  <si>
+    <t>废名的花红山要怎么读</t>
+  </si>
+  <si>
+    <t>在云冈修复文物是种什么体验</t>
+  </si>
+  <si>
+    <t>如何区别分享和炫耀</t>
+  </si>
+  <si>
+    <t>天气预报中的暴雨是怎么界定的</t>
+  </si>
+  <si>
+    <t>那些养猫后的崩溃瞬间</t>
+  </si>
+  <si>
+    <t>中国传统文化该怎么保护</t>
+  </si>
+  <si>
+    <t>你接受只谈恋爱不结婚吗</t>
+  </si>
+  <si>
+    <t>如何评价东京奥运中国队旗手阵容</t>
+  </si>
+  <si>
+    <t>如何将熬夜的伤害减到最轻</t>
   </si>
   <si>
     <t>怎么看网友曝光华晨宇整容等行为</t>
   </si>
   <si>
+    <t>保罗今年还能赢得总冠军吗</t>
+  </si>
+  <si>
+    <t>为什么大多数人都喜欢稳定</t>
+  </si>
+  <si>
+    <t>婚房被9个陌生人偷住4个月你怎么看</t>
+  </si>
+  <si>
     <t>如何看待南昌杀妻抛尸案被告被判死刑</t>
   </si>
   <si>
+    <t>我们能为失孤做些什么</t>
+  </si>
+  <si>
+    <t>美国副国务卿来不来中国</t>
+  </si>
+  <si>
+    <t>碳交易市场开市有何深远意义</t>
+  </si>
+  <si>
+    <t>临时抱佛脚到底有没有用</t>
+  </si>
+  <si>
     <t>Bo能否登场对于FPX的影响有多大</t>
   </si>
   <si>
-    <t>金钱和快乐哪个更重要</t>
-  </si>
-  <si>
-    <t>你怎么看失孤原型儿子决定留在养父母身边</t>
-  </si>
-  <si>
-    <t>怎样保护被托运的宠物</t>
-  </si>
-  <si>
-    <t>刘浩存需要为父母的错误承担责任吗</t>
-  </si>
-  <si>
-    <t>打工人暑假如何带孩子</t>
-  </si>
-  <si>
-    <t>林生斌事件反映哪些舆论现象</t>
-  </si>
-  <si>
-    <t>那些旅行中感叹百闻不如一见的瞬间</t>
-  </si>
-  <si>
-    <t>如何将熬夜的伤害减到最轻</t>
-  </si>
-  <si>
-    <t>如何看待部分地区未打疫苗影响出行</t>
-  </si>
-  <si>
-    <t>不让快递员进小区合理吗</t>
+    <t>录取后被退档考生损失怎么弥补</t>
+  </si>
+  <si>
+    <t>印象中最深刻的管泽元预测</t>
+  </si>
+  <si>
+    <t>如何看待私立整形医院乱象</t>
+  </si>
+  <si>
+    <t>内向的人生气时在干什么</t>
+  </si>
+  <si>
+    <t>花泽香菜配SP面灵气有多合适</t>
+  </si>
+  <si>
+    <t>即将租房开始独居需要准备什么</t>
   </si>
   <si>
     <t>如何看待小红书暂停赴美上市</t>
   </si>
   <si>
-    <t>名校生到卷烟厂当工人是浪费吗</t>
-  </si>
-  <si>
-    <t>中国传统文化该怎么保护</t>
-  </si>
-  <si>
-    <t>那些进产房前必须知道的事</t>
-  </si>
-  <si>
-    <t>你接受只谈恋爱不结婚吗</t>
-  </si>
-  <si>
-    <t>该不该向朋友索取专业的服务</t>
-  </si>
-  <si>
-    <t>碳交易市场开市有何深远意义</t>
+    <t>吸脂手术到底存在哪些危险</t>
+  </si>
+  <si>
+    <t>养成系去选秀算失败吗</t>
+  </si>
+  <si>
+    <t>青少年模式能保护好未成年吗</t>
+  </si>
+  <si>
+    <t>如果雷神去供电局上班能开多少工资</t>
+  </si>
+  <si>
+    <t>武林外传里的台词有多浪漫</t>
+  </si>
+  <si>
+    <t>如何看待阿里腾讯考虑互相开放生态系统</t>
+  </si>
+  <si>
+    <t>如何看待于晓光婚后与异性亲密接触行为</t>
+  </si>
+  <si>
+    <t>你能接受和伴侣异地吗</t>
+  </si>
+  <si>
+    <t>高价跨城代购茶颜悦色你怎么看</t>
+  </si>
+  <si>
+    <t>比特币还能玩多久</t>
+  </si>
+  <si>
+    <t>为何西安多地出现停电模式</t>
   </si>
   <si>
     <t>大学的班级活动必须参加吗</t>
   </si>
   <si>
-    <t>如何看待于晓光婚后与异性亲密接触行为</t>
-  </si>
-  <si>
-    <t>裸辞后一时找不到工作怎么办</t>
-  </si>
-  <si>
-    <t>笔记本电脑需要每天关机吗</t>
-  </si>
-  <si>
-    <t>我们能为失孤做些什么</t>
-  </si>
-  <si>
-    <t>小米销量是怎样超过苹果跻身全球第二的</t>
-  </si>
-  <si>
-    <t>暑假到底要不要给孩子报补习班</t>
-  </si>
-  <si>
-    <t>北京环球影城为什么那么火</t>
-  </si>
-  <si>
-    <t>高价跨城代购茶颜悦色你怎么看</t>
-  </si>
-  <si>
-    <t>父母追星该阻挠吗</t>
-  </si>
-  <si>
-    <t>在银行存款一亿是什么体验</t>
-  </si>
-  <si>
-    <t>被拐儿童养父母是否应被追责</t>
-  </si>
-  <si>
-    <t>频繁聊天会出现恋爱错觉吗</t>
-  </si>
-  <si>
-    <t>如何看待梅桢放弃华东政法大学任教机会</t>
-  </si>
-  <si>
-    <t>瘦了30斤后会有什么变化</t>
-  </si>
-  <si>
-    <t>哪个瞬间觉得皇帝活得无比悲催</t>
-  </si>
-  <si>
-    <t>复必泰新冠疫苗有望成为国内加强针吗</t>
-  </si>
-  <si>
-    <t>苏州一酒店倒塌有哪些信息值得关注</t>
-  </si>
-  <si>
-    <t>如何治愈原生家庭带来的伤害</t>
-  </si>
-  <si>
-    <t>你能接受和伴侣异地吗</t>
-  </si>
-  <si>
-    <t>为何西安多地出现停电模式</t>
-  </si>
-  <si>
-    <t>那些养猫后的崩溃瞬间</t>
-  </si>
-  <si>
-    <t>痛经如何有效缓解</t>
-  </si>
-  <si>
-    <t>花泽香菜配SP面灵气有多合适</t>
-  </si>
-  <si>
-    <t>如何看待私立整形医院乱象</t>
-  </si>
-  <si>
-    <t>如何看待阿里腾讯考虑互相开放生态系统</t>
-  </si>
-  <si>
-    <t>为什么大多数人都喜欢稳定</t>
-  </si>
-  <si>
-    <t>如何看待中巴水电站项目遭爆炸袭击</t>
-  </si>
-  <si>
-    <t>如何才能防止儿童被拐卖</t>
-  </si>
-  <si>
-    <t>开心消消乐文案是德云社写的吗</t>
-  </si>
-  <si>
-    <t>读书是不是改变命运的唯一机会</t>
-  </si>
-  <si>
-    <t>如何看待美国自称全球抗疫第一</t>
-  </si>
-  <si>
-    <t>京东全员涨至16薪会带来什么影响</t>
-  </si>
-  <si>
-    <t>人为什么一定要善良</t>
-  </si>
-  <si>
-    <t>姐弟恋真的能长久吗</t>
-  </si>
-  <si>
-    <t>即将租房开始独居需要准备什么</t>
-  </si>
-  <si>
-    <t>沈阳超市员工持刀伤人致2死7伤有哪些信息值得关注</t>
-  </si>
-  <si>
-    <t>得知电影失孤原型的孩子找到了的感想</t>
-  </si>
-  <si>
-    <t>如果雷神去供电局上班能开多少工资</t>
-  </si>
-  <si>
-    <t>家长持证上岗为何引发争议</t>
-  </si>
-  <si>
-    <t>你会支持超前点播吗</t>
+    <t>怎么看通过代购买茶颜悦色</t>
+  </si>
+  <si>
+    <t>隔代亲能有多亲</t>
+  </si>
+  <si>
+    <t>甄嬛传里谁爱皇上更多一点</t>
+  </si>
+  <si>
+    <t>金庸的天龙八部是个悲剧吗</t>
+  </si>
+  <si>
+    <t>雷雨天这些行为很危险</t>
+  </si>
+  <si>
+    <t>摸鱼到极致是一种什么体验</t>
+  </si>
+  <si>
+    <t>坏死性筋膜炎有多严重</t>
+  </si>
+  <si>
+    <t>以租代买的共享衣橱为什么倒下了</t>
+  </si>
+  <si>
+    <t>武林外传里的bug有哪些</t>
   </si>
   <si>
     <t>中国科幻到底能有多浪漫</t>
   </si>
   <si>
-    <t>婚房被9个陌生人偷住4个月你怎么看</t>
-  </si>
-  <si>
-    <t>摸鱼到极致是一种什么体验</t>
-  </si>
-  <si>
-    <t>废名的花红山要怎么读</t>
-  </si>
-  <si>
-    <t>研究称每天喝两杯酒也有患癌风险可信吗</t>
-  </si>
-  <si>
-    <t>怎么看鞠婧祎起诉花椰菜大王二审败诉</t>
-  </si>
-  <si>
-    <t>如何看待大妈高铁吸烟触发警报下跪求饶</t>
-  </si>
-  <si>
-    <t>记者去东京奥运会带了哪些装备</t>
-  </si>
-  <si>
-    <t>小樱到底有没有喜欢过鸣人</t>
-  </si>
-  <si>
-    <t>多少积蓄才能撑起一个快乐暑假</t>
-  </si>
-  <si>
-    <t>上海车库发生天价车祸要损失多少钱</t>
-  </si>
-  <si>
-    <t>内向的人生气时在干什么</t>
-  </si>
-  <si>
-    <t>雷雨天这些行为很危险</t>
-  </si>
-  <si>
-    <t>吸脂手术到底存在哪些危险</t>
-  </si>
-  <si>
-    <t>临时抱佛脚到底有没有用</t>
+    <t>职粉代拍等是用爱发电还是将爱变现</t>
   </si>
   <si>
     <t>女子酒后死亡劝酒者也要承担责任吗</t>
   </si>
   <si>
-    <t>如何评价洛基大结局</t>
-  </si>
-  <si>
-    <t>二创内容属于侵权吗</t>
-  </si>
-  <si>
-    <t>粉红女郎的爱情观适合现在吗</t>
-  </si>
-  <si>
-    <t>青少年模式能保护好未成年吗</t>
-  </si>
-  <si>
-    <t>如何吐槽一部电影很烂</t>
-  </si>
-  <si>
-    <t>共同富裕示范区什么样</t>
-  </si>
-  <si>
-    <t>坏死性筋膜炎有多严重</t>
-  </si>
-  <si>
-    <t>西游记中被遗落的爱情</t>
-  </si>
-  <si>
-    <t>方媛带孩子坐经济舱是勤俭持家还是天王太抠</t>
-  </si>
-  <si>
-    <t>如何通过奥运选拔</t>
-  </si>
-  <si>
-    <t>直播带货是电商标配吗</t>
-  </si>
-  <si>
-    <t>B站服务器机房故障带来什么影响</t>
-  </si>
-  <si>
-    <t>雪花500元一瓶的啤酒值得买吗</t>
-  </si>
-  <si>
-    <t>快递是否有送货上门义务</t>
-  </si>
-  <si>
-    <t>武林外传里的台词有多浪漫</t>
-  </si>
-  <si>
-    <t>实习医生女友装护士拔病人尿管要负哪些责任</t>
-  </si>
-  <si>
-    <t>医美整形水有多深</t>
-  </si>
-  <si>
-    <t>如何评价王者荣耀体验服大乔削弱</t>
-  </si>
-  <si>
-    <t>带娃上班的宝妈有多难</t>
-  </si>
-  <si>
-    <t>金庸的天龙八部是个悲剧吗</t>
-  </si>
-  <si>
-    <t>抽脂为什么有这么大风险</t>
-  </si>
-  <si>
     <t>TOP1</t>
   </si>
   <si>
@@ -670,823 +670,823 @@
     <t>105</t>
   </si>
   <si>
+    <t>所以一个成熟的律师会如何拯救塌房男明星？从法律和公关的角度其实涉...</t>
+  </si>
+  <si>
+    <t>近日，重庆有网友呼吁，能否单独划分出女性专用车厢。7月18日，@重庆...</t>
+  </si>
+  <si>
+    <t>恒大集团今日在官网发布声明称，公司江苏省公司旗下项目公司宜兴市恒...</t>
+  </si>
+  <si>
+    <t>《未成年人学校保护规定》9月1日起实施，这是教育部第一次就未成年人...</t>
+  </si>
+  <si>
+    <t>为什么DC中的小丑坏事做尽，让人知道了恶的极限，但是人们却对他最感...</t>
+  </si>
+  <si>
+    <t>家人们谁懂？夏天电费账单真的很吓人！！空调怎么那么耗电啊，快来学...</t>
+  </si>
+  <si>
+    <t>近日，网红小冉5月2日进行吸脂填充手术，5月4日术后因皮肤溃烂、器官...</t>
+  </si>
+  <si>
+    <t>2020年11月2日，重庆一小区内，一对不到三岁的姐弟从15楼坠落身亡。经...</t>
+  </si>
+  <si>
+    <t>从小被富养长大是种什么体验呢，快来聊聊你的经历吧~</t>
+  </si>
+  <si>
+    <t>针对目前市场上电动牙刷带来的一些消费现象，中国消费者协会开展了此...</t>
+  </si>
+  <si>
+    <t>原生家庭很糟糕是种什么体验呢，大家快来聊聊你的经历吧</t>
+  </si>
+  <si>
+    <t>电视剧《对你的爱很美》中，王大山为爱选择不要孩子，有人却觉得有了...</t>
+  </si>
+  <si>
+    <t>电影《大学》里记录的青年学者蔡峥有一个理想，要制造出世界领先的光...</t>
+  </si>
+  <si>
+    <t>报告显示，在职业选择上，父母对95后的择业观影响高于80后70后，影响...</t>
+  </si>
+  <si>
+    <t>在这个快速发展的时代真的很茫然，不知道自己到底要干什么想干什么能...</t>
+  </si>
+  <si>
+    <t>近日，上海一名95后小伙带奶奶在淘宝造物节现场咨询克隆宠物服务。</t>
+  </si>
+  <si>
+    <t>无锡市中级人民法院裁定书显示，广发银行近日请求冻结被申请人宜兴市...</t>
+  </si>
+  <si>
+    <t>国家卫健委、教育部、市场监管总局、体育总局近日联合发布《营养与健...</t>
+  </si>
+  <si>
+    <t>《这！就是潮流》节目中二次元选手吹吹为了表达自己的理念，把自己的...</t>
+  </si>
+  <si>
+    <t>离职后该不该挖上家公司的人？需要为上家考虑吗？还是人往高处走，哪...</t>
+  </si>
+  <si>
+    <t>洞房花烛夜，金榜题名时，说一说你的人生都有哪些高光时刻？</t>
+  </si>
+  <si>
+    <t>在暴雨天，电动汽车是否安全？会不会漏电？能不能涉水？进水了应该怎...</t>
+  </si>
+  <si>
+    <t>@GAI周延 在看到新血乐队@羽果YUGO 可以将音乐和工作两不耽误的时候感...</t>
+  </si>
+  <si>
+    <t>准高三是人生学习生涯的关键转折点，大家觉得高三逼自己一把有必要交...</t>
+  </si>
+  <si>
+    <t>在《不要小看我》中，4岁女孩因思念离世的妈妈伤心痛哭，爸爸不知该如...</t>
+  </si>
+  <si>
+    <t>广东茂名，女子黄某某两年前因车祸入院治疗，获女护士悉心照顾，出院...</t>
+  </si>
+  <si>
+    <t>随着智能终端适老化改造的深入进行，互联网的门槛在老人面前变低了。...</t>
+  </si>
+  <si>
+    <t>国际奥委会19日在主新闻中心举行发布会，回应7月至今奥运相关人员共58...</t>
+  </si>
+  <si>
+    <t>专家组认为，桅杆风致涡激共振和大厦及桅杆动力特性改变的耦合，造成...</t>
+  </si>
+  <si>
+    <t>如果你在银行有一个亿的存款，你最想做的事情是什么？</t>
+  </si>
+  <si>
+    <t>中国古代&amp;quot;士农工商&amp;quot;，商排靠后，在古代为何商人的地位不高...</t>
+  </si>
+  <si>
+    <t>近日，不少消费者发现，自己的快递不是被直接放在门口，就是未经同意...</t>
+  </si>
+  <si>
+    <t>生活中你经历过假性亲密关系吗？假性亲密关系给你最大的感受是什么？</t>
+  </si>
+  <si>
     <t>你觉得两个人在一起的真正意义是什么？带话题讨论一下，说说你的感受～</t>
   </si>
   <si>
+    <t>原来印度食物大多是糊糊，有其一定的道理。那么你对印度的食物最喜欢...</t>
+  </si>
+  <si>
+    <t>在《扑通扑通的心》中，嘉宾们聊到你能接受恋爱中男生撒娇吗这个话...</t>
+  </si>
+  <si>
     <t>手机充满后会自动断电的，所以充一夜不会对电池造成实质性损坏的~但如...</t>
   </si>
   <si>
-    <t>2020年11月2日，重庆一小区内，一对不到三岁的姐弟从15楼坠落身亡。经...</t>
-  </si>
-  <si>
-    <t>离职后该不该挖上家公司的人？需要为上家考虑吗？还是人往高处走，哪...</t>
+    <t>辞职后的空窗期里应该做什么来丰富自己？怎么去开始下一份工作？一起...</t>
+  </si>
+  <si>
+    <t>选择了裸辞但是一时间找不到工作怎么办？不要放弃战斗，瞬息万变的每...</t>
   </si>
   <si>
     <t>近日，网友发文称自己委托某宠物托运机构托运自己快2岁的 金毛Siri，...</t>
   </si>
   <si>
-    <t>电影《大学》里记录的青年学者蔡峥有一个理想，要制造出世界领先的光...</t>
-  </si>
-  <si>
-    <t>近日，网红小冉5月2日进行吸脂填充手术，5月4日术后因皮肤溃烂、器官...</t>
+    <t>刘浩存父母的舞蹈机构教学不当导致小女孩残疾，她需要为父母的错误承...</t>
+  </si>
+  <si>
+    <t>金毛siri在托运途中死亡，不久以前宠物盲盒事件也因为宠物在托运箱中...</t>
+  </si>
+  <si>
+    <t>假如同事总是以领导的口吻命令你做事，你会怎么办呢？</t>
+  </si>
+  <si>
+    <t>每一个专业人士朋友的举手之劳背后，都花费大量的时间精力……你觉得该...</t>
+  </si>
+  <si>
+    <t>池晟、朴珍荣、金敏贞等主演韩剧《恶魔法官》目前评分8.4，前大法官担...</t>
+  </si>
+  <si>
+    <t>Canalys发布的最新数据显示，2021年第二季度全球智能手机市占率排名，...</t>
+  </si>
+  <si>
+    <t>生孩子可不是想生就生！准妈妈生产前需要知道哪些事，才能让自己做足...</t>
+  </si>
+  <si>
+    <t>每次买完东西手机就会推送购买物品的相关信息？？觉得手机被大数据监...</t>
+  </si>
+  <si>
+    <t>孩子的暑假来了，可身为打工人的父母又要上班，如何照看孩子成为了一...</t>
+  </si>
+  <si>
+    <t>近年来，随着越来越多小区实施封闭式管理，不少外卖、快递小哥被拦在...</t>
+  </si>
+  <si>
+    <t>在各种奶茶品牌爆发的情况下，沉迷喝奶茶后有哪些明显的变化？</t>
+  </si>
+  <si>
+    <t>旅行中百闻不如一见的瞬间可能是壮丽的风景，也可能是拐角的小猫咪，...</t>
+  </si>
+  <si>
+    <t>两家外卖平台销量第一的炸鸡店，华莱士、韩式炸鸡有多脏？ 生活中点外...</t>
+  </si>
+  <si>
+    <t>开心消消乐更新文案也太好笑了吧，小游真的怀疑是德云社外派到游戏方...</t>
+  </si>
+  <si>
+    <t>皇帝一个让人羡慕的角色，有没有一瞬间让你觉得皇帝活得也挺悲催？带...</t>
+  </si>
+  <si>
+    <t>废名的《花红山》究竟写了什么？花红山这个题目的意思是什么？废名是...</t>
+  </si>
+  <si>
+    <t>破损风化的古物在千万次涂抹中显露真容，洒落万千的碎片在魔法双手中...</t>
+  </si>
+  <si>
+    <t>“如果你表达的目的，都是在凸显自己的与众不同、居高临下、好为人师，...</t>
+  </si>
+  <si>
+    <t>没养猫前不知道，原来猫咪也会拆家！你家猫主子是这样的吗，一起来分...</t>
+  </si>
+  <si>
+    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
+  </si>
+  <si>
+    <t>不结婚只恋爱，有人享受距离带来的无拘无束；想要切实陪伴并一起组成...</t>
+  </si>
+  <si>
+    <t>朱婷和赵帅成为东京奥运会中国队开幕式旗手，对此您如何评价？</t>
+  </si>
+  <si>
+    <t>很多年轻人都习惯熬夜，既使知道熬夜有很多危害，那么如何将熬夜的伤...</t>
   </si>
   <si>
     <t>网友“发发爱我2021”以华晨宇 “女友”名义发布有关于华晨宇整容和治疗皮...</t>
   </si>
   <si>
+    <t>虽然今天末节保罗连续贡献了关键球与防守，但他前三节的表现依旧是不...</t>
+  </si>
+  <si>
+    <t>你喜欢稳定的生活吗？一起来说说看为什么大多数人都喜欢稳定吧</t>
+  </si>
+  <si>
+    <t>前一段时间，河南南阳网红余岛岛在网络上向大家求助，说他的婚房被一...</t>
+  </si>
+  <si>
     <t>7月16日上午，南昌杀妻抛尸案被告被判死刑。死者母亲称女儿还未下葬，...</t>
   </si>
   <si>
+    <t>《失孤》迎来了“圆满”结局，可为什么人贩子不能判处死刑？我们普通人...</t>
+  </si>
+  <si>
+    <t>全国碳排放权交易于7月16日启动，首批纳入2225家发电行业重点排放单位。</t>
+  </si>
+  <si>
+    <t>网友投稿: 考试之前临时抱佛脚，竟然通过了考试，大家有没有过类似的...</t>
+  </si>
+  <si>
     <t>FPX 经理ChunLi发文：FPX俱乐部决定保留Bo在FPX登场的可能性，对此你...</t>
   </si>
   <si>
-    <t>在这个快速发展的时代真的很茫然，不知道自己到底要干什么想干什么能...</t>
-  </si>
-  <si>
-    <t>7月13日，公安部召开“我为群众办实事”系列新闻发布会，郭刚堂儿子被拐...</t>
-  </si>
-  <si>
-    <t>金毛siri在托运途中死亡，不久以前宠物盲盒事件也因为宠物在托运箱中...</t>
-  </si>
-  <si>
-    <t>刘浩存父母的舞蹈机构教学不当导致小女孩残疾，她需要为父母的错误承...</t>
-  </si>
-  <si>
-    <t>孩子的暑假来了，可身为打工人的父母又要上班，如何照看孩子成为了一...</t>
-  </si>
-  <si>
-    <t>聊聊林生斌这个话题上的阴谋论，是怎么偏到天边去的。这里面反映了什...</t>
-  </si>
-  <si>
-    <t>旅行中百闻不如一见的瞬间可能是壮丽的风景，也可能是拐角的小猫咪，...</t>
-  </si>
-  <si>
-    <t>很多年轻人都习惯熬夜，既使知道熬夜有很多危害，那么如何将熬夜的伤...</t>
-  </si>
-  <si>
-    <t>日前，江西崇仁县、江西定南县、江西安远县、浙江丽水、宁波宁海等相...</t>
-  </si>
-  <si>
-    <t>近年来，随着越来越多小区实施封闭式管理，不少外卖、快递小哥被拦在...</t>
+    <t>不能总是招录方出了错，却由考生承担最大的风险和损失。</t>
+  </si>
+  <si>
+    <t>曾经我也相信科学，直到我遇到了管泽元，大家伙 印象中最深刻的管泽...</t>
+  </si>
+  <si>
+    <t>杭州一名女性在抽脂术后2个月死亡。我们要问一下，抽脂真的是‘轻松’？...</t>
+  </si>
+  <si>
+    <t>吵架是外向的人生气时会做的事，那么内向的人生气时会怎样呢？</t>
+  </si>
+  <si>
+    <t>花泽香菜本身的业务能力毋容置疑，从SSR面灵气到SP面灵气，可攻可柔无...</t>
+  </si>
+  <si>
+    <t>很多人独居都不知道怎么装饰自己的小窝，收下这份安利，把自己的小空...</t>
   </si>
   <si>
     <t>据报道，中国初创公司小红书将暂停在美国上市。今年4月，路透社旗下IF...</t>
   </si>
   <si>
-    <t>卷烟厂“卷”到什么程度？人大、武大等985名校毕业生纷纷上流水线打包装...</t>
-  </si>
-  <si>
-    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
-  </si>
-  <si>
-    <t>生孩子可不是想生就生！准妈妈生产前需要知道哪些事，才能让自己做足...</t>
-  </si>
-  <si>
-    <t>不结婚只恋爱，有人享受距离带来的无拘无束；想要切实陪伴并一起组成...</t>
-  </si>
-  <si>
-    <t>每一个专业人士朋友的举手之劳背后，都花费大量的时间精力……你觉得该...</t>
-  </si>
-  <si>
-    <t>全国碳排放权交易于7月16日启动，首批纳入2225家发电行业重点排放单位。</t>
+    <t>据悉，小冉5月2日在杭州华颜医疗美容医院进行吸脂填充手术，5月4日术...</t>
+  </si>
+  <si>
+    <t>送养成系去参加选秀，算不算失败？原际画联合创始人彭诗童透露，早在2...</t>
+  </si>
+  <si>
+    <t>近一年多来，全国已有50多家短视频和直播平台试点推出了青少年模式，...</t>
+  </si>
+  <si>
+    <t>如果用雷神的超能力让他去发电的话，你觉得电网会给他开多少工资？</t>
+  </si>
+  <si>
+    <t>小时候看武林外传不觉得，长大重温才发现原来里面的台词和告白都这么...</t>
+  </si>
+  <si>
+    <t>阿里巴巴的初步举措可能包括将腾讯控股的微信支付引入淘宝和天猫；双...</t>
+  </si>
+  <si>
+    <t>有了老婆孩子的于晓光还让其他女性坐在自己的大腿上，这不光是对不起...</t>
+  </si>
+  <si>
+    <t>秋瓷炫和于晓光一个在韩国一个在中国，大S和汪小菲一个在台北一个在北...</t>
+  </si>
+  <si>
+    <t>代购表示：他每天能接到几百杯的订单，代购费600起，凡是长沙高铁站能...</t>
+  </si>
+  <si>
+    <t>比特币作为一种是完全脱离政府监管的虚拟货币，在很多时候它就会成为...</t>
+  </si>
+  <si>
+    <t>近几天，高温下电力系统超荷负载。停电，成为西安朋友圈最“热”的新闻。</t>
   </si>
   <si>
     <t>嘿嘿姐妹们，你们在上大学的时候，班级活动有每一个都参与了吗？你们...</t>
   </si>
   <si>
-    <t>有了老婆孩子的于晓光还让其他女性坐在自己的大腿上，这不光是对不起...</t>
-  </si>
-  <si>
-    <t>选择了裸辞但是一时间找不到工作怎么办？不要放弃战斗，瞬息万变的每...</t>
-  </si>
-  <si>
-    <t>笔记本电脑每天都关机的话真的好麻烦！！其实平时选择睡眠或休眠模式...</t>
-  </si>
-  <si>
-    <t>《失孤》迎来了“圆满”结局，可为什么人贩子不能判处死刑？我们普通人...</t>
-  </si>
-  <si>
-    <t>Canalys发布的最新数据显示，2021年第二季度全球智能手机市占率排名，...</t>
-  </si>
-  <si>
-    <t>放暑假了，到底要不要给孩子报补习班？快乐的暑假到底是怎么样的呢？</t>
-  </si>
-  <si>
-    <t>随着北京环球影城开业时间的临近，越来越多公司已经开始押注环球影城...</t>
-  </si>
-  <si>
-    <t>代购表示：他每天能接到几百杯的订单，代购费600起，凡是长沙高铁站能...</t>
-  </si>
-  <si>
-    <t>近日，女儿吐槽妈妈花800买歌手代言咖啡机引发热议。该网友吐槽自己妈...</t>
-  </si>
-  <si>
-    <t>如果你在银行有一个亿的存款，你最想做的事情是什么？</t>
-  </si>
-  <si>
-    <t>等了24年《失孤》剧终，郭刚堂找到儿子一家团圆，还为儿子养父母准备...</t>
-  </si>
-  <si>
-    <t>你觉得频繁聊天会出现恋爱错觉吗？快带话题发微博一起聊聊吧。</t>
-  </si>
-  <si>
-    <t>近日，《心动的offer》梅桢出现在华东政法大学的拟聘名单上，遭到网友...</t>
-  </si>
-  <si>
-    <t>瘦了30斤后会有什么变化？带上话题词一起来说说你的瘦身经历吧～</t>
-  </si>
-  <si>
-    <t>皇帝一个让人羡慕的角色，有没有一瞬间让你觉得皇帝活得也挺悲催？带...</t>
-  </si>
-  <si>
-    <t>据媒体报道，7月14日，复星医药在股东大会上回复投资人问询时表示，国...</t>
-  </si>
-  <si>
-    <t>7月12日下午，江苏省苏州市吴江区松陵镇油车路188号四季开源酒店发生...</t>
-  </si>
-  <si>
-    <t>《谎言真探》中，连环杀人案的主谋童年曾受到来自父亲的家暴虐待。从...</t>
-  </si>
-  <si>
-    <t>秋瓷炫和于晓光一个在韩国一个在中国，大S和汪小菲一个在台北一个在北...</t>
-  </si>
-  <si>
-    <t>近几天，高温下电力系统超荷负载。停电，成为西安朋友圈最“热”的新闻。</t>
-  </si>
-  <si>
-    <t>没养猫前不知道，原来猫咪也会拆家！你家猫主子是这样的吗，一起来分...</t>
-  </si>
-  <si>
-    <t>用药、暖敷、多喝热水...缓解痛经你都试过哪些方法？一起来聊聊吧！</t>
-  </si>
-  <si>
-    <t>花泽香菜本身的业务能力毋容置疑，从SSR面灵气到SP面灵气，可攻可柔无...</t>
-  </si>
-  <si>
-    <t>杭州一名女性在抽脂术后2个月死亡。我们要问一下，抽脂真的是‘轻松’？...</t>
-  </si>
-  <si>
-    <t>阿里巴巴的初步举措可能包括将腾讯控股的微信支付引入淘宝和天猫；双...</t>
-  </si>
-  <si>
-    <t>你喜欢稳定的生活吗？一起来说说看为什么大多数人都喜欢稳定吧</t>
-  </si>
-  <si>
-    <t>7月14日上午当地时间7时左右，中方企业承建的巴基斯坦开普省达苏水电...</t>
-  </si>
-  <si>
-    <t>7月12日，电影《失孤》原型人物郭刚堂找到被拐多年儿子一事引发广泛关...</t>
-  </si>
-  <si>
-    <t>开心消消乐更新文案也太好笑了吧，小游真的怀疑是德云社外派到游戏方...</t>
-  </si>
-  <si>
-    <t>张桂梅老师用十几年的时间，几乎是用生命在证明，女孩读书可以改变三...</t>
-  </si>
-  <si>
-    <t>近日，彭博社发布了一项着眼于世界主要国家如何应对大流行的排名公布...</t>
-  </si>
-  <si>
-    <t>7月13日，京东集团宣布自2021年7月1日开始到2023年7月1日，用两年时间...</t>
-  </si>
-  <si>
-    <t>人为什么一定要善良，大概是这样的偶尔的善良是唯一让我自己能看得起...</t>
-  </si>
-  <si>
-    <t>今日，有媒体拍到于晓光与美女亲密搂抱！于晓光和妻子秋瓷炫俩人是姐...</t>
-  </si>
-  <si>
-    <t>很多人独居都不知道怎么装饰自己的小窝，收下这份安利，把自己的小空...</t>
-  </si>
-  <si>
-    <t>7月14日，沈阳市某超市发生一起刑事案件，该超市肉食柜台员工田某某持...</t>
-  </si>
-  <si>
-    <t>7月11日，从电影《失孤》原型郭刚堂处证实，他已获知儿子郭振的下落。...</t>
-  </si>
-  <si>
-    <t>如果用雷神的超能力让他去发电的话，你觉得电网会给他开多少工资？</t>
-  </si>
-  <si>
-    <t>杭州市上城区对“父母持证上岗”进行了有效探索，计划2021年秋季学期开...</t>
-  </si>
-  <si>
-    <t>7月已开播的新剧《你好，火焰蓝》《贺先生的恋恋不忘》已开启超前点播...</t>
+    <t>有媒体报道称茶颜悦色代购卖的隔夜奶茶被炒到40元一杯，且11天涨价3次...</t>
+  </si>
+  <si>
+    <t>有一种爱叫“隔代亲”，你陪我长大，我陪你变老！你体会过这种“隔代亲&amp;q...</t>
+  </si>
+  <si>
+    <t>带话题发微博，说一下甄嬛传剧里面到底是谁更爱四郎多一点</t>
+  </si>
+  <si>
+    <t>《天龙八部》是在金庸中年丧子之后写的，这其中的打击可想而知，“只因...</t>
+  </si>
+  <si>
+    <t>7月13日，台湾苗栗一名男子在跑步时被雷劈中当场失去呼吸心跳，当时耳...</t>
+  </si>
+  <si>
+    <t>“摸鱼”这个话题不断被讨论，它既是“社畜”的神仙丸，又是职场的灰色地...</t>
+  </si>
+  <si>
+    <t>抽脂手术是项大手术，它最可怕的地方就是发生坏死性筋膜炎。这种病...</t>
+  </si>
+  <si>
+    <t>从初创时的风光无限到而今纷纷宣告倒闭，共享衣橱这一赛道究竟经历了...</t>
+  </si>
+  <si>
+    <t>你看过武林外传吗？你看武林外传的时候发现过哪些bug？</t>
   </si>
   <si>
     <t>“天和”入九天，“天舟”完成“妥投”，“祝融号”巡游火星，3名航天员入住太...</t>
   </si>
   <si>
-    <t>前一段时间，河南南阳网红余岛岛在网络上向大家求助，说他的婚房被一...</t>
-  </si>
-  <si>
-    <t>“摸鱼”这个话题不断被讨论，它既是“社畜”的神仙丸，又是职场的灰色地...</t>
-  </si>
-  <si>
-    <t>废名的《花红山》究竟写了什么？花红山这个题目的意思是什么？废名是...</t>
-  </si>
-  <si>
-    <t>根据国际标准，健康成年男性一天的酒精量不超过25克。专家指出，长期...</t>
-  </si>
-  <si>
-    <t>鞠婧祎之前起诉网红花椰菜大王侵犯名誉权后败诉，随后丝芭文化发布声...</t>
-  </si>
-  <si>
-    <t>7月11日，河北，一女子在高铁车厢内吸烟触发警报，该女子当场下跪知错...</t>
-  </si>
-  <si>
-    <t>7月15日，新华社东京奥运会报道团从北京出发，将经福州飞往日本开展东...</t>
-  </si>
-  <si>
-    <t>《火影忍者》也算是我们关于青春和暑假回忆的一部分了，你觉得漫画里...</t>
-  </si>
-  <si>
-    <t>你觉得，多少积蓄才能撑起一个快乐暑假？你觉得最快乐的暑假是什么样的？</t>
-  </si>
-  <si>
-    <t>近日，上海某高档小区地下车库内发生天价车祸。目击者称，一女车主驾...</t>
-  </si>
-  <si>
-    <t>吵架是外向的人生气时会做的事，那么内向的人生气时会怎样呢？</t>
-  </si>
-  <si>
-    <t>7月13日，台湾苗栗一名男子在跑步时被雷劈中当场失去呼吸心跳，当时耳...</t>
-  </si>
-  <si>
-    <t>据悉，小冉5月2日在杭州华颜医疗美容医院进行吸脂填充手术，5月4日术...</t>
-  </si>
-  <si>
-    <t>网友投稿: 考试之前临时抱佛脚，竟然通过了考试，大家有没有过类似的...</t>
+    <t>7月17日，北京警方通报，演员王某某的两名粉丝为达到“追星”目的，在其...</t>
   </si>
   <si>
     <t>小桃至烧烤店独自撸串喝酒。几位男士上前搭讪，并邀请小桃一起喝酒聊...</t>
   </si>
   <si>
-    <t>《洛基》第一季大结局今日上线，但是结局褒贬不一，你如何评价这个大...</t>
-  </si>
-  <si>
-    <t>2021中国互联网大会于7.13-7.15在北京国家会议中心举行。其议程知识产...</t>
-  </si>
-  <si>
-    <t>距离粉红女郎开播已经快20年了，现在回头看，剧里的爱情观，是否还适...</t>
-  </si>
-  <si>
-    <t>近一年多来，全国已有50多家短视频和直播平台试点推出了青少年模式，...</t>
-  </si>
-  <si>
-    <t>在电影市场鱼龙混杂的时代，烂片带给观影者的伤害巨大，你认为该如何...</t>
-  </si>
-  <si>
-    <t>先行先试、作出示范，浙江高质量发展建设共同富裕示范区，和@侠客岛 ...</t>
-  </si>
-  <si>
-    <t>抽脂手术是项大手术，它最可怕的地方就是发生坏死性筋膜炎。这种病...</t>
-  </si>
-  <si>
-    <t>西游记中被人遗落的爱情故事，你知道有哪些？一起来说说～</t>
-  </si>
-  <si>
-    <t>近日，方媛暑假从香港飞去上海探班郭富城，在飞机起飞前晒了一段Vlog...</t>
-  </si>
-  <si>
-    <t>备受瞩目的东京奥运会中国体育代表团正式成立啦，我国体育事业的不断...</t>
-  </si>
-  <si>
-    <t>疫情期间，直播带货迅速席卷各大电商平台，似乎成为了电商的一个标配...</t>
-  </si>
-  <si>
-    <t>7月13日晚，B站的部分服务器机房发生故障，造成无法访问。随后，A站、...</t>
-  </si>
-  <si>
-    <t>华润啤酒CEO侯孝海表示：“醴在啤酒行业没有对标的产品，但醴与茅台同...</t>
-  </si>
-  <si>
-    <t>当前，我国快递日均业务量约3亿件，日均服务用户约6亿人次。快递业红...</t>
-  </si>
-  <si>
-    <t>小时候看武林外传不觉得，长大重温才发现原来里面的台词和告白都这么...</t>
-  </si>
-  <si>
-    <t>近日，有网友报料称，北京大学人民医院一名实习医生带女朋友去值班室...</t>
-  </si>
-  <si>
-    <t>你怎么看待王者荣耀本次英雄调整导致大乔“削弱式增强”？</t>
-  </si>
-  <si>
-    <t>武汉远郊的一家服装厂专招全职宝妈，这些带着孩子来工厂的母亲，最终...</t>
-  </si>
-  <si>
-    <t>《天龙八部》是在金庸中年丧子之后写的，这其中的打击可想而知，“只因...</t>
-  </si>
-  <si>
-    <t>7月14日，有网友爆料称一女子吸脂手术后全身多器官衰竭，两个月多后抢...</t>
-  </si>
-  <si>
-    <t>2.3亿</t>
-  </si>
-  <si>
-    <t>5.1亿</t>
-  </si>
-  <si>
-    <t>1亿</t>
+    <t>7147.8万</t>
+  </si>
+  <si>
+    <t>8325.4万</t>
+  </si>
+  <si>
+    <t>286.3万</t>
+  </si>
+  <si>
+    <t>1.2亿</t>
+  </si>
+  <si>
+    <t>957.9万</t>
+  </si>
+  <si>
+    <t>4.6亿</t>
   </si>
   <si>
     <t>1.1亿</t>
   </si>
   <si>
+    <t>1.5亿</t>
+  </si>
+  <si>
+    <t>2.6亿</t>
+  </si>
+  <si>
+    <t>165.1万</t>
+  </si>
+  <si>
+    <t>1.4亿</t>
+  </si>
+  <si>
+    <t>1.8亿</t>
+  </si>
+  <si>
+    <t>1.6亿</t>
+  </si>
+  <si>
+    <t>194.3万</t>
+  </si>
+  <si>
+    <t>8735.5万</t>
+  </si>
+  <si>
+    <t>2571.9万</t>
+  </si>
+  <si>
+    <t>904.8万</t>
+  </si>
+  <si>
+    <t>169.9万</t>
+  </si>
+  <si>
+    <t>2351万</t>
+  </si>
+  <si>
     <t>1.3亿</t>
   </si>
   <si>
-    <t>9417.8万</t>
-  </si>
-  <si>
-    <t>6201.3万</t>
-  </si>
-  <si>
-    <t>370.1万</t>
-  </si>
-  <si>
-    <t>572.5万</t>
-  </si>
-  <si>
-    <t>826.7万</t>
-  </si>
-  <si>
-    <t>4633.4万</t>
-  </si>
-  <si>
-    <t>1.5亿</t>
-  </si>
-  <si>
-    <t>5307.3万</t>
-  </si>
-  <si>
-    <t>4.2亿</t>
-  </si>
-  <si>
-    <t>1640.6万</t>
-  </si>
-  <si>
-    <t>3.4亿</t>
-  </si>
-  <si>
-    <t>907.6万</t>
-  </si>
-  <si>
-    <t>133.4万</t>
-  </si>
-  <si>
-    <t>4238.5万</t>
-  </si>
-  <si>
-    <t>71.7万</t>
-  </si>
-  <si>
-    <t>5749.7万</t>
-  </si>
-  <si>
-    <t>663.5万</t>
-  </si>
-  <si>
-    <t>1.6亿</t>
-  </si>
-  <si>
-    <t>4300.6万</t>
-  </si>
-  <si>
-    <t>342.5万</t>
-  </si>
-  <si>
-    <t>646.9万</t>
-  </si>
-  <si>
-    <t>5492.5万</t>
-  </si>
-  <si>
-    <t>425万</t>
-  </si>
-  <si>
-    <t>2.8亿</t>
-  </si>
-  <si>
-    <t>1628.1万</t>
-  </si>
-  <si>
-    <t>53.9万</t>
-  </si>
-  <si>
-    <t>6615.4万</t>
-  </si>
-  <si>
-    <t>1308.7万</t>
-  </si>
-  <si>
-    <t>930.8万</t>
-  </si>
-  <si>
-    <t>3.5亿</t>
+    <t>412.9万</t>
+  </si>
+  <si>
+    <t>4312.7万</t>
+  </si>
+  <si>
+    <t>4218.7万</t>
+  </si>
+  <si>
+    <t>3458.3万</t>
+  </si>
+  <si>
+    <t>76.8万</t>
+  </si>
+  <si>
+    <t>180.7万</t>
+  </si>
+  <si>
+    <t>60.4万</t>
+  </si>
+  <si>
+    <t>30.8万</t>
+  </si>
+  <si>
+    <t>3.6亿</t>
+  </si>
+  <si>
+    <t>2777.5万</t>
+  </si>
+  <si>
+    <t>7996万</t>
+  </si>
+  <si>
+    <t>3.8亿</t>
+  </si>
+  <si>
+    <t>3.3亿</t>
+  </si>
+  <si>
+    <t>2.7亿</t>
   </si>
   <si>
     <t>6亿</t>
   </si>
   <si>
-    <t>6.3亿</t>
-  </si>
-  <si>
-    <t>917.8万</t>
-  </si>
-  <si>
-    <t>25.3万</t>
-  </si>
-  <si>
-    <t>1377.5万</t>
-  </si>
-  <si>
-    <t>7705万</t>
-  </si>
-  <si>
-    <t>740.8万</t>
-  </si>
-  <si>
-    <t>507万</t>
-  </si>
-  <si>
-    <t>2912.7万</t>
-  </si>
-  <si>
-    <t>992.2万</t>
-  </si>
-  <si>
-    <t>441.7万</t>
-  </si>
-  <si>
-    <t>1375.8万</t>
-  </si>
-  <si>
-    <t>279.8万</t>
-  </si>
-  <si>
-    <t>773万</t>
-  </si>
-  <si>
-    <t>336.8万</t>
-  </si>
-  <si>
-    <t>3373.7万</t>
-  </si>
-  <si>
-    <t>1194.4万</t>
-  </si>
-  <si>
-    <t>600.1万</t>
-  </si>
-  <si>
-    <t>1629.5万</t>
-  </si>
-  <si>
-    <t>5591万</t>
-  </si>
-  <si>
-    <t>7895.7万</t>
-  </si>
-  <si>
-    <t>762.4万</t>
-  </si>
-  <si>
-    <t>1423.8万</t>
-  </si>
-  <si>
-    <t>286.3万</t>
-  </si>
-  <si>
-    <t>5528万</t>
-  </si>
-  <si>
-    <t>2323.4万</t>
-  </si>
-  <si>
-    <t>170.4万</t>
-  </si>
-  <si>
-    <t>218.9万</t>
-  </si>
-  <si>
-    <t>542.3万</t>
-  </si>
-  <si>
-    <t>1031.3万</t>
-  </si>
-  <si>
-    <t>481.6万</t>
-  </si>
-  <si>
-    <t>120.6万</t>
-  </si>
-  <si>
-    <t>43万</t>
-  </si>
-  <si>
-    <t>115.5万</t>
-  </si>
-  <si>
-    <t>674万</t>
-  </si>
-  <si>
-    <t>305.2万</t>
-  </si>
-  <si>
-    <t>1.2亿</t>
-  </si>
-  <si>
-    <t>9541.1万</t>
-  </si>
-  <si>
-    <t>94万</t>
-  </si>
-  <si>
-    <t>9201.9万</t>
-  </si>
-  <si>
-    <t>466.2万</t>
-  </si>
-  <si>
-    <t>2220.6万</t>
-  </si>
-  <si>
-    <t>1091.8万</t>
-  </si>
-  <si>
-    <t>140.3万</t>
-  </si>
-  <si>
-    <t>171.1万</t>
-  </si>
-  <si>
-    <t>4814.3万</t>
-  </si>
-  <si>
-    <t>3532.4万</t>
-  </si>
-  <si>
-    <t>223万</t>
-  </si>
-  <si>
-    <t>460.4万</t>
-  </si>
-  <si>
-    <t>192万</t>
-  </si>
-  <si>
-    <t>673万</t>
-  </si>
-  <si>
-    <t>1066.2万</t>
-  </si>
-  <si>
-    <t>3021.3万</t>
-  </si>
-  <si>
-    <t>232.3万</t>
-  </si>
-  <si>
-    <t>389.4万</t>
-  </si>
-  <si>
-    <t>2820.1万</t>
-  </si>
-  <si>
-    <t>2662.6万</t>
-  </si>
-  <si>
-    <t>215.7万</t>
-  </si>
-  <si>
-    <t>933.4万</t>
-  </si>
-  <si>
-    <t>279.9万</t>
-  </si>
-  <si>
-    <t>510.7万</t>
-  </si>
-  <si>
-    <t>862万</t>
-  </si>
-  <si>
-    <t>393.4万</t>
-  </si>
-  <si>
-    <t>26.1万</t>
-  </si>
-  <si>
-    <t>332万</t>
+    <t>51.1万</t>
+  </si>
+  <si>
+    <t>778.5万</t>
+  </si>
+  <si>
+    <t>1.7亿</t>
+  </si>
+  <si>
+    <t>4.5亿</t>
+  </si>
+  <si>
+    <t>6639.1万</t>
+  </si>
+  <si>
+    <t>1187.9万</t>
+  </si>
+  <si>
+    <t>4951.9万</t>
+  </si>
+  <si>
+    <t>2602.5万</t>
+  </si>
+  <si>
+    <t>266万</t>
+  </si>
+  <si>
+    <t>980.9万</t>
+  </si>
+  <si>
+    <t>47.1万</t>
+  </si>
+  <si>
+    <t>2899.2万</t>
+  </si>
+  <si>
+    <t>4782.1万</t>
+  </si>
+  <si>
+    <t>1741.9万</t>
+  </si>
+  <si>
+    <t>1157.4万</t>
+  </si>
+  <si>
+    <t>1525.4万</t>
+  </si>
+  <si>
+    <t>1958.2万</t>
+  </si>
+  <si>
+    <t>224.1万</t>
+  </si>
+  <si>
+    <t>135.5万</t>
+  </si>
+  <si>
+    <t>944.7万</t>
+  </si>
+  <si>
+    <t>9190.3万</t>
+  </si>
+  <si>
+    <t>3281.7万</t>
+  </si>
+  <si>
+    <t>1.9亿</t>
+  </si>
+  <si>
+    <t>1569.2万</t>
+  </si>
+  <si>
+    <t>352.9万</t>
+  </si>
+  <si>
+    <t>747.8万</t>
+  </si>
+  <si>
+    <t>1093.1万</t>
+  </si>
+  <si>
+    <t>949.8万</t>
+  </si>
+  <si>
+    <t>1040万</t>
+  </si>
+  <si>
+    <t>921.2万</t>
+  </si>
+  <si>
+    <t>2172.2万</t>
+  </si>
+  <si>
+    <t>152.6万</t>
+  </si>
+  <si>
+    <t>568.8万</t>
+  </si>
+  <si>
+    <t>5906.6万</t>
+  </si>
+  <si>
+    <t>22.9万</t>
+  </si>
+  <si>
+    <t>250.6万</t>
+  </si>
+  <si>
+    <t>1501.7万</t>
+  </si>
+  <si>
+    <t>9476.3万</t>
+  </si>
+  <si>
+    <t>485.2万</t>
+  </si>
+  <si>
+    <t>1923万</t>
+  </si>
+  <si>
+    <t>246.4万</t>
+  </si>
+  <si>
+    <t>2363.5万</t>
+  </si>
+  <si>
+    <t>2183.3万</t>
+  </si>
+  <si>
+    <t>281.2万</t>
+  </si>
+  <si>
+    <t>8239.1万</t>
+  </si>
+  <si>
+    <t>1056.2万</t>
+  </si>
+  <si>
+    <t>355.1万</t>
+  </si>
+  <si>
+    <t>5686.8万</t>
+  </si>
+  <si>
+    <t>850.3万</t>
+  </si>
+  <si>
+    <t>1407.6万</t>
+  </si>
+  <si>
+    <t>80.2万</t>
+  </si>
+  <si>
+    <t>548.4万</t>
+  </si>
+  <si>
+    <t>700.1万</t>
+  </si>
+  <si>
+    <t>248.3万</t>
+  </si>
+  <si>
+    <t>89.6万</t>
+  </si>
+  <si>
+    <t>117.2万</t>
+  </si>
+  <si>
+    <t>38.3万</t>
+  </si>
+  <si>
+    <t>490.6万</t>
+  </si>
+  <si>
+    <t>503.2万</t>
+  </si>
+  <si>
+    <t>684.4万</t>
+  </si>
+  <si>
+    <t>260.9万</t>
+  </si>
+  <si>
+    <t>581.7万</t>
+  </si>
+  <si>
+    <t>206万</t>
+  </si>
+  <si>
+    <t>196.6万</t>
+  </si>
+  <si>
+    <t>法山叔</t>
+  </si>
+  <si>
+    <t>凤凰网</t>
+  </si>
+  <si>
+    <t>新浪银行</t>
+  </si>
+  <si>
+    <t>头条校园</t>
+  </si>
+  <si>
+    <t>少女追剧团</t>
+  </si>
+  <si>
+    <t>长见识bot</t>
+  </si>
+  <si>
+    <t>科技猩球</t>
+  </si>
+  <si>
+    <t>笙南学长</t>
+  </si>
+  <si>
+    <t>新浪科技</t>
+  </si>
+  <si>
+    <t>旧巷情话</t>
+  </si>
+  <si>
+    <t>热剧班主任</t>
+  </si>
+  <si>
+    <t>光明日报</t>
+  </si>
+  <si>
+    <t>新浪财经</t>
+  </si>
+  <si>
+    <t>朋友圈那点事</t>
+  </si>
+  <si>
+    <t>财经网</t>
+  </si>
+  <si>
+    <t>头条新闻</t>
+  </si>
+  <si>
+    <t>这个太牛了</t>
+  </si>
+  <si>
+    <t>微博科技</t>
+  </si>
+  <si>
+    <t>吐槽恋爱的那些事</t>
+  </si>
+  <si>
+    <t>新浪视频</t>
+  </si>
+  <si>
+    <t>问号哥哥</t>
+  </si>
+  <si>
+    <t>沙雕</t>
+  </si>
+  <si>
+    <t>新华网</t>
   </si>
   <si>
     <t>两碗哥哥</t>
   </si>
   <si>
+    <t>吃个明白</t>
+  </si>
+  <si>
+    <t>芒果TV扑通扑通的心</t>
+  </si>
+  <si>
     <t>原来如此bot</t>
   </si>
   <si>
-    <t>凤凰网</t>
-  </si>
-  <si>
-    <t>朋友圈那点事</t>
-  </si>
-  <si>
-    <t>头条新闻</t>
-  </si>
-  <si>
-    <t>光明日报</t>
-  </si>
-  <si>
-    <t>科技猩球</t>
+    <t>小沈的信箱</t>
+  </si>
+  <si>
+    <t>十八线幻想家</t>
+  </si>
+  <si>
+    <t>追剧综的李二狗</t>
+  </si>
+  <si>
+    <t>微博法律</t>
+  </si>
+  <si>
+    <t>加油打工人</t>
+  </si>
+  <si>
+    <t>回忆专用小马甲</t>
+  </si>
+  <si>
+    <t>娱理</t>
+  </si>
+  <si>
+    <t>新浪5G</t>
+  </si>
+  <si>
+    <t>堂堂小方总</t>
+  </si>
+  <si>
+    <t>芝士热亿点</t>
+  </si>
+  <si>
+    <t>央视网</t>
+  </si>
+  <si>
+    <t>阿蒙Amon</t>
+  </si>
+  <si>
+    <t>人间投影仪</t>
+  </si>
+  <si>
+    <t>微博游戏</t>
+  </si>
+  <si>
+    <t>我的闺蜜是沙雕</t>
+  </si>
+  <si>
+    <t>观视频工作室</t>
+  </si>
+  <si>
+    <t>人生剧场</t>
+  </si>
+  <si>
+    <t>西部雄仔</t>
+  </si>
+  <si>
+    <t>新浪体育</t>
+  </si>
+  <si>
+    <t>微博健康</t>
   </si>
   <si>
     <t>我爱围观</t>
   </si>
   <si>
+    <t>新浪NBA</t>
+  </si>
+  <si>
+    <t>网络发言大赏</t>
+  </si>
+  <si>
+    <t>徐叫兽</t>
+  </si>
+  <si>
+    <t>观察者网</t>
+  </si>
+  <si>
     <t>电竞游戏BB姬</t>
   </si>
   <si>
-    <t>微博法律</t>
-  </si>
-  <si>
-    <t>追剧综的李二狗</t>
-  </si>
-  <si>
-    <t>芝士热亿点</t>
-  </si>
-  <si>
-    <t>破破的桥</t>
-  </si>
-  <si>
-    <t>人间投影仪</t>
-  </si>
-  <si>
-    <t>微博健康</t>
-  </si>
-  <si>
-    <t>每日经济新闻</t>
-  </si>
-  <si>
-    <t>央视网</t>
-  </si>
-  <si>
-    <t>新浪财经</t>
-  </si>
-  <si>
-    <t>西部雄仔</t>
-  </si>
-  <si>
-    <t>堂堂小方总</t>
-  </si>
-  <si>
-    <t>热剧班主任</t>
-  </si>
-  <si>
-    <t>回忆专用小马甲</t>
+    <t>微博电竞</t>
+  </si>
+  <si>
+    <t>现男友</t>
+  </si>
+  <si>
+    <t>痒痒鼠办事处</t>
+  </si>
+  <si>
+    <t>人间百宝箱</t>
+  </si>
+  <si>
+    <t>猛犸新闻</t>
+  </si>
+  <si>
+    <t>弄潮儿大总管</t>
+  </si>
+  <si>
+    <t>剪了个剧</t>
+  </si>
+  <si>
+    <t>叫我栗宝就好了</t>
+  </si>
+  <si>
+    <t>娱乐有饭</t>
   </si>
   <si>
     <t>我的损友滕依梵</t>
   </si>
   <si>
-    <t>叫我栗宝就好了</t>
-  </si>
-  <si>
-    <t>十八线幻想家</t>
-  </si>
-  <si>
-    <t>徐叫兽</t>
-  </si>
-  <si>
-    <t>新浪5G</t>
-  </si>
-  <si>
-    <t>哈尼Mamma</t>
-  </si>
-  <si>
-    <t>中国新闻周刊</t>
-  </si>
-  <si>
-    <t>问号哥哥</t>
-  </si>
-  <si>
-    <t>正观新闻</t>
-  </si>
-  <si>
-    <t>陈秋欤</t>
-  </si>
-  <si>
-    <t>陈甜竹</t>
-  </si>
-  <si>
-    <t>我的闺蜜是沙雕</t>
-  </si>
-  <si>
-    <t>新浪看点</t>
-  </si>
-  <si>
-    <t>娱乐有饭</t>
-  </si>
-  <si>
-    <t>痒痒鼠办事处</t>
-  </si>
-  <si>
-    <t>网络发言大赏</t>
-  </si>
-  <si>
-    <t>猛犸新闻</t>
-  </si>
-  <si>
-    <t>微博游戏</t>
-  </si>
-  <si>
-    <t>一缕思绪</t>
-  </si>
-  <si>
-    <t>微天下</t>
-  </si>
-  <si>
-    <t>阿侃</t>
-  </si>
-  <si>
-    <t>娱理</t>
-  </si>
-  <si>
-    <t>人间百宝箱</t>
-  </si>
-  <si>
-    <t>弄潮儿大总管</t>
-  </si>
-  <si>
-    <t>财经网</t>
+    <t>新京报</t>
+  </si>
+  <si>
+    <t>太皇太后您有喜啦</t>
+  </si>
+  <si>
+    <t>娱老爷</t>
+  </si>
+  <si>
+    <t>新闻晨报</t>
+  </si>
+  <si>
+    <t>三联生活周刊</t>
+  </si>
+  <si>
+    <t>封面新闻</t>
+  </si>
+  <si>
+    <t>大脑切片</t>
   </si>
   <si>
     <t>环球时报</t>
-  </si>
-  <si>
-    <t>三联生活周刊</t>
-  </si>
-  <si>
-    <t>观视频工作室</t>
-  </si>
-  <si>
-    <t>新浪视频</t>
-  </si>
-  <si>
-    <t>娱老爷</t>
-  </si>
-  <si>
-    <t>新华网</t>
-  </si>
-  <si>
-    <t>阿莫学长</t>
-  </si>
-  <si>
-    <t>年糕妈妈</t>
-  </si>
-  <si>
-    <t>现男友</t>
-  </si>
-  <si>
-    <t>新闻晨报</t>
-  </si>
-  <si>
-    <t>这个太牛了</t>
-  </si>
-  <si>
-    <t>微博海外剧</t>
-  </si>
-  <si>
-    <t>微博科技</t>
-  </si>
-  <si>
-    <t>思想聚焦</t>
-  </si>
-  <si>
-    <t>电影集结号</t>
-  </si>
-  <si>
-    <t>侠客岛</t>
-  </si>
-  <si>
-    <t>封面新闻</t>
-  </si>
-  <si>
-    <t>我的损友嘴狠贱</t>
-  </si>
-  <si>
-    <t>剪了个剧</t>
-  </si>
-  <si>
-    <t>新京报</t>
-  </si>
-  <si>
-    <t>王者荣耀课代表</t>
-  </si>
-  <si>
-    <t>网易浪潮工作室</t>
   </si>
 </sst>
 </file>
@@ -1887,19 +1887,19 @@
         <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F2">
-        <v>194</v>
+        <v>660</v>
       </c>
       <c r="G2">
-        <v>11548179</v>
+        <v>3741353</v>
       </c>
       <c r="H2">
-        <v>2644</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1913,19 +1913,19 @@
         <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>817</v>
       </c>
       <c r="G3">
-        <v>3657201</v>
+        <v>20570828</v>
       </c>
       <c r="H3">
-        <v>33006</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1939,19 +1939,19 @@
         <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F4">
-        <v>818</v>
+        <v>425</v>
       </c>
       <c r="G4">
-        <v>20571093</v>
+        <v>1586653</v>
       </c>
       <c r="H4">
-        <v>40289</v>
+        <v>30969</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1965,19 +1965,19 @@
         <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F5">
-        <v>543</v>
+        <v>5681</v>
       </c>
       <c r="G5">
-        <v>10165137</v>
+        <v>3157697</v>
       </c>
       <c r="H5">
-        <v>4541</v>
+        <v>49905</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1991,19 +1991,19 @@
         <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F6">
-        <v>1650</v>
+        <v>697</v>
       </c>
       <c r="G6">
-        <v>103570634</v>
+        <v>4034283</v>
       </c>
       <c r="H6">
-        <v>211978</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2017,19 +2017,19 @@
         <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F7">
-        <v>700</v>
+        <v>142</v>
       </c>
       <c r="G7">
-        <v>24007472</v>
+        <v>4486154</v>
       </c>
       <c r="H7">
-        <v>75502</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2043,19 +2043,19 @@
         <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F8">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G8">
-        <v>9032456</v>
+        <v>9049708</v>
       </c>
       <c r="H8">
-        <v>7515</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2069,19 +2069,19 @@
         <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F9">
-        <v>259</v>
+        <v>817</v>
       </c>
       <c r="G9">
-        <v>1963440</v>
+        <v>20570827</v>
       </c>
       <c r="H9">
-        <v>9586</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2095,19 +2095,19 @@
         <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F10">
-        <v>1650</v>
+        <v>110</v>
       </c>
       <c r="G10">
-        <v>103570634</v>
+        <v>10449742</v>
       </c>
       <c r="H10">
-        <v>211978</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2121,19 +2121,19 @@
         <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F11">
-        <v>105</v>
+        <v>2308</v>
       </c>
       <c r="G11">
-        <v>1265002</v>
+        <v>24495843</v>
       </c>
       <c r="H11">
-        <v>3386</v>
+        <v>153493</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2147,19 +2147,19 @@
         <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F12">
-        <v>543</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>10165148</v>
+        <v>11447607</v>
       </c>
       <c r="H12">
-        <v>4541</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2173,19 +2173,19 @@
         <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F13">
-        <v>1650</v>
+        <v>1399</v>
       </c>
       <c r="G13">
-        <v>103570633</v>
+        <v>3728975</v>
       </c>
       <c r="H13">
-        <v>211978</v>
+        <v>24887</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2199,19 +2199,19 @@
         <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
         <v>431</v>
       </c>
       <c r="F14">
-        <v>1352</v>
+        <v>700</v>
       </c>
       <c r="G14">
-        <v>2161688</v>
+        <v>24008530</v>
       </c>
       <c r="H14">
-        <v>19744</v>
+        <v>75555</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2225,19 +2225,19 @@
         <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" t="s">
         <v>432</v>
       </c>
       <c r="F15">
-        <v>3524</v>
+        <v>2694</v>
       </c>
       <c r="G15">
-        <v>3795966</v>
+        <v>23739852</v>
       </c>
       <c r="H15">
-        <v>6422</v>
+        <v>260358</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2251,19 +2251,19 @@
         <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E16" t="s">
         <v>433</v>
       </c>
       <c r="F16">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="G16">
-        <v>603249</v>
+        <v>10387777</v>
       </c>
       <c r="H16">
-        <v>8339</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2277,19 +2277,19 @@
         <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F17">
-        <v>2155</v>
+        <v>817</v>
       </c>
       <c r="G17">
-        <v>1265265</v>
+        <v>20570827</v>
       </c>
       <c r="H17">
-        <v>15100</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2303,19 +2303,19 @@
         <v>234</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F18">
-        <v>33</v>
+        <v>962</v>
       </c>
       <c r="G18">
-        <v>2450095</v>
+        <v>40041649</v>
       </c>
       <c r="H18">
-        <v>89</v>
+        <v>207287</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2329,19 +2329,19 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F19">
-        <v>1431</v>
+        <v>817</v>
       </c>
       <c r="G19">
-        <v>1493786</v>
+        <v>20570827</v>
       </c>
       <c r="H19">
-        <v>41150</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2355,19 +2355,19 @@
         <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F20">
-        <v>739</v>
+        <v>1653</v>
       </c>
       <c r="G20">
-        <v>47866913</v>
+        <v>103582146</v>
       </c>
       <c r="H20">
-        <v>263586</v>
+        <v>212165</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2384,16 +2384,16 @@
         <v>340</v>
       </c>
       <c r="E21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F21">
-        <v>261</v>
+        <v>538</v>
       </c>
       <c r="G21">
-        <v>15192573</v>
+        <v>10387777</v>
       </c>
       <c r="H21">
-        <v>120327</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2410,16 +2410,16 @@
         <v>341</v>
       </c>
       <c r="E22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F22">
-        <v>2694</v>
+        <v>392</v>
       </c>
       <c r="G22">
-        <v>23741048</v>
+        <v>9685439</v>
       </c>
       <c r="H22">
-        <v>259998</v>
+        <v>79693</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2436,16 +2436,16 @@
         <v>342</v>
       </c>
       <c r="E23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F23">
-        <v>2694</v>
+        <v>1158</v>
       </c>
       <c r="G23">
-        <v>23741048</v>
+        <v>2177746</v>
       </c>
       <c r="H23">
-        <v>259998</v>
+        <v>18275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2459,19 +2459,19 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="E24" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F24">
-        <v>292</v>
+        <v>1653</v>
       </c>
       <c r="G24">
-        <v>5256202</v>
+        <v>103582146</v>
       </c>
       <c r="H24">
-        <v>1786</v>
+        <v>212165</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2485,19 +2485,19 @@
         <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F25">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="G25">
-        <v>3932121</v>
+        <v>23430291</v>
       </c>
       <c r="H25">
-        <v>28201</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2511,19 +2511,19 @@
         <v>242</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F26">
-        <v>1398</v>
+        <v>1653</v>
       </c>
       <c r="G26">
-        <v>3730711</v>
+        <v>103582146</v>
       </c>
       <c r="H26">
-        <v>24838</v>
+        <v>212165</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2540,16 +2540,16 @@
         <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F27">
-        <v>791</v>
+        <v>1872</v>
       </c>
       <c r="G27">
-        <v>41483033</v>
+        <v>18374264</v>
       </c>
       <c r="H27">
-        <v>42055</v>
+        <v>115591</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2566,16 +2566,16 @@
         <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="F28">
-        <v>2694</v>
+        <v>817</v>
       </c>
       <c r="G28">
-        <v>23741048</v>
+        <v>20570827</v>
       </c>
       <c r="H28">
-        <v>259998</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2592,16 +2592,16 @@
         <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F29">
-        <v>44</v>
+        <v>817</v>
       </c>
       <c r="G29">
-        <v>10005464</v>
+        <v>20570827</v>
       </c>
       <c r="H29">
-        <v>2108</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2618,16 +2618,16 @@
         <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="F30">
-        <v>174</v>
+        <v>530</v>
       </c>
       <c r="G30">
-        <v>1463558</v>
+        <v>9049710</v>
       </c>
       <c r="H30">
-        <v>2319</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2644,16 +2644,16 @@
         <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F31">
-        <v>54</v>
+        <v>677</v>
       </c>
       <c r="G31">
-        <v>2066244</v>
+        <v>13920317</v>
       </c>
       <c r="H31">
-        <v>83</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2670,16 +2670,16 @@
         <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="F32">
-        <v>105</v>
+        <v>592</v>
       </c>
       <c r="G32">
-        <v>3657201</v>
+        <v>11971923</v>
       </c>
       <c r="H32">
-        <v>33006</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2696,16 +2696,16 @@
         <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F33">
-        <v>614</v>
+        <v>1054</v>
       </c>
       <c r="G33">
-        <v>909158</v>
+        <v>82744109</v>
       </c>
       <c r="H33">
-        <v>2107</v>
+        <v>128135</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2722,16 +2722,16 @@
         <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F34">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="G34">
-        <v>448729</v>
+        <v>23430291</v>
       </c>
       <c r="H34">
-        <v>3951</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2745,19 +2745,19 @@
         <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F35">
-        <v>1004</v>
+        <v>194</v>
       </c>
       <c r="G35">
-        <v>955423</v>
+        <v>11764284</v>
       </c>
       <c r="H35">
-        <v>4702</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2771,19 +2771,19 @@
         <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F36">
-        <v>2694</v>
+        <v>87</v>
       </c>
       <c r="G36">
-        <v>23741048</v>
+        <v>2785144</v>
       </c>
       <c r="H36">
-        <v>259998</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2797,19 +2797,19 @@
         <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F37">
-        <v>2694</v>
+        <v>67</v>
       </c>
       <c r="G37">
-        <v>23741048</v>
+        <v>203148</v>
       </c>
       <c r="H37">
-        <v>259998</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2826,16 +2826,16 @@
         <v>355</v>
       </c>
       <c r="E38" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F38">
-        <v>2609</v>
+        <v>108</v>
       </c>
       <c r="G38">
-        <v>59975347</v>
+        <v>3656489</v>
       </c>
       <c r="H38">
-        <v>167960</v>
+        <v>33013</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2852,16 +2852,16 @@
         <v>356</v>
       </c>
       <c r="E39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F39">
-        <v>674</v>
+        <v>272</v>
       </c>
       <c r="G39">
-        <v>13823368</v>
+        <v>1011169</v>
       </c>
       <c r="H39">
-        <v>10046</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2875,19 +2875,19 @@
         <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F40">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="G40">
-        <v>2293778</v>
+        <v>2066461</v>
       </c>
       <c r="H40">
-        <v>16993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2901,19 +2901,19 @@
         <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="F41">
-        <v>129</v>
+        <v>1653</v>
       </c>
       <c r="G41">
-        <v>14648920</v>
+        <v>103582144</v>
       </c>
       <c r="H41">
-        <v>1637</v>
+        <v>212165</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2927,19 +2927,19 @@
         <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="E42" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="F42">
-        <v>80</v>
+        <v>3544</v>
       </c>
       <c r="G42">
-        <v>603249</v>
+        <v>3860662</v>
       </c>
       <c r="H42">
-        <v>8339</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2953,19 +2953,19 @@
         <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E43" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F43">
-        <v>93</v>
+        <v>1352</v>
       </c>
       <c r="G43">
-        <v>10771809</v>
+        <v>2161975</v>
       </c>
       <c r="H43">
-        <v>3828</v>
+        <v>19753</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2979,19 +2979,19 @@
         <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E44" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F44">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="G44">
-        <v>5055897</v>
+        <v>3053760</v>
       </c>
       <c r="H44">
-        <v>3067</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3005,19 +3005,19 @@
         <v>261</v>
       </c>
       <c r="D45" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E45" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F45">
-        <v>1636</v>
+        <v>791</v>
       </c>
       <c r="G45">
-        <v>8304120</v>
+        <v>41474761</v>
       </c>
       <c r="H45">
-        <v>44169</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3031,19 +3031,19 @@
         <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E46" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="F46">
-        <v>818</v>
+        <v>1353</v>
       </c>
       <c r="G46">
-        <v>20571095</v>
+        <v>6934067</v>
       </c>
       <c r="H46">
-        <v>40289</v>
+        <v>13634</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3057,19 +3057,19 @@
         <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E47" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F47">
-        <v>1398</v>
+        <v>129</v>
       </c>
       <c r="G47">
-        <v>3730711</v>
+        <v>449547</v>
       </c>
       <c r="H47">
-        <v>24838</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3083,19 +3083,19 @@
         <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F48">
-        <v>1467</v>
+        <v>131</v>
       </c>
       <c r="G48">
-        <v>12599256</v>
+        <v>3938721</v>
       </c>
       <c r="H48">
-        <v>28244</v>
+        <v>28205</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3109,19 +3109,19 @@
         <v>265</v>
       </c>
       <c r="D49" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E49" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F49">
-        <v>818</v>
+        <v>962</v>
       </c>
       <c r="G49">
-        <v>20571095</v>
+        <v>40041681</v>
       </c>
       <c r="H49">
-        <v>40289</v>
+        <v>207287</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3135,19 +3135,19 @@
         <v>266</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E50" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F50">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="G50">
-        <v>2450095</v>
+        <v>603195</v>
       </c>
       <c r="H50">
-        <v>89</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3161,19 +3161,19 @@
         <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E51" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="F51">
-        <v>1431</v>
+        <v>262</v>
       </c>
       <c r="G51">
-        <v>1493786</v>
+        <v>15212768</v>
       </c>
       <c r="H51">
-        <v>41150</v>
+        <v>120380</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3187,19 +3187,19 @@
         <v>268</v>
       </c>
       <c r="D52" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="E52" t="s">
         <v>458</v>
       </c>
       <c r="F52">
-        <v>843</v>
+        <v>266</v>
       </c>
       <c r="G52">
-        <v>575849</v>
+        <v>11377255</v>
       </c>
       <c r="H52">
-        <v>9247</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3213,19 +3213,19 @@
         <v>269</v>
       </c>
       <c r="D53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="F53">
-        <v>2694</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>23741048</v>
+        <v>2476584</v>
       </c>
       <c r="H53">
-        <v>259998</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3239,19 +3239,19 @@
         <v>270</v>
       </c>
       <c r="D54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
         <v>428</v>
       </c>
       <c r="F54">
-        <v>527</v>
+        <v>2308</v>
       </c>
       <c r="G54">
-        <v>9032458</v>
+        <v>24495849</v>
       </c>
       <c r="H54">
-        <v>7515</v>
+        <v>153493</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3265,19 +3265,19 @@
         <v>271</v>
       </c>
       <c r="D55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F55">
-        <v>245</v>
+        <v>2584</v>
       </c>
       <c r="G55">
-        <v>2442118</v>
+        <v>8897884</v>
       </c>
       <c r="H55">
-        <v>1283</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3291,19 +3291,19 @@
         <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F56">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="G56">
-        <v>2293778</v>
+        <v>5056548</v>
       </c>
       <c r="H56">
-        <v>16993</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3317,19 +3317,19 @@
         <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F57">
-        <v>1286</v>
+        <v>156</v>
       </c>
       <c r="G57">
-        <v>8415347</v>
+        <v>3401868</v>
       </c>
       <c r="H57">
-        <v>86905</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3343,19 +3343,19 @@
         <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E58" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="F58">
-        <v>2583</v>
+        <v>700</v>
       </c>
       <c r="G58">
-        <v>8900496</v>
+        <v>24008530</v>
       </c>
       <c r="H58">
-        <v>5404</v>
+        <v>75555</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3369,19 +3369,19 @@
         <v>275</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E59" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F59">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G59">
-        <v>2138389</v>
+        <v>2808505</v>
       </c>
       <c r="H59">
-        <v>19078</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3391,23 +3391,20 @@
       <c r="B60" t="s">
         <v>171</v>
       </c>
-      <c r="C60" t="s">
-        <v>276</v>
-      </c>
       <c r="D60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F60">
-        <v>1191</v>
+        <v>262</v>
       </c>
       <c r="G60">
-        <v>32790334</v>
+        <v>15212768</v>
       </c>
       <c r="H60">
-        <v>174207</v>
+        <v>120380</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3418,22 +3415,22 @@
         <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E61" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="F61">
-        <v>2694</v>
+        <v>37</v>
       </c>
       <c r="G61">
-        <v>23741048</v>
+        <v>2476584</v>
       </c>
       <c r="H61">
-        <v>259998</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3444,22 +3441,22 @@
         <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D62" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
         <v>464</v>
       </c>
       <c r="F62">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="G62">
-        <v>4525082</v>
+        <v>5261019</v>
       </c>
       <c r="H62">
-        <v>2637</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3470,22 +3467,22 @@
         <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
         <v>378</v>
       </c>
       <c r="E63" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="F63">
-        <v>1352</v>
+        <v>1399</v>
       </c>
       <c r="G63">
-        <v>6933626</v>
+        <v>3728978</v>
       </c>
       <c r="H63">
-        <v>13591</v>
+        <v>24887</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3496,22 +3493,22 @@
         <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
         <v>379</v>
       </c>
       <c r="E64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F64">
-        <v>65</v>
+        <v>2118</v>
       </c>
       <c r="G64">
-        <v>2430648</v>
+        <v>24992431</v>
       </c>
       <c r="H64">
-        <v>182</v>
+        <v>274727</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3522,22 +3519,22 @@
         <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
         <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="F65">
-        <v>818</v>
+        <v>1432</v>
       </c>
       <c r="G65">
-        <v>20571096</v>
+        <v>1493863</v>
       </c>
       <c r="H65">
-        <v>40289</v>
+        <v>41159</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3548,22 +3545,22 @@
         <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
         <v>381</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="F66">
-        <v>1650</v>
+        <v>259</v>
       </c>
       <c r="G66">
-        <v>103570636</v>
+        <v>1963428</v>
       </c>
       <c r="H66">
-        <v>211978</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3574,22 +3571,22 @@
         <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
         <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F67">
-        <v>373</v>
+        <v>1285</v>
       </c>
       <c r="G67">
-        <v>2919270</v>
+        <v>11197571</v>
       </c>
       <c r="H67">
-        <v>7626</v>
+        <v>179115</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3600,22 +3597,22 @@
         <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
         <v>383</v>
       </c>
       <c r="E68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F68">
-        <v>962</v>
+        <v>246</v>
       </c>
       <c r="G68">
-        <v>40036253</v>
+        <v>2482357</v>
       </c>
       <c r="H68">
-        <v>207149</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3626,22 +3623,22 @@
         <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
         <v>384</v>
       </c>
       <c r="E69" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="F69">
-        <v>1352</v>
+        <v>1653</v>
       </c>
       <c r="G69">
-        <v>6933626</v>
+        <v>103582143</v>
       </c>
       <c r="H69">
-        <v>13591</v>
+        <v>212165</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3652,22 +3649,22 @@
         <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
         <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="F70">
-        <v>737</v>
+        <v>1653</v>
       </c>
       <c r="G70">
-        <v>29629416</v>
+        <v>103582144</v>
       </c>
       <c r="H70">
-        <v>211744</v>
+        <v>212165</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3678,22 +3675,22 @@
         <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
         <v>386</v>
       </c>
       <c r="E71" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="F71">
-        <v>1650</v>
+        <v>618</v>
       </c>
       <c r="G71">
-        <v>103570635</v>
+        <v>958986</v>
       </c>
       <c r="H71">
-        <v>211978</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3703,23 +3700,20 @@
       <c r="B72" t="s">
         <v>183</v>
       </c>
-      <c r="C72" t="s">
-        <v>288</v>
-      </c>
       <c r="D72" t="s">
         <v>387</v>
       </c>
       <c r="E72" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F72">
-        <v>595</v>
+        <v>1239</v>
       </c>
       <c r="G72">
-        <v>23360212</v>
+        <v>17642387</v>
       </c>
       <c r="H72">
-        <v>57023</v>
+        <v>138170</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3730,22 +3724,22 @@
         <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" t="s">
         <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="F73">
-        <v>156</v>
+        <v>2694</v>
       </c>
       <c r="G73">
-        <v>3391952</v>
+        <v>23739853</v>
       </c>
       <c r="H73">
-        <v>6877</v>
+        <v>260358</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3756,22 +3750,22 @@
         <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D74" t="s">
         <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="F74">
-        <v>1871</v>
+        <v>392</v>
       </c>
       <c r="G74">
-        <v>18369163</v>
+        <v>9685438</v>
       </c>
       <c r="H74">
-        <v>115426</v>
+        <v>79693</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3782,22 +3776,22 @@
         <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F75">
-        <v>1530</v>
+        <v>105</v>
       </c>
       <c r="G75">
-        <v>3362629</v>
+        <v>1267184</v>
       </c>
       <c r="H75">
-        <v>14112</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3808,22 +3802,22 @@
         <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E76" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F76">
-        <v>1650</v>
+        <v>700</v>
       </c>
       <c r="G76">
-        <v>103570635</v>
+        <v>24008530</v>
       </c>
       <c r="H76">
-        <v>211978</v>
+        <v>75555</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3834,22 +3828,22 @@
         <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D77" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F77">
-        <v>1054</v>
+        <v>910</v>
       </c>
       <c r="G77">
-        <v>82624220</v>
+        <v>2974382</v>
       </c>
       <c r="H77">
-        <v>128012</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3860,22 +3854,22 @@
         <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E78" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="F78">
-        <v>177</v>
+        <v>2694</v>
       </c>
       <c r="G78">
-        <v>11696901</v>
+        <v>23739853</v>
       </c>
       <c r="H78">
-        <v>2728</v>
+        <v>260358</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3886,22 +3880,22 @@
         <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E79" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F79">
-        <v>416</v>
+        <v>135</v>
       </c>
       <c r="G79">
-        <v>3355263</v>
+        <v>10477341</v>
       </c>
       <c r="H79">
-        <v>11711</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3912,22 +3906,22 @@
         <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E80" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="F80">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="G80">
-        <v>20571096</v>
+        <v>578205</v>
       </c>
       <c r="H80">
-        <v>40289</v>
+        <v>9263</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3938,22 +3932,22 @@
         <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F81">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G81">
-        <v>10412927</v>
+        <v>2457081</v>
       </c>
       <c r="H81">
-        <v>1598</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3964,22 +3958,22 @@
         <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="F82">
-        <v>1201</v>
+        <v>2694</v>
       </c>
       <c r="G82">
-        <v>38053359</v>
+        <v>23739853</v>
       </c>
       <c r="H82">
-        <v>165801</v>
+        <v>260358</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3990,22 +3984,22 @@
         <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E83" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="F83">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="G83">
-        <v>8415347</v>
+        <v>8416230</v>
       </c>
       <c r="H83">
-        <v>86905</v>
+        <v>87008</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4016,22 +4010,22 @@
         <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E84" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="F84">
-        <v>392</v>
+        <v>1353</v>
       </c>
       <c r="G84">
-        <v>9647525</v>
+        <v>6934065</v>
       </c>
       <c r="H84">
-        <v>79688</v>
+        <v>13634</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4042,22 +4036,22 @@
         <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E85" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="F85">
-        <v>818</v>
+        <v>1158</v>
       </c>
       <c r="G85">
-        <v>20571096</v>
+        <v>2177746</v>
       </c>
       <c r="H85">
-        <v>40289</v>
+        <v>18275</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4068,22 +4062,22 @@
         <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E86" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F86">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="G86">
-        <v>1549832</v>
+        <v>2919733</v>
       </c>
       <c r="H86">
-        <v>3762</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4094,22 +4088,22 @@
         <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E87" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F87">
-        <v>1156</v>
+        <v>96</v>
       </c>
       <c r="G87">
-        <v>2177818</v>
+        <v>283620</v>
       </c>
       <c r="H87">
-        <v>18261</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4120,22 +4114,22 @@
         <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E88" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="F88">
-        <v>1807</v>
+        <v>530</v>
       </c>
       <c r="G88">
-        <v>35092752</v>
+        <v>9049719</v>
       </c>
       <c r="H88">
-        <v>117116</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4146,22 +4140,22 @@
         <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F89">
-        <v>1156</v>
+        <v>175</v>
       </c>
       <c r="G89">
-        <v>2177818</v>
+        <v>1475957</v>
       </c>
       <c r="H89">
-        <v>18261</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4172,22 +4166,22 @@
         <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E90" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F90">
-        <v>199</v>
+        <v>1468</v>
       </c>
       <c r="G90">
-        <v>10558968</v>
+        <v>12622524</v>
       </c>
       <c r="H90">
-        <v>35150</v>
+        <v>28303</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4198,22 +4192,22 @@
         <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D91" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E91" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="F91">
-        <v>216</v>
+        <v>2694</v>
       </c>
       <c r="G91">
-        <v>8963417</v>
+        <v>23739852</v>
       </c>
       <c r="H91">
-        <v>10146</v>
+        <v>260358</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4224,22 +4218,22 @@
         <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D92" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E92" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="F92">
-        <v>8333</v>
+        <v>156</v>
       </c>
       <c r="G92">
-        <v>27430108</v>
+        <v>3401877</v>
       </c>
       <c r="H92">
-        <v>166288</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4250,22 +4244,22 @@
         <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E93" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="F93">
-        <v>414</v>
+        <v>817</v>
       </c>
       <c r="G93">
-        <v>10939056</v>
+        <v>20570829</v>
       </c>
       <c r="H93">
-        <v>58164</v>
+        <v>40326</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4276,22 +4270,22 @@
         <v>205</v>
       </c>
       <c r="C94" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E94" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="F94">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="G94">
-        <v>1463558</v>
+        <v>10004808</v>
       </c>
       <c r="H94">
-        <v>2319</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4302,22 +4296,22 @@
         <v>206</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E95" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F95">
-        <v>1054</v>
+        <v>2384</v>
       </c>
       <c r="G95">
-        <v>82624223</v>
+        <v>44869431</v>
       </c>
       <c r="H95">
-        <v>128012</v>
+        <v>126581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4328,22 +4322,22 @@
         <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E96" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="F96">
-        <v>1156</v>
+        <v>1054</v>
       </c>
       <c r="G96">
-        <v>2177818</v>
+        <v>82744135</v>
       </c>
       <c r="H96">
-        <v>18261</v>
+        <v>128135</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4354,22 +4348,22 @@
         <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D97" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E97" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="F97">
-        <v>527</v>
+        <v>961</v>
       </c>
       <c r="G97">
-        <v>9032458</v>
+        <v>10978881</v>
       </c>
       <c r="H97">
-        <v>7515</v>
+        <v>53457</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4380,22 +4374,22 @@
         <v>209</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E98" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="F98">
-        <v>2694</v>
+        <v>1535</v>
       </c>
       <c r="G98">
-        <v>23741048</v>
+        <v>3366597</v>
       </c>
       <c r="H98">
-        <v>259998</v>
+        <v>14135</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4406,22 +4400,22 @@
         <v>210</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D99" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E99" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F99">
-        <v>962</v>
+        <v>1203</v>
       </c>
       <c r="G99">
-        <v>40036253</v>
+        <v>38070442</v>
       </c>
       <c r="H99">
-        <v>207149</v>
+        <v>166030</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4432,22 +4426,22 @@
         <v>211</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
         <v>487</v>
       </c>
       <c r="F100">
-        <v>96</v>
+        <v>596</v>
       </c>
       <c r="G100">
-        <v>283247</v>
+        <v>23356368</v>
       </c>
       <c r="H100">
-        <v>325</v>
+        <v>57085</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4458,22 +4452,22 @@
         <v>212</v>
       </c>
       <c r="C101" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E101" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="F101">
-        <v>259</v>
+        <v>8333</v>
       </c>
       <c r="G101">
-        <v>1963440</v>
+        <v>27949640</v>
       </c>
       <c r="H101">
-        <v>9586</v>
+        <v>166412</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4483,20 +4477,23 @@
       <c r="B102" t="s">
         <v>213</v>
       </c>
+      <c r="C102" t="s">
+        <v>316</v>
+      </c>
       <c r="D102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E102" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="F102">
-        <v>2384</v>
+        <v>2694</v>
       </c>
       <c r="G102">
-        <v>44845488</v>
+        <v>23739852</v>
       </c>
       <c r="H102">
-        <v>126511</v>
+        <v>260358</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4507,22 +4504,22 @@
         <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="E103" t="s">
         <v>489</v>
       </c>
       <c r="F103">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="G103">
-        <v>3525948</v>
+        <v>10146908</v>
       </c>
       <c r="H103">
-        <v>6949</v>
+        <v>62149</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4533,22 +4530,22 @@
         <v>215</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E104" t="s">
         <v>490</v>
       </c>
       <c r="F104">
-        <v>134</v>
+        <v>737</v>
       </c>
       <c r="G104">
-        <v>1211989</v>
+        <v>29656465</v>
       </c>
       <c r="H104">
-        <v>1300</v>
+        <v>211881</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4559,22 +4556,22 @@
         <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D105" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E105" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="F105">
-        <v>1530</v>
+        <v>962</v>
       </c>
       <c r="G105">
-        <v>3362629</v>
+        <v>40041725</v>
       </c>
       <c r="H105">
-        <v>14112</v>
+        <v>207287</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4585,22 +4582,22 @@
         <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D106" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" t="s">
         <v>421</v>
       </c>
-      <c r="E106" t="s">
-        <v>426</v>
-      </c>
       <c r="F106">
-        <v>1650</v>
+        <v>817</v>
       </c>
       <c r="G106">
-        <v>103570641</v>
+        <v>20570829</v>
       </c>
       <c r="H106">
-        <v>211979</v>
+        <v>40326</v>
       </c>
     </row>
   </sheetData>

--- a/C:\Users\yiwang\Desktop\sina.xlsx
+++ b/C:\Users\yiwang\Desktop\sina.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="435">
   <si>
     <t>top_name</t>
   </si>
@@ -163,12 +163,12 @@
     <t>如何解读深圳赛格大厦的振动原因</t>
   </si>
   <si>
+    <t>在银行存款一亿是什么体验</t>
+  </si>
+  <si>
     <t>你经历过假性亲密关系吗</t>
   </si>
   <si>
-    <t>在银行存款一亿是什么体验</t>
-  </si>
-  <si>
     <t>两个人在一起的真正意义</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>该不该向朋友索取专业的服务</t>
   </si>
   <si>
+    <t>如何避免手机被大数据监控</t>
+  </si>
+  <si>
     <t>不让快递员进小区合理吗</t>
   </si>
   <si>
-    <t>如何避免手机被大数据监控</t>
-  </si>
-  <si>
     <t>如何评价韩剧恶魔法官</t>
   </si>
   <si>
@@ -220,6 +220,105 @@
     <t>点外卖如何避坑</t>
   </si>
   <si>
+    <t>你接受只谈恋爱不结婚吗</t>
+  </si>
+  <si>
+    <t>中国传统文化该怎么保护</t>
+  </si>
+  <si>
+    <t>什么是保税仓</t>
+  </si>
+  <si>
+    <t>土甜剧为什么好嗑</t>
+  </si>
+  <si>
+    <t>如何区别分享和炫耀</t>
+  </si>
+  <si>
+    <t>在云冈修复文物是种什么体验</t>
+  </si>
+  <si>
+    <t>那些养猫后的崩溃瞬间</t>
+  </si>
+  <si>
+    <t>如何评价东京奥运中国队旗手阵容</t>
+  </si>
+  <si>
+    <t>如何看待南昌杀妻抛尸案被告被判死刑</t>
+  </si>
+  <si>
+    <t>保罗今年还能赢得总冠军吗</t>
+  </si>
+  <si>
+    <t>美国副国务卿来不来中国</t>
+  </si>
+  <si>
+    <t>天气预报中的暴雨是怎么界定的</t>
+  </si>
+  <si>
+    <t>即将租房开始独居需要准备什么</t>
+  </si>
+  <si>
+    <t>印象中最深刻的管泽元预测</t>
+  </si>
+  <si>
+    <t>为什么大多数人都喜欢稳定</t>
+  </si>
+  <si>
+    <t>如何看待私立整形医院乱象</t>
+  </si>
+  <si>
+    <t>吸脂手术到底存在哪些危险</t>
+  </si>
+  <si>
+    <t>录取后被退档考生损失怎么弥补</t>
+  </si>
+  <si>
+    <t>养成系去选秀算失败吗</t>
+  </si>
+  <si>
+    <t>贺知章为何这么爱镜湖</t>
+  </si>
+  <si>
+    <t>武林外传里的台词有多浪漫</t>
+  </si>
+  <si>
+    <t>如果雷神去供电局上班能开多少工资</t>
+  </si>
+  <si>
+    <t>高价跨城代购茶颜悦色你怎么看</t>
+  </si>
+  <si>
+    <t>你能接受和伴侣异地吗</t>
+  </si>
+  <si>
+    <t>花泽香菜配SP面灵气有多合适</t>
+  </si>
+  <si>
+    <t>大学的班级活动必须参加吗</t>
+  </si>
+  <si>
+    <t>甄嬛传里谁爱皇上更多一点</t>
+  </si>
+  <si>
+    <t>如何看待有反诈经验的人被诈骗</t>
+  </si>
+  <si>
+    <t>金庸的天龙八部是个悲剧吗</t>
+  </si>
+  <si>
+    <t>隔代亲能有多亲</t>
+  </si>
+  <si>
+    <t>职粉代拍等是用爱发电还是将爱变现</t>
+  </si>
+  <si>
+    <t>如何看名校毕业生抢着上流水线</t>
+  </si>
+  <si>
+    <t>为了让孩子长高家长有多努力</t>
+  </si>
+  <si>
     <t>TOP1</t>
   </si>
   <si>
@@ -400,6 +499,105 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>所以一个成熟的律师会如何拯救塌房男明星？从法律和公关的角度其实涉...</t>
   </si>
   <si>
@@ -523,12 +721,12 @@
     <t>专家组认为，桅杆风致涡激共振和大厦及桅杆动力特性改变的耦合，造成...</t>
   </si>
   <si>
+    <t>如果你在银行有一个亿的存款，你最想做的事情是什么？</t>
+  </si>
+  <si>
     <t>生活中你经历过假性亲密关系吗？假性亲密关系给你最大的感受是什么？</t>
   </si>
   <si>
-    <t>如果你在银行有一个亿的存款，你最想做的事情是什么？</t>
-  </si>
-  <si>
     <t>你觉得两个人在一起的真正意义是什么？带话题讨论一下，说说你的感受～</t>
   </si>
   <si>
@@ -559,12 +757,12 @@
     <t>每一个专业人士朋友的举手之劳背后，都花费大量的时间精力……你觉得该...</t>
   </si>
   <si>
+    <t>每次买完东西手机就会推送购买物品的相关信息？？觉得手机被大数据监...</t>
+  </si>
+  <si>
     <t>近年来，随着越来越多小区实施封闭式管理，不少外卖、快递小哥被拦在...</t>
   </si>
   <si>
-    <t>每次买完东西手机就会推送购买物品的相关信息？？觉得手机被大数据监...</t>
-  </si>
-  <si>
     <t>池晟、朴珍荣、金敏贞等主演韩剧《恶魔法官》目前评分8.4，前大法官担...</t>
   </si>
   <si>
@@ -580,175 +778,361 @@
     <t>两家外卖平台销量第一的炸鸡店，华莱士、韩式炸鸡有多脏？ 生活中点外...</t>
   </si>
   <si>
-    <t>7677.5万</t>
-  </si>
-  <si>
-    <t>8832.7万</t>
-  </si>
-  <si>
-    <t>382.4万</t>
+    <t>不结婚只恋爱，有人享受距离带来的无拘无束；想要切实陪伴并一起组成...</t>
+  </si>
+  <si>
+    <t>中国传统文化要活下来，传下去，要有生命力和吸引力，一直是我们需要...</t>
+  </si>
+  <si>
+    <t>保税仓库就是跨国的前置仓。在国境之内，海关之外。进口商品找个地方...</t>
+  </si>
+  <si>
+    <t>魏哲鸣、胡意旋主演的《贺先生的恋恋不忘》改编自玛丽苏言情小说《贺...</t>
+  </si>
+  <si>
+    <t>“如果你表达的目的，都是在凸显自己的与众不同、居高临下、好为人师，...</t>
+  </si>
+  <si>
+    <t>破损风化的古物在千万次涂抹中显露真容，洒落万千的碎片在魔法双手中...</t>
+  </si>
+  <si>
+    <t>没养猫前不知道，原来猫咪也会拆家！你家猫主子是这样的吗，一起来分...</t>
+  </si>
+  <si>
+    <t>朱婷和赵帅成为东京奥运会中国队开幕式旗手，对此您如何评价？</t>
+  </si>
+  <si>
+    <t>7月16日上午，南昌杀妻抛尸案被告被判死刑。死者母亲称女儿还未下葬，...</t>
+  </si>
+  <si>
+    <t>虽然今天末节保罗连续贡献了关键球与防守，但他前三节的表现依旧是不...</t>
+  </si>
+  <si>
+    <t>很多人独居都不知道怎么装饰自己的小窝，收下这份安利，把自己的小空...</t>
+  </si>
+  <si>
+    <t>曾经我也相信科学，直到我遇到了管泽元，大家伙 印象中最深刻的管泽...</t>
+  </si>
+  <si>
+    <t>你喜欢稳定的生活吗？一起来说说看为什么大多数人都喜欢稳定吧</t>
+  </si>
+  <si>
+    <t>杭州一名女性在抽脂术后2个月死亡。我们要问一下，抽脂真的是‘轻松’？...</t>
+  </si>
+  <si>
+    <t>据悉，小冉5月2日在杭州华颜医疗美容医院进行吸脂填充手术，5月4日术...</t>
+  </si>
+  <si>
+    <t>不能总是招录方出了错，却由考生承担最大的风险和损失。</t>
+  </si>
+  <si>
+    <t>送养成系去参加选秀，算不算失败？原际画联合创始人彭诗童透露，早在2...</t>
+  </si>
+  <si>
+    <t>镜湖之于贺知章，是满怀依恋的精神故园，是灵魂栖息的安顿之所。</t>
+  </si>
+  <si>
+    <t>小时候看武林外传不觉得，长大重温才发现原来里面的台词和告白都这么...</t>
+  </si>
+  <si>
+    <t>如果用雷神的超能力让他去发电的话，你觉得电网会给他开多少工资？</t>
+  </si>
+  <si>
+    <t>代购表示：他每天能接到几百杯的订单，代购费600起，凡是长沙高铁站能...</t>
+  </si>
+  <si>
+    <t>秋瓷炫和于晓光一个在韩国一个在中国，大S和汪小菲一个在台北一个在北...</t>
+  </si>
+  <si>
+    <t>花泽香菜本身的业务能力毋容置疑，从SSR面灵气到SP面灵气，可攻可柔无...</t>
+  </si>
+  <si>
+    <t>嘿嘿姐妹们，你们在上大学的时候，班级活动有每一个都参与了吗？你们...</t>
+  </si>
+  <si>
+    <t>带话题发微博，说一下甄嬛传剧里面到底是谁更爱四郎多一点</t>
+  </si>
+  <si>
+    <t>据看看新闻KNEWS消息：近日，B站一名UP主“波桑”自曝被粉丝诈骗25万，...</t>
+  </si>
+  <si>
+    <t>《天龙八部》是在金庸中年丧子之后写的，这其中的打击可想而知，“只因...</t>
+  </si>
+  <si>
+    <t>有一种爱叫“隔代亲”，你陪我长大，我陪你变老！你体会过这种“隔代亲&amp;q...</t>
+  </si>
+  <si>
+    <t>7月17日，北京警方通报，演员王某某的两名粉丝为达到“追星”目的，在其...</t>
+  </si>
+  <si>
+    <t>近日，《河南中烟工业有限责任公司2021年度大学生招聘拟录用人员公示...</t>
+  </si>
+  <si>
+    <t>有人一年365天，每天在孩子的肚皮上打增高针；有人做过一个比喻：拿一...</t>
+  </si>
+  <si>
+    <t>7708.9万</t>
+  </si>
+  <si>
+    <t>8854.3万</t>
+  </si>
+  <si>
+    <t>387.7万</t>
   </si>
   <si>
     <t>1.5亿</t>
   </si>
   <si>
-    <t>1085.4万</t>
+    <t>1094万</t>
   </si>
   <si>
     <t>4.7亿</t>
   </si>
   <si>
-    <t>585.8万</t>
+    <t>595万</t>
   </si>
   <si>
     <t>1.1亿</t>
   </si>
   <si>
-    <t>223.6万</t>
+    <t>226.4万</t>
   </si>
   <si>
     <t>1.9亿</t>
   </si>
   <si>
-    <t>612.6万</t>
-  </si>
-  <si>
-    <t>269万</t>
+    <t>625.3万</t>
+  </si>
+  <si>
+    <t>273.2万</t>
   </si>
   <si>
     <t>1.6亿</t>
   </si>
   <si>
-    <t>83.9万</t>
-  </si>
-  <si>
-    <t>2541.8万</t>
-  </si>
-  <si>
-    <t>4249.8万</t>
+    <t>90.4万</t>
+  </si>
+  <si>
+    <t>2546.8万</t>
+  </si>
+  <si>
+    <t>4263万</t>
   </si>
   <si>
     <t>1.4亿</t>
   </si>
   <si>
-    <t>932.1万</t>
-  </si>
-  <si>
-    <t>8878万</t>
-  </si>
-  <si>
-    <t>9862.9万</t>
-  </si>
-  <si>
-    <t>190万</t>
+    <t>933.3万</t>
+  </si>
+  <si>
+    <t>8883.3万</t>
+  </si>
+  <si>
+    <t>1亿</t>
+  </si>
+  <si>
+    <t>192.5万</t>
   </si>
   <si>
     <t>1.3亿</t>
   </si>
   <si>
-    <t>56万</t>
-  </si>
-  <si>
-    <t>4669.7万</t>
+    <t>56.3万</t>
+  </si>
+  <si>
+    <t>4677.8万</t>
   </si>
   <si>
     <t>1.8亿</t>
   </si>
   <si>
-    <t>788.2万</t>
-  </si>
-  <si>
-    <t>4156.7万</t>
-  </si>
-  <si>
-    <t>2393.5万</t>
-  </si>
-  <si>
-    <t>84万</t>
-  </si>
-  <si>
-    <t>8123.6万</t>
+    <t>788.6万</t>
+  </si>
+  <si>
+    <t>4161.8万</t>
+  </si>
+  <si>
+    <t>2395.6万</t>
+  </si>
+  <si>
+    <t>86.4万</t>
+  </si>
+  <si>
+    <t>8128.8万</t>
   </si>
   <si>
     <t>2.6亿</t>
   </si>
   <si>
-    <t>4313.4万</t>
+    <t>4317.4万</t>
   </si>
   <si>
     <t>6亿</t>
   </si>
   <si>
-    <t>2792.2万</t>
-  </si>
-  <si>
-    <t>199.3万</t>
-  </si>
-  <si>
-    <t>3.9万</t>
-  </si>
-  <si>
-    <t>14.7万</t>
-  </si>
-  <si>
-    <t>67.5万</t>
-  </si>
-  <si>
-    <t>33.3万</t>
+    <t>2792.9万</t>
+  </si>
+  <si>
+    <t>200.1万</t>
+  </si>
+  <si>
+    <t>4.1万</t>
+  </si>
+  <si>
+    <t>14.8万</t>
+  </si>
+  <si>
+    <t>67.8万</t>
+  </si>
+  <si>
+    <t>33.4万</t>
+  </si>
+  <si>
+    <t>3.6亿</t>
   </si>
   <si>
     <t>3.8亿</t>
   </si>
   <si>
-    <t>3.6亿</t>
-  </si>
-  <si>
     <t>3.3亿</t>
   </si>
   <si>
-    <t>2720.1万</t>
+    <t>2722.4万</t>
   </si>
   <si>
     <t>4.5亿</t>
   </si>
   <si>
-    <t>6647.9万</t>
+    <t>6648.3万</t>
   </si>
   <si>
     <t>2.7亿</t>
   </si>
   <si>
-    <t>1411.7万</t>
-  </si>
-  <si>
-    <t>1197.3万</t>
-  </si>
-  <si>
-    <t>151.6万</t>
-  </si>
-  <si>
-    <t>5.2万</t>
-  </si>
-  <si>
-    <t>4964.5万</t>
-  </si>
-  <si>
-    <t>4787万</t>
-  </si>
-  <si>
-    <t>59.2万</t>
-  </si>
-  <si>
-    <t>2608.5万</t>
-  </si>
-  <si>
-    <t>2910.7万</t>
-  </si>
-  <si>
-    <t>81.9万</t>
-  </si>
-  <si>
-    <t>1165.7万</t>
+    <t>1418.1万</t>
+  </si>
+  <si>
+    <t>1197.8万</t>
+  </si>
+  <si>
+    <t>156万</t>
+  </si>
+  <si>
+    <t>5.8万</t>
+  </si>
+  <si>
+    <t>4965万</t>
+  </si>
+  <si>
+    <t>59.7万</t>
+  </si>
+  <si>
+    <t>4787.2万</t>
+  </si>
+  <si>
+    <t>2608.8万</t>
+  </si>
+  <si>
+    <t>2911.2万</t>
+  </si>
+  <si>
+    <t>82.2万</t>
+  </si>
+  <si>
+    <t>1166万</t>
+  </si>
+  <si>
+    <t>3.4万</t>
+  </si>
+  <si>
+    <t>12.8万</t>
+  </si>
+  <si>
+    <t>949.2万</t>
+  </si>
+  <si>
+    <t>139.8万</t>
+  </si>
+  <si>
+    <t>3287.3万</t>
+  </si>
+  <si>
+    <t>1574.3万</t>
+  </si>
+  <si>
+    <t>924.7万</t>
+  </si>
+  <si>
+    <t>1145.1万</t>
+  </si>
+  <si>
+    <t>155.6万</t>
+  </si>
+  <si>
+    <t>9191.2万</t>
+  </si>
+  <si>
+    <t>1937万</t>
+  </si>
+  <si>
+    <t>253.4万</t>
+  </si>
+  <si>
+    <t>953.7万</t>
+  </si>
+  <si>
+    <t>1504.5万</t>
+  </si>
+  <si>
+    <t>2367.9万</t>
+  </si>
+  <si>
+    <t>23.9万</t>
+  </si>
+  <si>
+    <t>2189万</t>
+  </si>
+  <si>
+    <t>14.5万</t>
+  </si>
+  <si>
+    <t>1057.7万</t>
+  </si>
+  <si>
+    <t>8240万</t>
+  </si>
+  <si>
+    <t>1409万</t>
+  </si>
+  <si>
+    <t>851.6万</t>
+  </si>
+  <si>
+    <t>486.4万</t>
+  </si>
+  <si>
+    <t>701.2万</t>
+  </si>
+  <si>
+    <t>117.7万</t>
+  </si>
+  <si>
+    <t>139.1万</t>
+  </si>
+  <si>
+    <t>38.7万</t>
+  </si>
+  <si>
+    <t>90万</t>
+  </si>
+  <si>
+    <t>206.4万</t>
+  </si>
+  <si>
+    <t>24万</t>
+  </si>
+  <si>
+    <t>9.6万</t>
   </si>
   <si>
     <t>法山叔</t>
@@ -878,6 +1262,63 @@
   </si>
   <si>
     <t>阿蒙Amon</t>
+  </si>
+  <si>
+    <t>西部雄仔</t>
+  </si>
+  <si>
+    <t>肝帝董佳宁</t>
+  </si>
+  <si>
+    <t>人生剧场</t>
+  </si>
+  <si>
+    <t>人间投影仪</t>
+  </si>
+  <si>
+    <t>新浪体育</t>
+  </si>
+  <si>
+    <t>新浪NBA</t>
+  </si>
+  <si>
+    <t>观察者网</t>
+  </si>
+  <si>
+    <t>人间百宝箱</t>
+  </si>
+  <si>
+    <t>微博电竞</t>
+  </si>
+  <si>
+    <t>网络发言大赏</t>
+  </si>
+  <si>
+    <t>猛犸新闻</t>
+  </si>
+  <si>
+    <t>剪了个剧</t>
+  </si>
+  <si>
+    <t>弄潮儿大总管</t>
+  </si>
+  <si>
+    <t>娱乐有饭</t>
+  </si>
+  <si>
+    <t>痒痒鼠办事处</t>
+  </si>
+  <si>
+    <t>我的损友滕依梵</t>
+  </si>
+  <si>
+    <t>太皇太后您有喜啦</t>
+  </si>
+  <si>
+    <t>娱老爷</t>
+  </si>
+  <si>
+    <t>谷雨-腾讯新闻</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,22 +1713,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="F2">
         <v>660</v>
       </c>
       <c r="G2">
-        <v>3743053</v>
+        <v>3743093</v>
       </c>
       <c r="H2">
         <v>2631</v>
@@ -1298,22 +1739,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="F3">
         <v>818</v>
       </c>
       <c r="G3">
-        <v>20570761</v>
+        <v>20570752</v>
       </c>
       <c r="H3">
         <v>40333</v>
@@ -1324,22 +1765,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="F4">
         <v>425</v>
       </c>
       <c r="G4">
-        <v>1586953</v>
+        <v>1586974</v>
       </c>
       <c r="H4">
         <v>30982</v>
@@ -1350,16 +1791,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="F5">
         <v>5682</v>
@@ -1376,22 +1817,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="F6">
         <v>697</v>
       </c>
       <c r="G6">
-        <v>4034284</v>
+        <v>4034282</v>
       </c>
       <c r="H6">
         <v>3903</v>
@@ -1402,22 +1843,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="F7">
         <v>142</v>
       </c>
       <c r="G7">
-        <v>4507099</v>
+        <v>4507096</v>
       </c>
       <c r="H7">
         <v>1239</v>
@@ -1428,25 +1869,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="F8">
         <v>1872</v>
       </c>
       <c r="G8">
-        <v>18374153</v>
+        <v>18374152</v>
       </c>
       <c r="H8">
-        <v>115601</v>
+        <v>115602</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1454,22 +1895,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="F9">
         <v>530</v>
       </c>
       <c r="G9">
-        <v>9055302</v>
+        <v>9055682</v>
       </c>
       <c r="H9">
         <v>7566</v>
@@ -1480,22 +1921,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="F10">
         <v>818</v>
       </c>
       <c r="G10">
-        <v>20570761</v>
+        <v>20570753</v>
       </c>
       <c r="H10">
         <v>40333</v>
@@ -1506,25 +1947,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>381</v>
       </c>
       <c r="F11">
         <v>2309</v>
       </c>
       <c r="G11">
-        <v>24498385</v>
+        <v>24498529</v>
       </c>
       <c r="H11">
-        <v>153509</v>
+        <v>153512</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1532,22 +1973,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="F12">
         <v>60</v>
       </c>
       <c r="G12">
-        <v>11447607</v>
+        <v>11447606</v>
       </c>
       <c r="H12">
         <v>1263</v>
@@ -1558,22 +1999,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="F13">
         <v>1399</v>
       </c>
       <c r="G13">
-        <v>3729409</v>
+        <v>3729398</v>
       </c>
       <c r="H13">
         <v>24894</v>
@@ -1584,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="F14">
         <v>392</v>
       </c>
       <c r="G14">
-        <v>9685432</v>
+        <v>9685428</v>
       </c>
       <c r="H14">
         <v>79695</v>
@@ -1610,25 +2051,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>385</v>
       </c>
       <c r="F15">
         <v>2694</v>
       </c>
       <c r="G15">
-        <v>23739830</v>
+        <v>23739827</v>
       </c>
       <c r="H15">
-        <v>260401</v>
+        <v>260412</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1636,25 +2077,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
       <c r="F16">
         <v>700</v>
       </c>
       <c r="G16">
-        <v>24008575</v>
+        <v>24008578</v>
       </c>
       <c r="H16">
-        <v>75560</v>
+        <v>75561</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1662,25 +2103,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="F17">
         <v>1653</v>
       </c>
       <c r="G17">
-        <v>103582101</v>
+        <v>103582106</v>
       </c>
       <c r="H17">
-        <v>212179</v>
+        <v>212180</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1688,22 +2129,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="F18">
         <v>530</v>
       </c>
       <c r="G18">
-        <v>9055307</v>
+        <v>9055683</v>
       </c>
       <c r="H18">
         <v>7566</v>
@@ -1714,22 +2155,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
       <c r="F19">
         <v>1355</v>
       </c>
       <c r="G19">
-        <v>6934385</v>
+        <v>6934546</v>
       </c>
       <c r="H19">
         <v>13641</v>
@@ -1740,16 +2181,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="F20">
         <v>67</v>
@@ -1766,25 +2207,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
       <c r="F21">
         <v>962</v>
       </c>
       <c r="G21">
-        <v>40055020</v>
+        <v>40055414</v>
       </c>
       <c r="H21">
-        <v>207306</v>
+        <v>207307</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1792,25 +2233,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="F22">
         <v>538</v>
       </c>
       <c r="G22">
-        <v>10388161</v>
+        <v>10388244</v>
       </c>
       <c r="H22">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1818,22 +2259,22 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>392</v>
       </c>
       <c r="F23">
         <v>209</v>
       </c>
       <c r="G23">
-        <v>8534179</v>
+        <v>8534345</v>
       </c>
       <c r="H23">
         <v>6788</v>
@@ -1844,22 +2285,22 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="F24">
         <v>818</v>
       </c>
       <c r="G24">
-        <v>20570761</v>
+        <v>20570754</v>
       </c>
       <c r="H24">
         <v>40333</v>
@@ -1870,25 +2311,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="F25">
         <v>538</v>
       </c>
       <c r="G25">
-        <v>10388161</v>
+        <v>10388244</v>
       </c>
       <c r="H25">
-        <v>4544</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1896,22 +2337,22 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>393</v>
       </c>
       <c r="F26">
         <v>272</v>
       </c>
       <c r="G26">
-        <v>1011175</v>
+        <v>1011174</v>
       </c>
       <c r="H26">
         <v>3092</v>
@@ -1922,16 +2363,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>394</v>
       </c>
       <c r="F27">
         <v>1159</v>
@@ -1948,25 +2389,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="F28">
         <v>1653</v>
       </c>
       <c r="G28">
-        <v>103582102</v>
+        <v>103582106</v>
       </c>
       <c r="H28">
-        <v>212179</v>
+        <v>212180</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1974,16 +2415,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="E29" t="s">
-        <v>267</v>
+        <v>395</v>
       </c>
       <c r="F29">
         <v>54</v>
@@ -2000,22 +2441,22 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="F30">
         <v>246</v>
       </c>
       <c r="G30">
-        <v>23430266</v>
+        <v>23430264</v>
       </c>
       <c r="H30">
         <v>1652</v>
@@ -2026,25 +2467,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="F31">
         <v>1653</v>
       </c>
       <c r="G31">
-        <v>103582101</v>
+        <v>103582106</v>
       </c>
       <c r="H31">
-        <v>212179</v>
+        <v>212180</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2052,16 +2493,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="F32">
         <v>35</v>
@@ -2078,25 +2519,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="F33">
         <v>1054</v>
       </c>
       <c r="G33">
-        <v>82748418</v>
+        <v>82748554</v>
       </c>
       <c r="H33">
-        <v>128144</v>
+        <v>128145</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2104,25 +2545,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="F34">
         <v>110</v>
       </c>
       <c r="G34">
-        <v>10449678</v>
+        <v>10449675</v>
       </c>
       <c r="H34">
-        <v>5194</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2130,25 +2571,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="F35">
         <v>1653</v>
       </c>
       <c r="G35">
-        <v>103582101</v>
+        <v>103582104</v>
       </c>
       <c r="H35">
-        <v>212179</v>
+        <v>212180</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2156,22 +2597,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>108</v>
       </c>
       <c r="G36">
-        <v>3656319</v>
+        <v>3656306</v>
       </c>
       <c r="H36">
         <v>33013</v>
@@ -2182,22 +2623,22 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="F37">
         <v>592</v>
       </c>
       <c r="G37">
-        <v>11972167</v>
+        <v>11972171</v>
       </c>
       <c r="H37">
         <v>8080</v>
@@ -2208,22 +2649,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="F38">
         <v>818</v>
       </c>
       <c r="G38">
-        <v>20570761</v>
+        <v>20570754</v>
       </c>
       <c r="H38">
         <v>40333</v>
@@ -2234,22 +2675,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>402</v>
       </c>
       <c r="F39">
         <v>655</v>
       </c>
       <c r="G39">
-        <v>2651226</v>
+        <v>2651230</v>
       </c>
       <c r="H39">
         <v>2262</v>
@@ -2260,22 +2701,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>403</v>
       </c>
       <c r="F40">
         <v>878</v>
       </c>
       <c r="G40">
-        <v>2023676</v>
+        <v>2023675</v>
       </c>
       <c r="H40">
         <v>7542</v>
@@ -2286,22 +2727,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="F41">
         <v>818</v>
       </c>
       <c r="G41">
-        <v>20570761</v>
+        <v>20570754</v>
       </c>
       <c r="H41">
         <v>40333</v>
@@ -2312,22 +2753,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="F42">
         <v>530</v>
       </c>
       <c r="G42">
-        <v>9055311</v>
+        <v>9055686</v>
       </c>
       <c r="H42">
         <v>7566</v>
@@ -2338,25 +2779,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="F43">
-        <v>246</v>
+        <v>677</v>
       </c>
       <c r="G43">
-        <v>23430266</v>
+        <v>13923643</v>
       </c>
       <c r="H43">
-        <v>1652</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2364,25 +2805,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
-        <v>276</v>
+        <v>396</v>
       </c>
       <c r="F44">
-        <v>677</v>
+        <v>246</v>
       </c>
       <c r="G44">
-        <v>13923439</v>
+        <v>23430264</v>
       </c>
       <c r="H44">
-        <v>10112</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2390,22 +2831,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="F45">
         <v>194</v>
       </c>
       <c r="G45">
-        <v>11775320</v>
+        <v>11775829</v>
       </c>
       <c r="H45">
         <v>2645</v>
@@ -2416,22 +2857,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="F46">
         <v>818</v>
       </c>
       <c r="G46">
-        <v>20570761</v>
+        <v>20570755</v>
       </c>
       <c r="H46">
         <v>40333</v>
@@ -2442,22 +2883,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>406</v>
       </c>
       <c r="F47">
         <v>3544</v>
       </c>
       <c r="G47">
-        <v>3863113</v>
+        <v>3863376</v>
       </c>
       <c r="H47">
         <v>6478</v>
@@ -2468,22 +2909,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="F48">
         <v>1352</v>
       </c>
       <c r="G48">
-        <v>2161982</v>
+        <v>2161980</v>
       </c>
       <c r="H48">
         <v>19753</v>
@@ -2494,22 +2935,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="E49" t="s">
-        <v>280</v>
+        <v>408</v>
       </c>
       <c r="F49">
         <v>87</v>
       </c>
       <c r="G49">
-        <v>2788986</v>
+        <v>2806086</v>
       </c>
       <c r="H49">
         <v>137</v>
@@ -2520,22 +2961,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>406</v>
       </c>
       <c r="F50">
         <v>3544</v>
       </c>
       <c r="G50">
-        <v>3863113</v>
+        <v>3863375</v>
       </c>
       <c r="H50">
         <v>6478</v>
@@ -2546,25 +2987,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>409</v>
       </c>
       <c r="F51">
         <v>122</v>
       </c>
       <c r="G51">
-        <v>3053744</v>
+        <v>3059360</v>
       </c>
       <c r="H51">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2572,22 +3013,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="E52" t="s">
-        <v>282</v>
+        <v>410</v>
       </c>
       <c r="F52">
         <v>3025</v>
       </c>
       <c r="G52">
-        <v>13924782</v>
+        <v>13924776</v>
       </c>
       <c r="H52">
         <v>74952</v>
@@ -2598,16 +3039,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="F53">
         <v>975</v>
@@ -2624,22 +3065,22 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="E54" t="s">
-        <v>284</v>
+        <v>412</v>
       </c>
       <c r="F54">
         <v>791</v>
       </c>
       <c r="G54">
-        <v>41473991</v>
+        <v>41473938</v>
       </c>
       <c r="H54">
         <v>42083</v>
@@ -2650,25 +3091,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="E55" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="F55">
-        <v>262</v>
+        <v>962</v>
       </c>
       <c r="G55">
-        <v>15213380</v>
+        <v>40055429</v>
       </c>
       <c r="H55">
-        <v>120384</v>
+        <v>207307</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2676,25 +3117,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="E56" t="s">
+        <v>413</v>
+      </c>
+      <c r="F56">
         <v>262</v>
       </c>
-      <c r="F56">
-        <v>962</v>
-      </c>
       <c r="G56">
-        <v>40055037</v>
+        <v>15213467</v>
       </c>
       <c r="H56">
-        <v>207306</v>
+        <v>120384</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2702,22 +3143,22 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
       <c r="F57">
         <v>1355</v>
       </c>
       <c r="G57">
-        <v>6934400</v>
+        <v>6934548</v>
       </c>
       <c r="H57">
         <v>13641</v>
@@ -2728,22 +3169,22 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>414</v>
       </c>
       <c r="F58">
         <v>81</v>
       </c>
       <c r="G58">
-        <v>603186</v>
+        <v>603185</v>
       </c>
       <c r="H58">
         <v>8346</v>
@@ -2754,25 +3195,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="F59">
         <v>1872</v>
       </c>
       <c r="G59">
-        <v>18374154</v>
+        <v>18374152</v>
       </c>
       <c r="H59">
-        <v>115601</v>
+        <v>115602</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2780,22 +3221,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="E60" t="s">
-        <v>287</v>
+        <v>415</v>
       </c>
       <c r="F60">
         <v>266</v>
       </c>
       <c r="G60">
-        <v>11377230</v>
+        <v>11377227</v>
       </c>
       <c r="H60">
         <v>4871</v>
@@ -2806,25 +3247,877 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>341</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>381</v>
       </c>
       <c r="F61">
         <v>2309</v>
       </c>
       <c r="G61">
-        <v>24498391</v>
+        <v>24498537</v>
       </c>
       <c r="H61">
-        <v>153509</v>
+        <v>153512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" t="s">
+        <v>383</v>
+      </c>
+      <c r="F62">
+        <v>1399</v>
+      </c>
+      <c r="G62">
+        <v>3729397</v>
+      </c>
+      <c r="H62">
+        <v>24894</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" t="s">
+        <v>416</v>
+      </c>
+      <c r="F63">
+        <v>294</v>
+      </c>
+      <c r="G63">
+        <v>5261325</v>
+      </c>
+      <c r="H63">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F64">
+        <v>308</v>
+      </c>
+      <c r="G64">
+        <v>506422</v>
+      </c>
+      <c r="H64">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>343</v>
+      </c>
+      <c r="E65" t="s">
+        <v>388</v>
+      </c>
+      <c r="F65">
+        <v>1355</v>
+      </c>
+      <c r="G65">
+        <v>6934547</v>
+      </c>
+      <c r="H65">
+        <v>13641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" t="s">
+        <v>344</v>
+      </c>
+      <c r="E66" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66">
+        <v>104</v>
+      </c>
+      <c r="G66">
+        <v>2834303</v>
+      </c>
+      <c r="H66">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" t="s">
+        <v>386</v>
+      </c>
+      <c r="F67">
+        <v>700</v>
+      </c>
+      <c r="G67">
+        <v>24008578</v>
+      </c>
+      <c r="H67">
+        <v>75561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68">
+        <v>37</v>
+      </c>
+      <c r="G68">
+        <v>2497769</v>
+      </c>
+      <c r="H68">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" t="s">
+        <v>347</v>
+      </c>
+      <c r="E69" t="s">
+        <v>420</v>
+      </c>
+      <c r="F69">
+        <v>2118</v>
+      </c>
+      <c r="G69">
+        <v>24992117</v>
+      </c>
+      <c r="H69">
+        <v>274743</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" t="s">
+        <v>387</v>
+      </c>
+      <c r="F70">
+        <v>1653</v>
+      </c>
+      <c r="G70">
+        <v>103582107</v>
+      </c>
+      <c r="H70">
+        <v>212180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" t="s">
+        <v>421</v>
+      </c>
+      <c r="F71">
+        <v>1285</v>
+      </c>
+      <c r="G71">
+        <v>11197736</v>
+      </c>
+      <c r="H71">
+        <v>179123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" t="s">
+        <v>422</v>
+      </c>
+      <c r="F72">
+        <v>1239</v>
+      </c>
+      <c r="G72">
+        <v>17648078</v>
+      </c>
+      <c r="H72">
+        <v>138187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" t="s">
+        <v>413</v>
+      </c>
+      <c r="F73">
+        <v>262</v>
+      </c>
+      <c r="G73">
+        <v>15213468</v>
+      </c>
+      <c r="H73">
+        <v>120384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" t="s">
+        <v>352</v>
+      </c>
+      <c r="E74" t="s">
+        <v>423</v>
+      </c>
+      <c r="F74">
+        <v>65</v>
+      </c>
+      <c r="G74">
+        <v>2478085</v>
+      </c>
+      <c r="H74">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" t="s">
+        <v>353</v>
+      </c>
+      <c r="E75" t="s">
+        <v>424</v>
+      </c>
+      <c r="F75">
+        <v>910</v>
+      </c>
+      <c r="G75">
+        <v>2976089</v>
+      </c>
+      <c r="H75">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76" t="s">
+        <v>425</v>
+      </c>
+      <c r="F76">
+        <v>246</v>
+      </c>
+      <c r="G76">
+        <v>2485475</v>
+      </c>
+      <c r="H76">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77">
+        <v>2694</v>
+      </c>
+      <c r="G77">
+        <v>23739824</v>
+      </c>
+      <c r="H77">
+        <v>260412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>268</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>426</v>
+      </c>
+      <c r="F78">
+        <v>1290</v>
+      </c>
+      <c r="G78">
+        <v>8416166</v>
+      </c>
+      <c r="H78">
+        <v>87030</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" t="s">
+        <v>386</v>
+      </c>
+      <c r="F79">
+        <v>700</v>
+      </c>
+      <c r="G79">
+        <v>24008579</v>
+      </c>
+      <c r="H79">
+        <v>75561</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" t="s">
+        <v>388</v>
+      </c>
+      <c r="F80">
+        <v>1355</v>
+      </c>
+      <c r="G80">
+        <v>6934547</v>
+      </c>
+      <c r="H80">
+        <v>13641</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" t="s">
+        <v>386</v>
+      </c>
+      <c r="F81">
+        <v>700</v>
+      </c>
+      <c r="G81">
+        <v>24008579</v>
+      </c>
+      <c r="H81">
+        <v>75561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>272</v>
+      </c>
+      <c r="D82" t="s">
+        <v>360</v>
+      </c>
+      <c r="E82" t="s">
+        <v>427</v>
+      </c>
+      <c r="F82">
+        <v>98</v>
+      </c>
+      <c r="G82">
+        <v>283654</v>
+      </c>
+      <c r="H82">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" t="s">
+        <v>361</v>
+      </c>
+      <c r="E83" t="s">
+        <v>428</v>
+      </c>
+      <c r="F83">
+        <v>373</v>
+      </c>
+      <c r="G83">
+        <v>2920225</v>
+      </c>
+      <c r="H83">
+        <v>7695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84" t="s">
+        <v>385</v>
+      </c>
+      <c r="F84">
+        <v>2694</v>
+      </c>
+      <c r="G84">
+        <v>23739824</v>
+      </c>
+      <c r="H84">
+        <v>260412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" t="s">
+        <v>429</v>
+      </c>
+      <c r="F85">
+        <v>1468</v>
+      </c>
+      <c r="G85">
+        <v>12626041</v>
+      </c>
+      <c r="H85">
+        <v>28309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" t="s">
+        <v>364</v>
+      </c>
+      <c r="E86" t="s">
+        <v>430</v>
+      </c>
+      <c r="F86">
+        <v>846</v>
+      </c>
+      <c r="G86">
+        <v>578230</v>
+      </c>
+      <c r="H86">
+        <v>9265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
+        <v>365</v>
+      </c>
+      <c r="E87" t="s">
+        <v>431</v>
+      </c>
+      <c r="F87">
+        <v>44</v>
+      </c>
+      <c r="G87">
+        <v>10004730</v>
+      </c>
+      <c r="H87">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" t="s">
+        <v>366</v>
+      </c>
+      <c r="E88" t="s">
+        <v>432</v>
+      </c>
+      <c r="F88">
+        <v>961</v>
+      </c>
+      <c r="G88">
+        <v>10979744</v>
+      </c>
+      <c r="H88">
+        <v>53464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" t="s">
+        <v>367</v>
+      </c>
+      <c r="E89" t="s">
+        <v>390</v>
+      </c>
+      <c r="F89">
+        <v>962</v>
+      </c>
+      <c r="G89">
+        <v>40055438</v>
+      </c>
+      <c r="H89">
+        <v>207307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" t="s">
+        <v>368</v>
+      </c>
+      <c r="E90" t="s">
+        <v>433</v>
+      </c>
+      <c r="F90">
+        <v>1535</v>
+      </c>
+      <c r="G90">
+        <v>3368082</v>
+      </c>
+      <c r="H90">
+        <v>14137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" t="s">
+        <v>369</v>
+      </c>
+      <c r="E91" t="s">
+        <v>398</v>
+      </c>
+      <c r="F91">
+        <v>1054</v>
+      </c>
+      <c r="G91">
+        <v>82748564</v>
+      </c>
+      <c r="H91">
+        <v>128145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" t="s">
+        <v>370</v>
+      </c>
+      <c r="E92" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92">
+        <v>962</v>
+      </c>
+      <c r="G92">
+        <v>40055443</v>
+      </c>
+      <c r="H92">
+        <v>207307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" t="s">
+        <v>386</v>
+      </c>
+      <c r="F93">
+        <v>700</v>
+      </c>
+      <c r="G93">
+        <v>24008578</v>
+      </c>
+      <c r="H93">
+        <v>75561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" t="s">
+        <v>434</v>
+      </c>
+      <c r="F94">
+        <v>491</v>
+      </c>
+      <c r="G94">
+        <v>120012</v>
+      </c>
+      <c r="H94">
+        <v>1760</v>
       </c>
     </row>
   </sheetData>

--- a/C:\Users\yiwang\Desktop\sina.xlsx
+++ b/C:\Users\yiwang\Desktop\sina.xlsx
@@ -178,16 +178,16 @@
     <t>1.9亿</t>
   </si>
   <si>
-    <t>5730.6万</t>
-  </si>
-  <si>
-    <t>1164.7万</t>
-  </si>
-  <si>
-    <t>1.1亿</t>
-  </si>
-  <si>
-    <t>833.3万</t>
+    <t>5741.5万</t>
+  </si>
+  <si>
+    <t>1190.2万</t>
+  </si>
+  <si>
+    <t>1.2亿</t>
+  </si>
+  <si>
+    <t>835.8万</t>
   </si>
   <si>
     <t>1.4亿</t>
@@ -196,13 +196,13 @@
     <t>3.1亿</t>
   </si>
   <si>
-    <t>73万</t>
-  </si>
-  <si>
-    <t>9862万</t>
-  </si>
-  <si>
-    <t>312.2万</t>
+    <t>73.9万</t>
+  </si>
+  <si>
+    <t>9868.5万</t>
+  </si>
+  <si>
+    <t>313.2万</t>
   </si>
   <si>
     <t>1.7亿</t>
@@ -211,13 +211,13 @@
     <t>1.5亿</t>
   </si>
   <si>
-    <t>881.6万</t>
-  </si>
-  <si>
-    <t>8628.8万</t>
-  </si>
-  <si>
-    <t>2710.7万</t>
+    <t>882.9万</t>
+  </si>
+  <si>
+    <t>8632.8万</t>
+  </si>
+  <si>
+    <t>2831.3万</t>
   </si>
   <si>
     <t>顶端新闻</t>
@@ -672,7 +672,7 @@
         <v>91</v>
       </c>
       <c r="G2">
-        <v>20718</v>
+        <v>20739</v>
       </c>
       <c r="H2">
         <v>6109</v>
@@ -698,7 +698,7 @@
         <v>1364</v>
       </c>
       <c r="G3">
-        <v>6935638</v>
+        <v>6935633</v>
       </c>
       <c r="H3">
         <v>13661</v>
@@ -724,10 +724,10 @@
         <v>3545</v>
       </c>
       <c r="G4">
-        <v>3870760</v>
+        <v>3870766</v>
       </c>
       <c r="H4">
-        <v>6488</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -750,7 +750,7 @@
         <v>494</v>
       </c>
       <c r="G5">
-        <v>11614067</v>
+        <v>11614887</v>
       </c>
       <c r="H5">
         <v>7572</v>
@@ -776,7 +776,7 @@
         <v>2311</v>
       </c>
       <c r="G6">
-        <v>24499892</v>
+        <v>24499876</v>
       </c>
       <c r="H6">
         <v>153557</v>
@@ -828,7 +828,7 @@
         <v>104</v>
       </c>
       <c r="G8">
-        <v>2835708</v>
+        <v>2835712</v>
       </c>
       <c r="H8">
         <v>6402</v>
@@ -854,7 +854,7 @@
         <v>1433</v>
       </c>
       <c r="G9">
-        <v>1493927</v>
+        <v>1493929</v>
       </c>
       <c r="H9">
         <v>41170</v>
@@ -880,7 +880,7 @@
         <v>818</v>
       </c>
       <c r="G10">
-        <v>20570486</v>
+        <v>20570477</v>
       </c>
       <c r="H10">
         <v>40340</v>
@@ -906,10 +906,10 @@
         <v>1653</v>
       </c>
       <c r="G11">
-        <v>103581046</v>
+        <v>103581113</v>
       </c>
       <c r="H11">
-        <v>212221</v>
+        <v>212222</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -932,7 +932,7 @@
         <v>5682</v>
       </c>
       <c r="G12">
-        <v>3157602</v>
+        <v>3157600</v>
       </c>
       <c r="H12">
         <v>49921</v>
@@ -958,7 +958,7 @@
         <v>60</v>
       </c>
       <c r="G13">
-        <v>11447588</v>
+        <v>11447586</v>
       </c>
       <c r="H13">
         <v>1265</v>
@@ -984,7 +984,7 @@
         <v>392</v>
       </c>
       <c r="G14">
-        <v>9689787</v>
+        <v>9689794</v>
       </c>
       <c r="H14">
         <v>79695</v>
@@ -1010,7 +1010,7 @@
         <v>660</v>
       </c>
       <c r="G15">
-        <v>3744756</v>
+        <v>3744766</v>
       </c>
       <c r="H15">
         <v>2632</v>
@@ -1036,7 +1036,7 @@
         <v>655</v>
       </c>
       <c r="G16">
-        <v>2651297</v>
+        <v>2651298</v>
       </c>
       <c r="H16">
         <v>2262</v>
